--- a/项目管理/进度计划/Demo-里程碑7/Demo-里程碑7计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑7/Demo-里程碑7计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38700" yWindow="460" windowWidth="32940" windowHeight="16660" tabRatio="349" activeTab="1"/>
+    <workbookView xWindow="38600" yWindow="620" windowWidth="28800" windowHeight="16660" tabRatio="349" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑7" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="696">
   <si>
     <t>分类</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -5702,9 +5702,6 @@
     <t>前五天功能开放和内容开放确认</t>
   </si>
   <si>
-    <t>成长相关 - 任务投放</t>
-  </si>
-  <si>
     <t>宝石， 防御-法物技能拆分</t>
   </si>
   <si>
@@ -5789,9 +5786,6 @@
     <t>物攻五行，打断验收，Debug</t>
   </si>
   <si>
-    <t>第一二章的怪物数值调试 （1/2)</t>
-  </si>
-  <si>
     <t>里程碑 8 （预告）</t>
   </si>
   <si>
@@ -5844,9 +5838,6 @@
   </si>
   <si>
     <t>玩家前两天新手学习时间规划</t>
-  </si>
-  <si>
-    <t>扫荡配置（测试配置，不设等级需求）</t>
   </si>
   <si>
     <t>任务投放，跟胖子确认</t>
@@ -9739,6 +9730,21 @@
   </si>
   <si>
     <t xml:space="preserve">账号登录，创建角色，服务器选择，公告 </t>
+  </si>
+  <si>
+    <t>掉落配置</t>
+  </si>
+  <si>
+    <t>通用特效逻辑+美术需求</t>
+  </si>
+  <si>
+    <t>通用逻辑配置</t>
+  </si>
+  <si>
+    <t>成长相关 - 任务投放+剧情（前两天）</t>
+  </si>
+  <si>
+    <t>扫荡配置（成长）</t>
   </si>
 </sst>
 </file>
@@ -10517,7 +10523,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10968,6 +10974,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="373">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -12894,7 +12906,7 @@
         <v>86</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F2" s="36"/>
       <c r="G2" s="5" t="s">
@@ -12910,7 +12922,7 @@
         <v>77</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="5" t="s">
@@ -12926,7 +12938,7 @@
         <v>65</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="5"/>
@@ -12935,13 +12947,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="5" t="s">
@@ -12957,7 +12969,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F6" s="36"/>
       <c r="G6" s="5" t="s">
@@ -12990,7 +13002,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="5" t="s">
@@ -13008,7 +13020,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="5" t="s">
@@ -13034,7 +13046,7 @@
         <v>204</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="5"/>
@@ -13045,7 +13057,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F12" s="38"/>
     </row>
@@ -13126,7 +13138,7 @@
         <v>141</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
@@ -13136,7 +13148,7 @@
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -13165,7 +13177,7 @@
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -13194,7 +13206,7 @@
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I17" s="10"/>
       <c r="K17" s="10"/>
@@ -13212,7 +13224,7 @@
         <v>141</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E18" s="8">
         <v>1</v>
@@ -13222,7 +13234,7 @@
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>75</v>
@@ -13304,7 +13316,7 @@
         <v>114</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E21" s="8">
         <v>1</v>
@@ -13405,10 +13417,10 @@
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="18" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
@@ -13436,10 +13448,10 @@
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="18" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="18"/>
@@ -13468,10 +13480,10 @@
       <c r="G26" s="8"/>
       <c r="H26" s="10"/>
       <c r="I26" s="18" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
@@ -13554,7 +13566,7 @@
         <v>289</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E29" s="8">
         <v>1</v>
@@ -13564,7 +13576,7 @@
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -13583,7 +13595,7 @@
         <v>289</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E30" s="8">
         <v>1</v>
@@ -13594,7 +13606,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
@@ -13659,13 +13671,13 @@
         <v>252</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>9</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="M32" s="10"/>
     </row>
@@ -13724,7 +13736,7 @@
         <v>252</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>75</v>
@@ -13961,7 +13973,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
@@ -14041,7 +14053,7 @@
         <v>64</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E45" s="8">
         <v>1</v>
@@ -14055,10 +14067,10 @@
       </c>
       <c r="I45" s="10"/>
       <c r="J45" s="10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>75</v>
@@ -14076,7 +14088,7 @@
         <v>64</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E46" s="8">
         <v>2</v>
@@ -14089,7 +14101,7 @@
       <c r="I46" s="10"/>
       <c r="J46" s="11"/>
       <c r="K46" s="10" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L46" s="11" t="s">
         <v>290</v>
@@ -14168,7 +14180,7 @@
         <v>64</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E49" s="8">
         <v>1</v>
@@ -14197,7 +14209,7 @@
         <v>114</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E50" s="8">
         <v>1</v>
@@ -14226,7 +14238,7 @@
         <v>120</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E51" s="8">
         <v>1</v>
@@ -14255,7 +14267,7 @@
         <v>64</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E52" s="8">
         <v>1</v>
@@ -14284,7 +14296,7 @@
         <v>64</v>
       </c>
       <c r="D53" s="134" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E53" s="8">
         <v>1</v>
@@ -14313,7 +14325,7 @@
         <v>64</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E54" s="8">
         <v>3</v>
@@ -14390,7 +14402,7 @@
         <v>114</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E57" s="10">
         <v>1</v>
@@ -14419,7 +14431,7 @@
         <v>197</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E58" s="10">
         <v>1</v>
@@ -14448,7 +14460,7 @@
         <v>120</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E59" s="10">
         <v>1</v>
@@ -14534,7 +14546,7 @@
         <v>197</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E62" s="10">
         <v>2</v>
@@ -14547,7 +14559,7 @@
       <c r="I62" s="10"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="L62" s="11"/>
       <c r="M62" s="10"/>
@@ -14563,7 +14575,7 @@
         <v>142</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E63" s="10">
         <v>2</v>
@@ -14592,7 +14604,7 @@
         <v>120</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E64" s="10">
         <v>2</v>
@@ -14621,7 +14633,7 @@
         <v>197</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E65" s="10">
         <v>2</v>
@@ -14648,7 +14660,7 @@
         <v>144</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E66" s="8">
         <v>3</v>
@@ -14677,7 +14689,7 @@
         <v>192</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E67" s="10">
         <v>3</v>
@@ -14700,13 +14712,13 @@
         <v>54</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E68" s="8">
         <v>3</v>
@@ -14728,13 +14740,13 @@
         <v>55</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>180</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E69" s="8">
         <v>3</v>
@@ -14792,7 +14804,7 @@
         <v>144</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E71" s="10">
         <v>3</v>
@@ -14821,7 +14833,7 @@
         <v>120</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E72" s="8">
         <v>3</v>
@@ -14847,10 +14859,10 @@
         <v>198</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E73" s="8">
         <v>2</v>
@@ -14876,10 +14888,10 @@
         <v>198</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E74" s="8">
         <v>2</v>
@@ -14927,7 +14939,7 @@
         <v>71</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E76" s="8">
         <v>1</v>
@@ -14981,7 +14993,7 @@
         <v>123</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E78" s="8">
         <v>2</v>
@@ -15180,7 +15192,7 @@
         <v>255</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E87" s="8">
         <v>1</v>
@@ -15219,10 +15231,10 @@
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="10" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="J88" s="10" t="s">
         <v>118</v>
@@ -15254,7 +15266,7 @@
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="I89" s="10"/>
       <c r="J89" s="10"/>
@@ -15273,7 +15285,7 @@
         <v>64</v>
       </c>
       <c r="D90" s="135" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E90" s="10">
         <v>1</v>
@@ -15304,7 +15316,7 @@
         <v>124</v>
       </c>
       <c r="D91" s="135" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E91" s="8">
         <v>1</v>
@@ -15314,13 +15326,13 @@
       </c>
       <c r="G91" s="8"/>
       <c r="H91" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I91" s="10" t="s">
         <v>311</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
@@ -15337,7 +15349,7 @@
         <v>124</v>
       </c>
       <c r="D92" s="135" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E92" s="8">
         <v>1</v>
@@ -15347,13 +15359,13 @@
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I92" s="10" t="s">
         <v>311</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
@@ -15370,7 +15382,7 @@
         <v>124</v>
       </c>
       <c r="D93" s="135" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E93" s="8">
         <v>1</v>
@@ -15381,7 +15393,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="10"/>
       <c r="I93" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J93" s="10" t="s">
         <v>255</v>
@@ -15401,7 +15413,7 @@
         <v>124</v>
       </c>
       <c r="D94" s="135" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E94" s="8">
         <v>1</v>
@@ -15411,11 +15423,11 @@
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I94" s="10"/>
       <c r="J94" s="10" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
@@ -15432,7 +15444,7 @@
         <v>124</v>
       </c>
       <c r="D95" s="135" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E95" s="8">
         <v>1</v>
@@ -15442,13 +15454,13 @@
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I95" s="10" t="s">
         <v>311</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="K95" s="10"/>
       <c r="L95" s="10"/>
@@ -15465,7 +15477,7 @@
         <v>124</v>
       </c>
       <c r="D96" s="135" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E96" s="8">
         <v>1</v>
@@ -15475,13 +15487,13 @@
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I96" s="10" t="s">
         <v>311</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
@@ -15498,7 +15510,7 @@
         <v>124</v>
       </c>
       <c r="D97" s="135" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E97" s="8">
         <v>1</v>
@@ -15529,7 +15541,7 @@
         <v>124</v>
       </c>
       <c r="D98" s="136" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E98" s="8">
         <v>1</v>
@@ -15540,7 +15552,7 @@
       <c r="G98" s="8"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J98" s="10" t="s">
         <v>255</v>
@@ -15560,7 +15572,7 @@
         <v>124</v>
       </c>
       <c r="D99" s="135" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E99" s="8">
         <v>1</v>
@@ -15571,7 +15583,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="10"/>
       <c r="I99" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J99" s="10" t="s">
         <v>255</v>
@@ -15591,7 +15603,7 @@
         <v>124</v>
       </c>
       <c r="D100" s="135" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E100" s="8">
         <v>1</v>
@@ -15603,7 +15615,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
       <c r="J100" s="10" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
@@ -15620,7 +15632,7 @@
         <v>124</v>
       </c>
       <c r="D101" s="135" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E101" s="8">
         <v>1</v>
@@ -15633,10 +15645,10 @@
         <v>312</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K101" s="10" t="s">
         <v>255</v>
@@ -15655,7 +15667,7 @@
         <v>124</v>
       </c>
       <c r="D102" s="135" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E102" s="8">
         <v>1</v>
@@ -15669,7 +15681,7 @@
         <v>122</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L102" s="10" t="s">
         <v>253</v>
@@ -15687,7 +15699,7 @@
         <v>124</v>
       </c>
       <c r="D103" s="137" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E103" s="8">
         <v>1</v>
@@ -15703,7 +15715,7 @@
       </c>
       <c r="K103" s="10"/>
       <c r="L103" s="10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M103" s="18"/>
     </row>
@@ -15718,7 +15730,7 @@
         <v>124</v>
       </c>
       <c r="D104" s="137" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E104" s="8">
         <v>1</v>
@@ -15734,7 +15746,7 @@
       </c>
       <c r="K104" s="10"/>
       <c r="L104" s="10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M104" s="18"/>
     </row>
@@ -15773,13 +15785,13 @@
         <v>124</v>
       </c>
       <c r="D106" s="137" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E106" s="140">
         <v>1</v>
       </c>
       <c r="F106" s="141" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="18"/>
@@ -15800,13 +15812,13 @@
         <v>124</v>
       </c>
       <c r="D107" s="142" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E107" s="143">
         <v>2</v>
       </c>
       <c r="F107" s="144" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G107" s="8"/>
       <c r="H107" s="18"/>
@@ -16433,10 +16445,10 @@
   <dimension ref="A2:U210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="D41:D45"/>
+      <selection pane="bottomRight" activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -16468,50 +16480,50 @@
   <sheetData>
     <row r="2" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="72" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F2" s="75" t="s">
         <v>207</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H2" s="24"/>
       <c r="I2" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="M2" s="19" t="s">
         <v>673</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>677</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>673</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>676</v>
-      </c>
       <c r="O2" s="20" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G3" s="159"/>
     </row>
@@ -16628,7 +16640,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="157" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D6" s="150">
         <v>1</v>
@@ -16760,7 +16772,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="156" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D9" s="150">
         <v>2</v>
@@ -16791,7 +16803,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="157" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D10" s="150">
         <v>2</v>
@@ -16920,7 +16932,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="184" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C13" s="151"/>
       <c r="D13" s="183">
@@ -16976,7 +16988,7 @@
     </row>
     <row r="14" spans="1:21" ht="34" x14ac:dyDescent="0.25">
       <c r="B14" s="156" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D14" s="150">
         <v>2</v>
@@ -17032,7 +17044,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" s="159" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C15" s="159"/>
       <c r="D15" s="179">
@@ -17107,7 +17119,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B17" s="146" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D17" s="150">
         <v>2</v>
@@ -17163,7 +17175,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18" s="146" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G18" s="153"/>
       <c r="H18" s="152"/>
@@ -17200,7 +17212,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20" s="146" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D20" s="150">
         <v>1</v>
@@ -17362,7 +17374,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B23" s="159" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C23" s="159"/>
       <c r="D23" s="179">
@@ -17469,7 +17481,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" s="146" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D25" s="150">
         <v>0.5</v>
@@ -17526,7 +17538,7 @@
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="146"/>
       <c r="B28" s="148" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C28" s="148"/>
       <c r="D28" s="150">
@@ -17572,7 +17584,7 @@
     </row>
     <row r="30" spans="1:21" s="159" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B30" s="182"/>
       <c r="C30" s="182"/>
@@ -17628,7 +17640,7 @@
     <row r="31" spans="1:21" ht="34" x14ac:dyDescent="0.25">
       <c r="A31" s="146"/>
       <c r="B31" s="181" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C31" s="149"/>
       <c r="D31" s="150">
@@ -17796,7 +17808,7 @@
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="146"/>
       <c r="B34" s="157" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D34" s="150">
         <v>0.5</v>
@@ -17853,7 +17865,7 @@
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="146"/>
       <c r="B35" s="157" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D35" s="150">
         <v>0.5</v>
@@ -17907,10 +17919,10 @@
       </c>
       <c r="U35" s="146"/>
     </row>
-    <row r="36" spans="1:21" ht="34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="146"/>
       <c r="B36" s="181" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C36" s="149"/>
       <c r="D36" s="150">
@@ -18045,7 +18057,7 @@
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="146"/>
       <c r="B39" s="181" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C39" s="149"/>
       <c r="D39" s="150">
@@ -18120,10 +18132,10 @@
       <c r="T40" s="152"/>
       <c r="U40" s="146"/>
     </row>
-    <row r="41" spans="1:21" ht="34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="146"/>
-      <c r="B41" s="180" t="s">
-        <v>392</v>
+      <c r="B41" s="181" t="s">
+        <v>390</v>
       </c>
       <c r="C41" s="149"/>
       <c r="D41" s="150">
@@ -18180,8 +18192,8 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="146"/>
-      <c r="B42" s="180" t="s">
-        <v>400</v>
+      <c r="B42" s="181" t="s">
+        <v>398</v>
       </c>
       <c r="C42" s="149"/>
       <c r="D42" s="150">
@@ -18238,8 +18250,8 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="146"/>
-      <c r="B43" s="180" t="s">
-        <v>664</v>
+      <c r="B43" s="181" t="s">
+        <v>661</v>
       </c>
       <c r="C43" s="149"/>
       <c r="D43" s="150">
@@ -18270,7 +18282,7 @@
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="146"/>
       <c r="B44" s="180" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C44" s="149"/>
       <c r="D44" s="150">
@@ -18328,7 +18340,7 @@
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="146"/>
       <c r="B45" s="180" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C45" s="149"/>
       <c r="D45" s="150">
@@ -18406,7 +18418,7 @@
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="146"/>
       <c r="B47" s="149" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C47" s="149"/>
       <c r="D47" s="150">
@@ -18464,7 +18476,7 @@
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="146"/>
       <c r="B48" s="149" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C48" s="149"/>
       <c r="D48" s="150">
@@ -18522,7 +18534,7 @@
     <row r="49" spans="1:21" ht="34" x14ac:dyDescent="0.25">
       <c r="A49" s="146"/>
       <c r="B49" s="149" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C49" s="149"/>
       <c r="D49" s="150">
@@ -18580,7 +18592,7 @@
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="146"/>
       <c r="B50" s="149" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C50" s="149"/>
       <c r="D50" s="150">
@@ -18610,7 +18622,7 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B51" s="149" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C51" s="149"/>
       <c r="D51" s="150">
@@ -18687,7 +18699,7 @@
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="146"/>
       <c r="B53" s="182" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C53" s="149"/>
       <c r="D53" s="150">
@@ -18745,7 +18757,7 @@
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="146"/>
       <c r="B54" s="149" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C54" s="149"/>
       <c r="D54" s="150">
@@ -18803,7 +18815,7 @@
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="146"/>
       <c r="B55" s="146" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D55" s="150">
         <v>2</v>
@@ -18859,7 +18871,7 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B56" s="149" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C56" s="149"/>
       <c r="D56" s="150">
@@ -18935,7 +18947,7 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B58" s="146" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D58" s="150">
         <v>3</v>
@@ -19014,7 +19026,7 @@
     </row>
     <row r="60" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="24" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="72">
@@ -19084,7 +19096,7 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B63" s="146" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G63" s="153"/>
       <c r="H63" s="152"/>
@@ -19104,7 +19116,7 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B64" s="146" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D64" s="150">
         <v>1</v>
@@ -19157,7 +19169,7 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B66" s="146" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D66" s="150">
         <v>1</v>
@@ -19180,7 +19192,7 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B67" s="146" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D67" s="150">
         <v>1</v>
@@ -19203,7 +19215,7 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B68" s="146" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D68" s="150">
         <v>3</v>
@@ -19269,10 +19281,10 @@
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B73" s="157" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D73" s="150">
         <v>1</v>
@@ -19328,7 +19340,7 @@
     <row r="74" spans="1:21" s="159" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="157" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D74" s="179">
         <v>0.5</v>
@@ -19386,7 +19398,7 @@
     <row r="75" spans="1:21" s="159" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="157" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D75" s="179">
         <v>1</v>
@@ -19444,7 +19456,7 @@
     <row r="76" spans="1:21" s="159" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="157" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D76" s="179">
         <v>1</v>
@@ -19501,7 +19513,7 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B77" s="157" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D77" s="150">
         <v>1</v>
@@ -19556,7 +19568,7 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B78" s="157" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D78" s="150">
         <v>1</v>
@@ -19627,7 +19639,7 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B80" s="157" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D80" s="150">
         <v>1</v>
@@ -19680,10 +19692,10 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="146"/>
       <c r="B81" s="170" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C81" s="169"/>
       <c r="D81" s="168">
@@ -19739,7 +19751,7 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B82" s="157" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C82" s="159"/>
       <c r="D82" s="179">
@@ -19795,7 +19807,7 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B83" s="157" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C83" s="159"/>
       <c r="D83" s="179">
@@ -19852,7 +19864,7 @@
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="146"/>
       <c r="B84" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C84" s="169"/>
       <c r="D84" s="168">
@@ -19910,7 +19922,7 @@
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="146"/>
       <c r="B85" s="157" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D85" s="150">
         <v>1.5</v>
@@ -20016,8 +20028,8 @@
       <c r="U86" s="146"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B87" s="159" t="s">
-        <v>647</v>
+      <c r="B87" s="157" t="s">
+        <v>644</v>
       </c>
       <c r="C87" s="159"/>
       <c r="D87" s="179">
@@ -20074,7 +20086,7 @@
     <row r="88" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="146"/>
       <c r="B88" s="156" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D88" s="150">
         <v>1</v>
@@ -20134,7 +20146,7 @@
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="146"/>
       <c r="B89" s="169" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C89" s="169"/>
       <c r="D89" s="168">
@@ -20191,7 +20203,7 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B90" s="146" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D90" s="150">
         <v>2.5</v>
@@ -20200,7 +20212,7 @@
         <v>3</v>
       </c>
       <c r="F90" s="149" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G90" s="153" t="str">
         <f t="shared" si="41"/>
@@ -20268,7 +20280,7 @@
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="146"/>
       <c r="B92" s="169" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C92" s="169"/>
       <c r="D92" s="168">
@@ -20325,7 +20337,7 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B93" s="146" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D93" s="150">
         <v>2.5</v>
@@ -20334,7 +20346,7 @@
         <v>4</v>
       </c>
       <c r="F93" s="149" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G93" s="153" t="str">
         <f t="shared" si="41"/>
@@ -20385,7 +20397,7 @@
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="146"/>
       <c r="B94" s="169" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C94" s="169"/>
       <c r="D94" s="168">
@@ -20443,7 +20455,7 @@
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="146"/>
       <c r="B95" s="146" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D95" s="150">
         <v>1</v>
@@ -20517,7 +20529,7 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B97" s="146" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D97" s="150">
         <v>1</v>
@@ -20576,7 +20588,7 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B98" s="146" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D98" s="150">
         <v>1</v>
@@ -20632,7 +20644,7 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B99" s="159" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C99" s="159"/>
       <c r="D99" s="179">
@@ -20689,7 +20701,7 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B100" s="149" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C100" s="149"/>
       <c r="D100" s="150">
@@ -20768,7 +20780,7 @@
     </row>
     <row r="102" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="24" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C102" s="24"/>
       <c r="D102" s="72">
@@ -20824,7 +20836,7 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B104" s="159" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C104" s="159"/>
       <c r="D104" s="179"/>
@@ -20845,7 +20857,7 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B105" s="159" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C105" s="159"/>
       <c r="D105" s="179"/>
@@ -20866,7 +20878,7 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B106" s="159" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C106" s="159"/>
       <c r="D106" s="179"/>
@@ -20887,7 +20899,7 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B107" s="159" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C107" s="159"/>
       <c r="D107" s="179"/>
@@ -20935,7 +20947,7 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B110" s="169"/>
       <c r="C110" s="169"/>
@@ -21098,7 +21110,7 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B113" s="177" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C113" s="167"/>
       <c r="D113" s="167">
@@ -21157,7 +21169,7 @@
     <row r="114" spans="1:21" s="153" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="71"/>
       <c r="B114" s="176" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C114" s="175"/>
       <c r="D114" s="155">
@@ -21213,7 +21225,7 @@
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B115" s="177" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C115" s="167"/>
       <c r="D115" s="167">
@@ -21270,7 +21282,7 @@
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B116" s="157" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D116" s="150">
         <v>0.5</v>
@@ -21326,7 +21338,7 @@
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B117" s="157" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D117" s="150">
         <v>0.5</v>
@@ -21399,8 +21411,8 @@
       <c r="U118" s="146"/>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B119" s="156" t="s">
-        <v>640</v>
+      <c r="B119" s="157" t="s">
+        <v>637</v>
       </c>
       <c r="D119" s="150">
         <v>1</v>
@@ -21457,7 +21469,7 @@
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B120" s="185" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C120" s="169"/>
       <c r="D120" s="168">
@@ -21514,7 +21526,7 @@
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B121" s="157" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D121" s="150">
         <v>1</v>
@@ -21628,7 +21640,7 @@
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B123" s="157" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D123" s="150">
         <v>1</v>
@@ -21703,8 +21715,8 @@
       <c r="U124" s="146"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B125" s="146" t="s">
-        <v>401</v>
+      <c r="B125" s="157" t="s">
+        <v>399</v>
       </c>
       <c r="D125" s="150">
         <v>1</v>
@@ -21760,8 +21772,8 @@
       <c r="U125" s="146"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B126" s="149" t="s">
-        <v>687</v>
+      <c r="B126" s="181" t="s">
+        <v>684</v>
       </c>
       <c r="C126" s="149"/>
       <c r="D126" s="150">
@@ -21819,8 +21831,8 @@
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="146"/>
-      <c r="B127" s="149" t="s">
-        <v>688</v>
+      <c r="B127" s="181" t="s">
+        <v>685</v>
       </c>
       <c r="C127" s="149"/>
       <c r="D127" s="150">
@@ -21876,9 +21888,16 @@
       </c>
       <c r="U127" s="146"/>
     </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B128" s="157" t="s">
+        <v>692</v>
+      </c>
+    </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="146"/>
-      <c r="B129" s="149"/>
+      <c r="B129" s="180" t="s">
+        <v>693</v>
+      </c>
       <c r="C129" s="149"/>
       <c r="F129" s="153"/>
       <c r="G129" s="153"/>
@@ -21897,9 +21916,9 @@
       <c r="T129" s="152"/>
       <c r="U129" s="146"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B130" s="167" t="s">
-        <v>689</v>
+    <row r="130" spans="1:21" ht="34" x14ac:dyDescent="0.25">
+      <c r="B130" s="186" t="s">
+        <v>686</v>
       </c>
       <c r="C130" s="167"/>
       <c r="D130" s="167">
@@ -21956,15 +21975,16 @@
       <c r="U130" s="146"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B131" s="167" t="s">
-        <v>390</v>
-      </c>
-      <c r="C131" s="167"/>
-      <c r="D131" s="167">
-        <v>2.5</v>
+      <c r="A131" s="146"/>
+      <c r="B131" s="180" t="s">
+        <v>634</v>
+      </c>
+      <c r="C131" s="149"/>
+      <c r="D131" s="150">
+        <v>2</v>
       </c>
       <c r="E131" s="150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F131" s="153"/>
       <c r="G131" s="153" t="str">
@@ -21987,20 +22007,20 @@
       <c r="L131" s="154"/>
       <c r="M131" s="153" t="str">
         <f>IF($E131=3,$B131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N131" s="152" t="str">
+        <v>副本配置debug</v>
+      </c>
+      <c r="N131" s="152">
         <f>IF($E131=3,$D131," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>2</v>
       </c>
       <c r="O131" s="154"/>
       <c r="P131" s="153" t="str">
         <f>IF($E131=4,$B131," ")</f>
-        <v>第一二章的怪物数值调试 （1/2)</v>
-      </c>
-      <c r="Q131" s="152">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q131" s="152" t="str">
         <f>IF($E131=4,$D131," ")</f>
-        <v>2.5</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R131" s="154"/>
       <c r="S131" s="153" t="str">
@@ -22015,90 +22035,88 @@
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="146"/>
-      <c r="B132" s="149" t="s">
-        <v>637</v>
-      </c>
+      <c r="B132" s="149"/>
       <c r="C132" s="149"/>
-      <c r="D132" s="150">
-        <v>2</v>
-      </c>
-      <c r="E132" s="150">
-        <v>3</v>
-      </c>
       <c r="F132" s="153"/>
-      <c r="G132" s="153" t="str">
-        <f>IF($E132=1,$B132," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H132" s="152" t="str">
-        <f>IF($E132=1,$D132," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G132" s="153"/>
+      <c r="H132" s="152"/>
       <c r="I132" s="154"/>
-      <c r="J132" s="153" t="str">
-        <f>IF($E132=2,$B132," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K132" s="152" t="str">
-        <f>IF($E132=2,$D132," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J132" s="153"/>
+      <c r="K132" s="152"/>
       <c r="L132" s="154"/>
-      <c r="M132" s="153" t="str">
-        <f>IF($E132=3,$B132," ")</f>
-        <v>副本配置debug</v>
-      </c>
-      <c r="N132" s="152">
-        <f>IF($E132=3,$D132," ")</f>
-        <v>2</v>
-      </c>
+      <c r="M132" s="153"/>
+      <c r="N132" s="152"/>
       <c r="O132" s="154"/>
-      <c r="P132" s="153" t="str">
-        <f>IF($E132=4,$B132," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q132" s="152" t="str">
-        <f>IF($E132=4,$D132," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P132" s="153"/>
+      <c r="Q132" s="152"/>
       <c r="R132" s="154"/>
-      <c r="S132" s="153" t="str">
-        <f>IF($E132=5,$B132," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T132" s="152" t="str">
-        <f>IF($E132=5,$D132," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S132" s="153"/>
+      <c r="T132" s="152"/>
       <c r="U132" s="146"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A133" s="146"/>
-      <c r="B133" s="149"/>
-      <c r="C133" s="149"/>
+      <c r="B133" s="156" t="s">
+        <v>355</v>
+      </c>
+      <c r="D133" s="150">
+        <v>4</v>
+      </c>
+      <c r="E133" s="150">
+        <v>5</v>
+      </c>
       <c r="F133" s="153"/>
-      <c r="G133" s="153"/>
-      <c r="H133" s="152"/>
+      <c r="G133" s="153" t="str">
+        <f>IF($E133=1,$B133," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H133" s="152" t="str">
+        <f>IF($E133=1,$D133," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I133" s="154"/>
-      <c r="J133" s="153"/>
-      <c r="K133" s="152"/>
+      <c r="J133" s="153" t="str">
+        <f>IF($E133=2,$B133," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K133" s="152" t="str">
+        <f>IF($E133=2,$D133," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L133" s="154"/>
-      <c r="M133" s="153"/>
-      <c r="N133" s="152"/>
+      <c r="M133" s="153" t="str">
+        <f>IF($E133=3,$B133," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N133" s="152" t="str">
+        <f>IF($E133=3,$D133," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O133" s="154"/>
-      <c r="P133" s="153"/>
-      <c r="Q133" s="152"/>
+      <c r="P133" s="153" t="str">
+        <f>IF($E133=4,$B133," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q133" s="152" t="str">
+        <f>IF($E133=4,$D133," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R133" s="154"/>
-      <c r="S133" s="153"/>
-      <c r="T133" s="152"/>
+      <c r="S133" s="153" t="str">
+        <f>IF($E133=5,$B133," ")</f>
+        <v>第三到五章的小怪物设计</v>
+      </c>
+      <c r="T133" s="152">
+        <f>IF($E133=5,$D133," ")</f>
+        <v>4</v>
+      </c>
       <c r="U133" s="146"/>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B134" s="146" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="D134" s="150">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E134" s="150">
         <v>5</v>
@@ -22142,189 +22160,191 @@
       <c r="R134" s="154"/>
       <c r="S134" s="153" t="str">
         <f>IF($E134=5,$B134," ")</f>
-        <v>第三到五章的小怪物设计</v>
+        <v>第三到 五章Boss设计 (部分）</v>
       </c>
       <c r="T134" s="152">
         <f>IF($E134=5,$D134," ")</f>
-        <v>4</v>
-      </c>
-      <c r="U134" s="146"/>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B135" s="146" t="s">
-        <v>402</v>
-      </c>
-      <c r="D135" s="150">
         <v>2</v>
       </c>
-      <c r="E135" s="150">
-        <v>5</v>
-      </c>
-      <c r="F135" s="153"/>
-      <c r="G135" s="153" t="str">
-        <f>IF($E135=1,$B135," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H135" s="152" t="str">
-        <f>IF($E135=1,$D135," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I135" s="154"/>
-      <c r="J135" s="153" t="str">
-        <f>IF($E135=2,$B135," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K135" s="152" t="str">
-        <f>IF($E135=2,$D135," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L135" s="154"/>
-      <c r="M135" s="153" t="str">
-        <f>IF($E135=3,$B135," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N135" s="152" t="str">
-        <f>IF($E135=3,$D135," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O135" s="154"/>
-      <c r="P135" s="153" t="str">
-        <f>IF($E135=4,$B135," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q135" s="152" t="str">
-        <f>IF($E135=4,$D135," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R135" s="154"/>
-      <c r="S135" s="153" t="str">
-        <f>IF($E135=5,$B135," ")</f>
-        <v>第三到 五章Boss设计 (部分）</v>
-      </c>
-      <c r="T135" s="152">
-        <f>IF($E135=5,$D135," ")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="24" t="s">
-        <v>634</v>
-      </c>
-      <c r="C137" s="24"/>
-      <c r="D137" s="72">
-        <f>SUM(D112:D136)</f>
-        <v>31.5</v>
-      </c>
-      <c r="E137" s="72"/>
-      <c r="F137" s="75"/>
-      <c r="H137" s="72">
-        <f>SUM(H112:H136)</f>
+    </row>
+    <row r="136" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="C136" s="24"/>
+      <c r="D136" s="72">
+        <f>SUM(D112:D135)</f>
+        <v>29</v>
+      </c>
+      <c r="E136" s="72"/>
+      <c r="F136" s="75"/>
+      <c r="H136" s="72">
+        <f>SUM(H112:H135)</f>
         <v>5.5</v>
       </c>
-      <c r="I137" s="20"/>
-      <c r="K137" s="72">
-        <f>SUM(K112:K136)</f>
+      <c r="I136" s="20"/>
+      <c r="K136" s="72">
+        <f>SUM(K112:K135)</f>
         <v>6</v>
       </c>
-      <c r="L137" s="20"/>
-      <c r="N137" s="72">
-        <f>SUM(N112:N136)</f>
+      <c r="L136" s="20"/>
+      <c r="N136" s="72">
+        <f>SUM(N112:N135)</f>
         <v>9</v>
       </c>
-      <c r="O137" s="20"/>
-      <c r="Q137" s="72">
-        <f>SUM(Q112:Q136)</f>
-        <v>5</v>
-      </c>
-      <c r="R137" s="20"/>
-      <c r="T137" s="72">
-        <f>SUM(T112:T136)</f>
+      <c r="O136" s="20"/>
+      <c r="Q136" s="72">
+        <f>SUM(Q112:Q135)</f>
+        <v>2.5</v>
+      </c>
+      <c r="R136" s="20"/>
+      <c r="T136" s="72">
+        <f>SUM(T112:T135)</f>
         <v>6</v>
       </c>
-      <c r="U137" s="20"/>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B139" s="167" t="s">
-        <v>391</v>
-      </c>
-      <c r="C139" s="167"/>
-      <c r="D139" s="167"/>
-      <c r="F139" s="153"/>
-      <c r="G139" s="153"/>
-      <c r="H139" s="152"/>
-      <c r="I139" s="154"/>
-      <c r="J139" s="153"/>
-      <c r="K139" s="152"/>
-      <c r="L139" s="154"/>
-      <c r="M139" s="153"/>
-      <c r="N139" s="152"/>
-      <c r="O139" s="154"/>
-      <c r="P139" s="153"/>
-      <c r="Q139" s="152"/>
-      <c r="R139" s="154"/>
-      <c r="S139" s="153"/>
-      <c r="T139" s="152"/>
+      <c r="U136" s="20"/>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B138" s="167" t="s">
+        <v>389</v>
+      </c>
+      <c r="C138" s="167"/>
+      <c r="D138" s="167"/>
+      <c r="F138" s="153"/>
+      <c r="G138" s="153"/>
+      <c r="H138" s="152"/>
+      <c r="I138" s="154"/>
+      <c r="J138" s="153"/>
+      <c r="K138" s="152"/>
+      <c r="L138" s="154"/>
+      <c r="M138" s="153"/>
+      <c r="N138" s="152"/>
+      <c r="O138" s="154"/>
+      <c r="P138" s="153"/>
+      <c r="Q138" s="152"/>
+      <c r="R138" s="154"/>
+      <c r="S138" s="153"/>
+      <c r="T138" s="152"/>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B140" s="167" t="s">
+        <v>633</v>
+      </c>
+      <c r="C140" s="167"/>
+      <c r="D140" s="167">
+        <v>3</v>
+      </c>
+      <c r="E140" s="150">
+        <v>6</v>
+      </c>
+      <c r="F140" s="153"/>
+      <c r="G140" s="153" t="str">
+        <f t="shared" ref="G140:G147" si="71">IF($E140=1,$B140," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H140" s="152" t="str">
+        <f t="shared" ref="H140:H146" si="72">IF($E140=1,$D140," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I140" s="154"/>
+      <c r="J140" s="153" t="str">
+        <f t="shared" ref="J140:J146" si="73">IF($E140=2,$B140," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K140" s="152" t="str">
+        <f t="shared" ref="K140:K146" si="74">IF($E140=2,$D140," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L140" s="154"/>
+      <c r="M140" s="153" t="str">
+        <f t="shared" ref="M140:M146" si="75">IF($E140=3,$B140," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N140" s="152" t="str">
+        <f t="shared" ref="N140:N146" si="76">IF($E140=3,$D140," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O140" s="154"/>
+      <c r="P140" s="153" t="str">
+        <f t="shared" ref="P140:P146" si="77">IF($E140=4,$B140," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q140" s="152" t="str">
+        <f t="shared" ref="Q140:Q146" si="78">IF($E140=4,$D140," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R140" s="154"/>
+      <c r="S140" s="153" t="str">
+        <f t="shared" ref="S140:S146" si="79">IF($E140=5,$B140," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T140" s="152" t="str">
+        <f t="shared" ref="T140:T146" si="80">IF($E140=5,$D140," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B141" s="167" t="s">
-        <v>636</v>
-      </c>
-      <c r="C141" s="167"/>
-      <c r="D141" s="167">
+      <c r="B141" s="146" t="s">
+        <v>370</v>
+      </c>
+      <c r="D141" s="150">
         <v>3</v>
       </c>
       <c r="E141" s="150">
         <v>6</v>
       </c>
-      <c r="F141" s="153"/>
+      <c r="F141" s="153" t="str">
+        <f t="shared" ref="F141:F147" si="81">IF($E141=1,$B141," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="G141" s="153" t="str">
-        <f t="shared" ref="G141:G148" si="71">IF($E141=1,$B141," ")</f>
+        <f t="shared" si="71"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H141" s="152" t="str">
-        <f t="shared" ref="H141:H147" si="72">IF($E141=1,$D141," ")</f>
+        <f t="shared" si="72"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I141" s="154"/>
       <c r="J141" s="153" t="str">
-        <f t="shared" ref="J141:J147" si="73">IF($E141=2,$B141," ")</f>
+        <f t="shared" si="73"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K141" s="152" t="str">
-        <f t="shared" ref="K141:K147" si="74">IF($E141=2,$D141," ")</f>
+        <f t="shared" si="74"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L141" s="154"/>
       <c r="M141" s="153" t="str">
-        <f t="shared" ref="M141:M147" si="75">IF($E141=3,$B141," ")</f>
+        <f t="shared" si="75"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N141" s="152" t="str">
-        <f t="shared" ref="N141:N147" si="76">IF($E141=3,$D141," ")</f>
+        <f t="shared" si="76"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O141" s="154"/>
       <c r="P141" s="153" t="str">
-        <f t="shared" ref="P141:P147" si="77">IF($E141=4,$B141," ")</f>
+        <f t="shared" si="77"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q141" s="152" t="str">
-        <f t="shared" ref="Q141:Q147" si="78">IF($E141=4,$D141," ")</f>
+        <f t="shared" si="78"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R141" s="154"/>
       <c r="S141" s="153" t="str">
-        <f t="shared" ref="S141:S147" si="79">IF($E141=5,$B141," ")</f>
+        <f t="shared" si="79"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T141" s="152" t="str">
-        <f t="shared" ref="T141:T147" si="80">IF($E141=5,$D141," ")</f>
+        <f t="shared" si="80"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B142" s="146" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="D142" s="150">
         <v>3</v>
@@ -22333,7 +22353,7 @@
         <v>6</v>
       </c>
       <c r="F142" s="153" t="str">
-        <f t="shared" ref="F142:F148" si="81">IF($E142=1,$B142," ")</f>
+        <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G142" s="153" t="str">
@@ -22382,15 +22402,7 @@
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B143" s="146" t="s">
-        <v>351</v>
-      </c>
-      <c r="D143" s="150">
-        <v>3</v>
-      </c>
-      <c r="E143" s="150">
-        <v>6</v>
-      </c>
+      <c r="A143" s="146"/>
       <c r="F143" s="153" t="str">
         <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
@@ -22440,7 +22452,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="146"/>
       <c r="F144" s="153" t="str">
         <f t="shared" si="81"/>
@@ -22491,8 +22503,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="146"/>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F145" s="153" t="str">
         <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
@@ -22601,153 +22612,162 @@
         <f t="shared" si="71"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H147" s="152" t="str">
-        <f t="shared" si="72"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I147" s="154"/>
+      <c r="H147" s="166" t="str">
+        <f t="shared" ref="H147:T147" si="82">IF($E147=1,$B147," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I147" s="153" t="str">
+        <f t="shared" si="82"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="J147" s="153" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K147" s="152" t="str">
-        <f t="shared" si="74"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L147" s="154"/>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K147" s="153" t="str">
+        <f t="shared" si="82"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L147" s="153" t="str">
+        <f t="shared" si="82"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="M147" s="153" t="str">
-        <f t="shared" si="75"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N147" s="152" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O147" s="154"/>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N147" s="153" t="str">
+        <f t="shared" si="82"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O147" s="153" t="str">
+        <f t="shared" si="82"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="P147" s="153" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q147" s="152" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R147" s="154"/>
+        <f t="shared" si="82"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q147" s="153" t="str">
+        <f t="shared" si="82"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R147" s="153" t="str">
+        <f t="shared" si="82"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="S147" s="153" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T147" s="152" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F148" s="153" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G148" s="153" t="str">
-        <f t="shared" si="71"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H148" s="166" t="str">
-        <f t="shared" ref="H148:T148" si="82">IF($E148=1,$B148," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I148" s="153" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J148" s="153" t="str">
+      <c r="T147" s="153" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K148" s="153" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L148" s="153" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M148" s="153" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N148" s="153" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O148" s="153" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P148" s="153" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q148" s="153" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R148" s="153" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S148" s="153" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T148" s="153" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="150" spans="1:21" s="161" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D150" s="165"/>
-      <c r="E150" s="165"/>
-      <c r="F150" s="164"/>
-      <c r="H150" s="163"/>
-      <c r="I150" s="162"/>
-      <c r="L150" s="162"/>
-      <c r="O150" s="162"/>
-      <c r="R150" s="162"/>
-      <c r="U150" s="162"/>
+    </row>
+    <row r="149" spans="1:21" s="161" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D149" s="165"/>
+      <c r="E149" s="165"/>
+      <c r="F149" s="164"/>
+      <c r="H149" s="163"/>
+      <c r="I149" s="162"/>
+      <c r="L149" s="162"/>
+      <c r="O149" s="162"/>
+      <c r="R149" s="162"/>
+      <c r="U149" s="162"/>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A150" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="B150" s="155"/>
+      <c r="C150" s="155"/>
+      <c r="D150" s="155"/>
+      <c r="G150" s="155"/>
+      <c r="H150" s="160"/>
+      <c r="I150" s="154"/>
+      <c r="J150" s="159"/>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A151" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="B151" s="155"/>
+      <c r="B151" s="158" t="s">
+        <v>156</v>
+      </c>
       <c r="C151" s="155"/>
-      <c r="D151" s="155"/>
-      <c r="G151" s="155"/>
-      <c r="H151" s="160"/>
+      <c r="D151" s="155">
+        <v>1</v>
+      </c>
+      <c r="E151" s="150">
+        <v>1</v>
+      </c>
+      <c r="F151" s="149" t="s">
+        <v>359</v>
+      </c>
+      <c r="G151" s="153" t="str">
+        <f>IF($E151=1,$B151," ")</f>
+        <v>收费点/VIP替代方案</v>
+      </c>
+      <c r="H151" s="152">
+        <f>IF($E151=1,$D151," ")</f>
+        <v>1</v>
+      </c>
       <c r="I151" s="154"/>
-      <c r="J151" s="159"/>
+      <c r="J151" s="153" t="str">
+        <f>IF($E151=2,$B151," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K151" s="152" t="str">
+        <f>IF($E151=2,$D151," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L151" s="154"/>
+      <c r="M151" s="153" t="str">
+        <f>IF($E151=3,$B151," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N151" s="152" t="str">
+        <f>IF($E151=3,$D151," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O151" s="154"/>
+      <c r="P151" s="153" t="str">
+        <f>IF($E151=4,$B151," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q151" s="152" t="str">
+        <f>IF($E151=4,$D151," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R151" s="154"/>
+      <c r="S151" s="153" t="str">
+        <f>IF($E151=5,$B151," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T151" s="152" t="str">
+        <f>IF($E151=5,$D151," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U151" s="146"/>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B152" s="158" t="s">
-        <v>156</v>
-      </c>
-      <c r="C152" s="155"/>
-      <c r="D152" s="155">
-        <v>1</v>
+      <c r="B152" s="156" t="s">
+        <v>365</v>
+      </c>
+      <c r="D152" s="150">
+        <v>2</v>
       </c>
       <c r="E152" s="150">
         <v>1</v>
       </c>
       <c r="F152" s="149" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G152" s="153" t="str">
         <f>IF($E152=1,$B152," ")</f>
-        <v>收费点/VIP替代方案</v>
+        <v>怪物 - 投放规划（碎片，整只）</v>
       </c>
       <c r="H152" s="152">
         <f>IF($E152=1,$D152," ")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" s="154"/>
       <c r="J152" s="153" t="str">
@@ -22788,25 +22808,25 @@
       <c r="U152" s="146"/>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B153" s="156" t="s">
-        <v>366</v>
+      <c r="B153" s="157" t="s">
+        <v>356</v>
       </c>
       <c r="D153" s="150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153" s="150">
         <v>1</v>
       </c>
       <c r="F153" s="149" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="G153" s="153" t="str">
         <f>IF($E153=1,$B153," ")</f>
-        <v>怪物 - 投放规划（碎片，整只）</v>
+        <v>法物攻走五行后相关回归</v>
       </c>
       <c r="H153" s="152">
         <f>IF($E153=1,$D153," ")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" s="154"/>
       <c r="J153" s="153" t="str">
@@ -22848,81 +22868,39 @@
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B154" s="157" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="D154" s="150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154" s="150">
         <v>1</v>
       </c>
-      <c r="F154" s="149" t="s">
-        <v>362</v>
-      </c>
       <c r="G154" s="153" t="str">
         <f>IF($E154=1,$B154," ")</f>
-        <v>法物攻走五行后相关回归</v>
+        <v>玩家前两天新手学习时间规划</v>
       </c>
       <c r="H154" s="152">
         <f>IF($E154=1,$D154," ")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" s="154"/>
-      <c r="J154" s="153" t="str">
-        <f>IF($E154=2,$B154," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K154" s="152" t="str">
-        <f>IF($E154=2,$D154," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J154" s="153"/>
+      <c r="K154" s="152"/>
       <c r="L154" s="154"/>
-      <c r="M154" s="153" t="str">
-        <f>IF($E154=3,$B154," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N154" s="152" t="str">
-        <f>IF($E154=3,$D154," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M154" s="153"/>
+      <c r="N154" s="152"/>
       <c r="O154" s="154"/>
-      <c r="P154" s="153" t="str">
-        <f>IF($E154=4,$B154," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q154" s="152" t="str">
-        <f>IF($E154=4,$D154," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P154" s="153"/>
+      <c r="Q154" s="152"/>
       <c r="R154" s="154"/>
-      <c r="S154" s="153" t="str">
-        <f>IF($E154=5,$B154," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T154" s="152" t="str">
-        <f>IF($E154=5,$D154," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S154" s="153"/>
+      <c r="T154" s="152"/>
       <c r="U154" s="146"/>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B155" s="157" t="s">
-        <v>408</v>
-      </c>
-      <c r="D155" s="150">
-        <v>2</v>
-      </c>
-      <c r="E155" s="150">
-        <v>1</v>
-      </c>
-      <c r="G155" s="153" t="str">
-        <f>IF($E155=1,$B155," ")</f>
-        <v>玩家前两天新手学习时间规划</v>
-      </c>
-      <c r="H155" s="152">
-        <f>IF($E155=1,$D155," ")</f>
-        <v>2</v>
-      </c>
+      <c r="G155" s="153"/>
+      <c r="H155" s="152"/>
       <c r="I155" s="154"/>
       <c r="J155" s="153"/>
       <c r="K155" s="152"/>
@@ -22938,27 +22916,66 @@
       <c r="U155" s="146"/>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G156" s="153"/>
-      <c r="H156" s="152"/>
+      <c r="B156" s="157" t="s">
+        <v>404</v>
+      </c>
+      <c r="D156" s="150">
+        <v>1</v>
+      </c>
+      <c r="E156" s="150">
+        <v>2</v>
+      </c>
+      <c r="G156" s="153" t="str">
+        <f>IF($E156=1,$B156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H156" s="152" t="str">
+        <f>IF($E156=1,$D156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I156" s="154"/>
-      <c r="J156" s="153"/>
-      <c r="K156" s="152"/>
+      <c r="J156" s="153" t="str">
+        <f>IF($E156=2,$B156," ")</f>
+        <v>配置 - 怪物升级信息，经验</v>
+      </c>
+      <c r="K156" s="152">
+        <f>IF($E156=2,$D156," ")</f>
+        <v>1</v>
+      </c>
       <c r="L156" s="154"/>
-      <c r="M156" s="153"/>
-      <c r="N156" s="152"/>
+      <c r="M156" s="153" t="str">
+        <f>IF($E156=3,$B156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N156" s="152" t="str">
+        <f>IF($E156=3,$D156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O156" s="154"/>
-      <c r="P156" s="153"/>
-      <c r="Q156" s="152"/>
+      <c r="P156" s="153" t="str">
+        <f>IF($E156=4,$B156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q156" s="152" t="str">
+        <f>IF($E156=4,$D156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R156" s="154"/>
-      <c r="S156" s="153"/>
-      <c r="T156" s="152"/>
-      <c r="U156" s="146"/>
+      <c r="S156" s="153" t="str">
+        <f>IF($E156=5,$B156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T156" s="152" t="str">
+        <f>IF($E156=5,$D156," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B157" s="157" t="s">
-        <v>406</v>
-      </c>
-      <c r="D157" s="150">
+      <c r="B157" s="158" t="s">
+        <v>405</v>
+      </c>
+      <c r="C157" s="155"/>
+      <c r="D157" s="155">
         <v>1</v>
       </c>
       <c r="E157" s="150">
@@ -22975,7 +22992,7 @@
       <c r="I157" s="154"/>
       <c r="J157" s="153" t="str">
         <f>IF($E157=2,$B157," ")</f>
-        <v>配置 - 怪物升级信息，经验</v>
+        <v>配置 - 角色升级信息，经验</v>
       </c>
       <c r="K157" s="152">
         <f>IF($E157=2,$D157," ")</f>
@@ -23010,15 +23027,17 @@
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B158" s="158" t="s">
-        <v>407</v>
-      </c>
-      <c r="C158" s="155"/>
-      <c r="D158" s="155">
-        <v>1</v>
+      <c r="B158" s="157" t="s">
+        <v>345</v>
+      </c>
+      <c r="D158" s="150">
+        <v>4</v>
       </c>
       <c r="E158" s="150">
         <v>2</v>
+      </c>
+      <c r="F158" s="149" t="s">
+        <v>366</v>
       </c>
       <c r="G158" s="153" t="str">
         <f>IF($E158=1,$B158," ")</f>
@@ -23031,11 +23050,11 @@
       <c r="I158" s="154"/>
       <c r="J158" s="153" t="str">
         <f>IF($E158=2,$B158," ")</f>
-        <v>配置 - 角色升级信息，经验</v>
+        <v>道具内容配置</v>
       </c>
       <c r="K158" s="152">
         <f>IF($E158=2,$D158," ")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L158" s="154"/>
       <c r="M158" s="153" t="str">
@@ -23064,96 +23083,94 @@
         <f>IF($E158=5,$D158," ")</f>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="U158" s="146"/>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B159" s="156" t="s">
-        <v>345</v>
-      </c>
-      <c r="D159" s="150">
+      <c r="G159" s="153"/>
+      <c r="H159" s="152"/>
+      <c r="I159" s="154"/>
+      <c r="J159" s="153"/>
+      <c r="K159" s="152"/>
+      <c r="L159" s="154"/>
+      <c r="M159" s="153"/>
+      <c r="N159" s="152"/>
+      <c r="O159" s="154"/>
+      <c r="P159" s="153"/>
+      <c r="Q159" s="152"/>
+      <c r="R159" s="154"/>
+      <c r="S159" s="153"/>
+      <c r="T159" s="152"/>
+      <c r="U159" s="146"/>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B160" s="158" t="s">
+        <v>682</v>
+      </c>
+      <c r="C160" s="155"/>
+      <c r="D160" s="155">
         <v>4</v>
       </c>
-      <c r="E159" s="150">
+      <c r="E160" s="150">
+        <v>3</v>
+      </c>
+      <c r="F160" s="149" t="s">
+        <v>366</v>
+      </c>
+      <c r="G160" s="153" t="str">
+        <f>IF($E160=1,$B160," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H160" s="152" t="str">
+        <f>IF($E160=1,$D160," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I160" s="154"/>
+      <c r="J160" s="153" t="str">
+        <f>IF($E160=2,$B160," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K160" s="152" t="str">
+        <f>IF($E160=2,$D160," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L160" s="154"/>
+      <c r="M160" s="153" t="str">
+        <f>IF($E160=3,$B160," ")</f>
+        <v>装备和其他掉落内容配置</v>
+      </c>
+      <c r="N160" s="152">
+        <f>IF($E160=3,$D160," ")</f>
+        <v>4</v>
+      </c>
+      <c r="O160" s="154"/>
+      <c r="P160" s="153" t="str">
+        <f>IF($E160=4,$B160," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q160" s="152" t="str">
+        <f>IF($E160=4,$D160," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R160" s="154"/>
+      <c r="S160" s="153" t="str">
+        <f>IF($E160=5,$B160," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T160" s="152" t="str">
+        <f>IF($E160=5,$D160," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U160" s="146"/>
+    </row>
+    <row r="161" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B161" s="157" t="s">
+        <v>362</v>
+      </c>
+      <c r="D161" s="150">
         <v>2</v>
-      </c>
-      <c r="F159" s="149" t="s">
-        <v>367</v>
-      </c>
-      <c r="G159" s="153" t="str">
-        <f>IF($E159=1,$B159," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H159" s="152" t="str">
-        <f>IF($E159=1,$D159," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I159" s="154"/>
-      <c r="J159" s="153" t="str">
-        <f>IF($E159=2,$B159," ")</f>
-        <v>道具内容配置</v>
-      </c>
-      <c r="K159" s="152">
-        <f>IF($E159=2,$D159," ")</f>
-        <v>4</v>
-      </c>
-      <c r="L159" s="154"/>
-      <c r="M159" s="153" t="str">
-        <f>IF($E159=3,$B159," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N159" s="152" t="str">
-        <f>IF($E159=3,$D159," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O159" s="154"/>
-      <c r="P159" s="153" t="str">
-        <f>IF($E159=4,$B159," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q159" s="152" t="str">
-        <f>IF($E159=4,$D159," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R159" s="154"/>
-      <c r="S159" s="153" t="str">
-        <f>IF($E159=5,$B159," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T159" s="152" t="str">
-        <f>IF($E159=5,$D159," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U159" s="146"/>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G160" s="153"/>
-      <c r="H160" s="152"/>
-      <c r="I160" s="154"/>
-      <c r="J160" s="153"/>
-      <c r="K160" s="152"/>
-      <c r="L160" s="154"/>
-      <c r="M160" s="153"/>
-      <c r="N160" s="152"/>
-      <c r="O160" s="154"/>
-      <c r="P160" s="153"/>
-      <c r="Q160" s="152"/>
-      <c r="R160" s="154"/>
-      <c r="S160" s="153"/>
-      <c r="T160" s="152"/>
-      <c r="U160" s="146"/>
-    </row>
-    <row r="161" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B161" s="155" t="s">
-        <v>685</v>
-      </c>
-      <c r="C161" s="155"/>
-      <c r="D161" s="155">
-        <v>4</v>
       </c>
       <c r="E161" s="150">
         <v>3</v>
-      </c>
-      <c r="F161" s="149" t="s">
-        <v>367</v>
       </c>
       <c r="G161" s="153" t="str">
         <f>IF($E161=1,$B161," ")</f>
@@ -23175,11 +23192,11 @@
       <c r="L161" s="154"/>
       <c r="M161" s="153" t="str">
         <f>IF($E161=3,$B161," ")</f>
-        <v>装备和其他掉落内容配置</v>
+        <v>玩家各个等级实力分配</v>
       </c>
       <c r="N161" s="152">
         <f>IF($E161=3,$D161," ")</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O161" s="154"/>
       <c r="P161" s="153" t="str">
@@ -23202,62 +23219,32 @@
       <c r="U161" s="146"/>
     </row>
     <row r="162" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B162" s="146" t="s">
-        <v>363</v>
-      </c>
-      <c r="D162" s="150">
+      <c r="G162" s="153"/>
+      <c r="H162" s="152"/>
+      <c r="I162" s="154"/>
+      <c r="J162" s="153"/>
+      <c r="K162" s="152"/>
+      <c r="L162" s="154"/>
+      <c r="M162" s="153"/>
+      <c r="N162" s="152"/>
+      <c r="O162" s="154"/>
+      <c r="P162" s="153"/>
+      <c r="Q162" s="152"/>
+      <c r="R162" s="154"/>
+      <c r="S162" s="153"/>
+      <c r="T162" s="152"/>
+      <c r="U162" s="146"/>
+    </row>
+    <row r="163" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B163" s="156" t="s">
+        <v>691</v>
+      </c>
+      <c r="D163" s="150">
         <v>2</v>
       </c>
-      <c r="E162" s="150">
-        <v>3</v>
-      </c>
-      <c r="G162" s="153" t="str">
-        <f>IF($E162=1,$B162," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H162" s="152" t="str">
-        <f>IF($E162=1,$D162," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I162" s="154"/>
-      <c r="J162" s="153" t="str">
-        <f>IF($E162=2,$B162," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K162" s="152" t="str">
-        <f>IF($E162=2,$D162," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L162" s="154"/>
-      <c r="M162" s="153" t="str">
-        <f>IF($E162=3,$B162," ")</f>
-        <v>玩家各个等级实力分配</v>
-      </c>
-      <c r="N162" s="152">
-        <f>IF($E162=3,$D162," ")</f>
-        <v>2</v>
-      </c>
-      <c r="O162" s="154"/>
-      <c r="P162" s="153" t="str">
-        <f>IF($E162=4,$B162," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q162" s="152" t="str">
-        <f>IF($E162=4,$D162," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R162" s="154"/>
-      <c r="S162" s="153" t="str">
-        <f>IF($E162=5,$B162," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T162" s="152" t="str">
-        <f>IF($E162=5,$D162," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U162" s="146"/>
-    </row>
-    <row r="163" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E163" s="150">
+        <v>4</v>
+      </c>
       <c r="G163" s="153"/>
       <c r="H163" s="152"/>
       <c r="I163" s="154"/>
@@ -23275,8 +23262,8 @@
       <c r="U163" s="146"/>
     </row>
     <row r="164" spans="2:21" ht="34" x14ac:dyDescent="0.25">
-      <c r="B164" s="146" t="s">
-        <v>409</v>
+      <c r="B164" s="156" t="s">
+        <v>695</v>
       </c>
       <c r="D164" s="150">
         <v>0.5</v>
@@ -23313,7 +23300,7 @@
       <c r="O164" s="154"/>
       <c r="P164" s="153" t="str">
         <f>IF($E164=4,$B164," ")</f>
-        <v>扫荡配置（测试配置，不设等级需求）</v>
+        <v>扫荡配置（成长）</v>
       </c>
       <c r="Q164" s="152">
         <f>IF($E164=4,$D164," ")</f>
@@ -23330,8 +23317,8 @@
       </c>
     </row>
     <row r="165" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B165" s="146" t="s">
-        <v>372</v>
+      <c r="B165" s="156" t="s">
+        <v>371</v>
       </c>
       <c r="D165" s="150">
         <v>1</v>
@@ -23384,19 +23371,19 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="166" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B166" s="155" t="s">
-        <v>361</v>
+    <row r="166" spans="2:21" ht="34" x14ac:dyDescent="0.25">
+      <c r="B166" s="187" t="s">
+        <v>694</v>
       </c>
       <c r="C166" s="155"/>
       <c r="D166" s="155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166" s="150">
         <v>4</v>
       </c>
       <c r="F166" s="149" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G166" s="153" t="str">
         <f>IF($E166=1,$B166," ")</f>
@@ -23427,11 +23414,11 @@
       <c r="O166" s="154"/>
       <c r="P166" s="153" t="str">
         <f>IF($E166=4,$B166," ")</f>
-        <v>成长相关 - 任务投放</v>
+        <v>成长相关 - 任务投放+剧情（前两天）</v>
       </c>
       <c r="Q166" s="152">
         <f>IF($E166=4,$D166," ")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R166" s="154"/>
       <c r="S166" s="153" t="str">
@@ -23445,7 +23432,7 @@
     </row>
     <row r="167" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B167" s="146" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D167" s="150">
         <v>3</v>
@@ -23767,37 +23754,37 @@
     </row>
     <row r="174" spans="2:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B174" s="24" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C174" s="24"/>
       <c r="D174" s="72">
-        <f>SUM(D153:D173)</f>
-        <v>26.5</v>
+        <f>SUM(D152:D173)</f>
+        <v>29.5</v>
       </c>
       <c r="E174" s="72"/>
       <c r="F174" s="75"/>
       <c r="H174" s="72">
-        <f>SUM(H153:H173)</f>
+        <f>SUM(H152:H173)</f>
         <v>5</v>
       </c>
       <c r="I174" s="20"/>
       <c r="K174" s="72">
-        <f>SUM(K153:K173)</f>
+        <f>SUM(K152:K173)</f>
         <v>6</v>
       </c>
       <c r="L174" s="20"/>
       <c r="N174" s="72">
-        <f>SUM(N153:N173)</f>
+        <f>SUM(N152:N173)</f>
         <v>6</v>
       </c>
       <c r="O174" s="20"/>
       <c r="Q174" s="72">
-        <f>SUM(Q153:Q173)</f>
-        <v>5.5</v>
+        <f>SUM(Q152:Q173)</f>
+        <v>6.5</v>
       </c>
       <c r="R174" s="20"/>
       <c r="T174" s="72">
-        <f>SUM(T153:T173)</f>
+        <f>SUM(T152:T173)</f>
         <v>4</v>
       </c>
       <c r="U174" s="20"/>
@@ -23862,53 +23849,53 @@
     </row>
     <row r="180" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G180" s="146" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I180" s="146"/>
     </row>
     <row r="181" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J181" s="146" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="182" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I182" s="146"/>
       <c r="J182" s="146" t="s">
+        <v>419</v>
+      </c>
+      <c r="M182" s="146" t="s">
+        <v>420</v>
+      </c>
+      <c r="P182" s="146" t="s">
+        <v>421</v>
+      </c>
+      <c r="S182" s="146" t="s">
         <v>422</v>
-      </c>
-      <c r="M182" s="146" t="s">
-        <v>423</v>
-      </c>
-      <c r="P182" s="146" t="s">
-        <v>424</v>
-      </c>
-      <c r="S182" s="146" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="185" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G185" s="146" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J185" s="146" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M185" s="146" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="P185" s="146" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="S185" s="146" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="188" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G188" s="146" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M188" s="146" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="192" spans="2:19" x14ac:dyDescent="0.25">
@@ -23938,27 +23925,27 @@
     </row>
     <row r="194" spans="4:19" ht="18" x14ac:dyDescent="0.25">
       <c r="G194" s="146" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P194" s="2"/>
     </row>
     <row r="195" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G195" s="146" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M195" s="151"/>
       <c r="S195" s="146" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="196" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G196" s="146" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="197" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G197" s="146" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="201" spans="4:19" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -24003,14 +23990,14 @@
       <c r="E203" s="73"/>
       <c r="F203" s="76"/>
       <c r="G203" s="146" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H203" s="70"/>
       <c r="J203" s="146" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="P203" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="204" spans="4:19" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -24088,12 +24075,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="J29 M29 B29:D32 B36:D37 J103:J107 M103:M107 G103:G108 P103:P107 S103:S107 S139 S141:S147 P139 P141:P147 M139 M141:M147 J139 J141:J147 F139:G139 F141:G147 B71:D72 S61:S64 S66:S69 P61:P64 P66:P69 G61:G64 G66:G69 M61:M64 J61:J64 B100:D101 G168:G173 J168:J173 M168:M173 P168:P173 S168:S173 G152:G166 J152:J166 M152:M166 P152:P166 S152:S166 B127:D127 B129:D129 B132:D133 S110:S127 S129:S135 P110:P127 P129:P135 M110:M127 M129:M135 J110:J127 J129:J135 F110:G127 F129:G135 J66:J89 M66:M89 G73:G89 P73:P89 S73:S89 S92:S101 P92:P101 G92:G101 M92:M101 J92:J101 B56:D57 G31:G40 J31:J40 B39:D40 S31:S40 P31:P40 M31:M40 B42:D54 M42:M59 P42:P59 S42:S59 J42:J59 G42:G59 P5:P25 G5:G25 M5:M25 J5:J25 S5:S25">
+  <conditionalFormatting sqref="J29 M29 B29:D32 B36:D37 J103:J107 M103:M107 G103:G108 P103:P107 S103:S107 S138 S140:S146 P138 P140:P146 M138 M140:M146 J138 J140:J146 F138:G138 F140:G146 B71:D72 S61:S64 S66:S69 P61:P64 P66:P69 G61:G64 G66:G69 M61:M64 J61:J64 B100:D101 G168:G173 J168:J173 M168:M173 P168:P173 S168:S173 G151:G166 J151:J166 M151:M166 P151:P166 S151:S166 B127:D127 B129:D129 B131:D132 S110:S127 P110:P127 M110:M127 J110:J127 F110:G127 J66:J89 M66:M89 G73:G89 P73:P89 S73:S89 S92:S101 P92:P101 G92:G101 M92:M101 J92:J101 B56:D57 G31:G40 J31:J40 B39:D40 S31:S40 P31:P40 M31:M40 B42:D54 M42:M59 P42:P59 S42:S59 J42:J59 G42:G59 P5:P25 G5:G25 M5:M25 J5:J25 S5:S25 S129:S134 P129:P134 M129:M134 J129:J134 F129:G134">
     <cfRule type="cellIs" dxfId="90" priority="41" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G151 B161:D161 B158:D158 B166:D166 B151:D152 B113:D115 B130:D131 B141:D141 B139:D139 J109">
+  <conditionalFormatting sqref="G150 B160:D160 B157:D157 B166:D166 B150:D151 B113:D115 B130:D130 B140:D140 B138:D138 J109">
     <cfRule type="cellIs" dxfId="89" priority="40" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
@@ -24103,7 +24090,7 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F148:T148">
+  <conditionalFormatting sqref="F147:T147">
     <cfRule type="cellIs" dxfId="87" priority="38" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -24143,32 +24130,32 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B137:D137">
+  <conditionalFormatting sqref="B136:D136">
     <cfRule type="cellIs" dxfId="79" priority="30" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H137">
+  <conditionalFormatting sqref="H136">
     <cfRule type="cellIs" dxfId="78" priority="29" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N137">
+  <conditionalFormatting sqref="N136">
     <cfRule type="cellIs" dxfId="77" priority="27" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T137">
+  <conditionalFormatting sqref="T136">
     <cfRule type="cellIs" dxfId="76" priority="25" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K137">
+  <conditionalFormatting sqref="K136">
     <cfRule type="cellIs" dxfId="75" priority="28" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q137">
+  <conditionalFormatting sqref="Q136">
     <cfRule type="cellIs" dxfId="74" priority="26" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -24363,20 +24350,20 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="44" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E5" s="52"/>
       <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="44" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E6" s="52"/>
       <c r="I6" s="51"/>
@@ -24384,10 +24371,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="44" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E7" s="52"/>
       <c r="I7" s="51"/>
@@ -24395,7 +24382,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="44" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C8" s="44"/>
       <c r="E8" s="52"/>
@@ -24404,41 +24391,41 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="44" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C9" s="44"/>
       <c r="I9" s="44" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="44" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C10" s="44"/>
       <c r="E10" s="44" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="52"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C11" s="44"/>
       <c r="E11" s="44" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J11" s="50"/>
     </row>
@@ -24450,7 +24437,7 @@
       <c r="E12" s="52"/>
       <c r="G12" s="52"/>
       <c r="I12" s="36" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J12" s="50"/>
     </row>
@@ -24501,10 +24488,10 @@
         <v>168</v>
       </c>
       <c r="B20" s="46" t="s">
+        <v>424</v>
+      </c>
+      <c r="C20" s="46" t="s">
         <v>427</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>430</v>
       </c>
       <c r="I20" s="51"/>
       <c r="J20" s="50"/>
@@ -24520,22 +24507,22 @@
         <v>280</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" s="44" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C22" s="44"/>
       <c r="D22" s="57"/>
       <c r="G22" s="44" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H22" s="50"/>
       <c r="I22" s="58" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J22" s="50"/>
     </row>
@@ -24604,10 +24591,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="44" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H32" s="50"/>
       <c r="J32" s="50"/>
@@ -24627,42 +24614,42 @@
       </c>
       <c r="C34" s="44"/>
       <c r="E34" s="36" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H34" s="50"/>
       <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="44" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C35" s="44"/>
       <c r="D35" s="50"/>
       <c r="E35" s="44" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F35" s="50"/>
       <c r="G35" s="36" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J35" s="50"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="44" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C36" s="44"/>
       <c r="G36" s="44" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I36" s="44" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K36" s="36" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -24674,7 +24661,7 @@
         <v>342</v>
       </c>
       <c r="K37" s="36" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -24703,7 +24690,7 @@
         <v>183</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G41" s="52"/>
       <c r="H41" s="57"/>
@@ -24717,7 +24704,7 @@
         <v>291</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J42" s="50"/>
     </row>
@@ -24730,20 +24717,20 @@
         <v>282</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L43" s="50"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" s="44" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C44" s="44"/>
       <c r="G44" s="44" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I44" s="44" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J44" s="50"/>
     </row>
@@ -24789,7 +24776,7 @@
         <v>306</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -24802,22 +24789,22 @@
       </c>
       <c r="H50" s="50"/>
       <c r="I50" s="36" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J50" s="50"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" s="44" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C51" s="44"/>
       <c r="F51" s="50"/>
       <c r="G51" s="36" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H51" s="50"/>
       <c r="I51" s="36" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J51" s="50"/>
     </row>
@@ -24864,7 +24851,7 @@
         <v>183</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F57" s="50"/>
       <c r="H57" s="50"/>
@@ -24872,10 +24859,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C58" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D58" s="50"/>
       <c r="F58" s="50"/>
@@ -24891,10 +24878,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60" s="46" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E60" s="46" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H60" s="50"/>
       <c r="I60" s="61"/>
@@ -25112,31 +25099,31 @@
   <sheetData>
     <row r="2" spans="1:12" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="78" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D2" s="79" t="s">
         <v>105</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F2" s="80" t="s">
         <v>105</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H2" s="78" t="s">
         <v>105</v>
       </c>
       <c r="I2" s="78" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J2" s="78" t="s">
         <v>105</v>
       </c>
       <c r="K2" s="78" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L2" s="78" t="s">
         <v>105</v>
@@ -25144,53 +25131,53 @@
     </row>
     <row r="3" spans="1:12" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="81" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C3" s="82" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D3" s="82"/>
       <c r="E3" s="82" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="44" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D4" s="30"/>
       <c r="F4" s="30"/>
       <c r="G4" s="82" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H4" s="82"/>
       <c r="I4" s="82" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J4" s="82"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="44" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F5" s="30"/>
       <c r="H5" s="82"/>
       <c r="I5" s="82" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J5" s="82"/>
       <c r="K5" s="36"/>
@@ -25200,16 +25187,16 @@
         <v>267</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D6" s="82"/>
       <c r="E6" s="82" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F6" s="82"/>
       <c r="H6" s="82"/>
       <c r="I6" s="82" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J6" s="82"/>
       <c r="K6" s="82"/>
@@ -25219,55 +25206,55 @@
         <v>280</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="82"/>
       <c r="G7" s="82" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H7" s="82"/>
       <c r="K7" s="82" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L7" s="30"/>
     </row>
     <row r="8" spans="1:12" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="81"/>
       <c r="B8" s="44" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D8" s="82"/>
       <c r="E8" s="82" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H8" s="82"/>
       <c r="I8" s="36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J8" s="82"/>
       <c r="K8" s="82" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L8" s="83"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="44" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="82"/>
       <c r="H9" s="82"/>
       <c r="I9" s="36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J9" s="82"/>
       <c r="K9" s="36" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -25277,12 +25264,12 @@
       <c r="D10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="82" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H10" s="82"/>
       <c r="J10" s="82"/>
       <c r="K10" s="36" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -25332,13 +25319,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>183</v>
       </c>
       <c r="C16" s="82" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D16" s="82"/>
       <c r="F16" s="30"/>
@@ -25349,10 +25336,10 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="46" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
@@ -25365,10 +25352,10 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="44" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D18" s="82"/>
       <c r="F18" s="82"/>
@@ -25389,14 +25376,14 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="44" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C20" s="82" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D20" s="82"/>
       <c r="E20" s="82" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F20" s="82"/>
       <c r="G20" s="82"/>
@@ -25405,14 +25392,14 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="44" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D21" s="82"/>
       <c r="E21" s="82" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F21" s="30"/>
       <c r="J21" s="82"/>
@@ -25421,12 +25408,12 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="44" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C22" s="82"/>
       <c r="D22" s="82"/>
       <c r="E22" s="82" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F22" s="82"/>
       <c r="H22" s="82"/>
@@ -25436,16 +25423,16 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="44" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C23" s="82"/>
       <c r="D23" s="82"/>
       <c r="E23" s="82" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F23" s="82"/>
       <c r="G23" s="82" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H23" s="82"/>
       <c r="I23" s="82"/>
@@ -25457,12 +25444,12 @@
         <v>292</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="82" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H24" s="82"/>
       <c r="I24" s="36"/>
@@ -25474,12 +25461,12 @@
         <v>291</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="82" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H25" s="82"/>
       <c r="I25" s="36"/>
@@ -25491,13 +25478,13 @@
         <v>282</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D26" s="82"/>
       <c r="E26" s="82"/>
       <c r="F26" s="82"/>
       <c r="G26" s="82" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H26" s="82"/>
       <c r="I26" s="82"/>
@@ -25507,43 +25494,43 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="82" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C27" s="82" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D27" s="82"/>
       <c r="E27" s="82" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F27" s="82"/>
       <c r="G27" s="82"/>
       <c r="H27" s="82"/>
       <c r="I27" s="82" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J27" s="82"/>
       <c r="K27" s="82" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
       <c r="B28" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="82" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H28" s="82"/>
       <c r="I28" s="84" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J28" s="82"/>
       <c r="K28" s="82" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -25558,25 +25545,25 @@
       <c r="I29" s="36"/>
       <c r="J29" s="82"/>
       <c r="K29" s="30" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="44" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C30" s="82"/>
       <c r="D30" s="82"/>
       <c r="E30" s="84"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H30" s="82"/>
       <c r="J30" s="82"/>
       <c r="K30" s="30" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -25786,32 +25773,32 @@
         <v>140</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D3" s="5">
         <v>4</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G3" s="5">
         <v>0.5</v>
       </c>
       <c r="H3" s="96"/>
       <c r="I3" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J3" s="5">
         <v>5</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M3" s="97">
         <v>2</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="P3" s="5">
         <v>2</v>
@@ -25820,26 +25807,26 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="94"/>
       <c r="C4" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G4" s="5">
         <v>3</v>
       </c>
       <c r="H4" s="98"/>
       <c r="I4" s="5" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="M4" s="97">
         <v>2.5</v>
@@ -25848,7 +25835,7 @@
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E5" s="99"/>
       <c r="F5" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -25856,14 +25843,14 @@
       <c r="H5" s="98"/>
       <c r="J5" s="97"/>
       <c r="L5" s="104" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M5" s="5">
         <v>2</v>
       </c>
       <c r="N5" s="97"/>
       <c r="O5" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="P5" s="5">
         <v>4</v>
@@ -25880,14 +25867,14 @@
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G7" s="5">
         <v>2</v>
       </c>
       <c r="K7" s="5"/>
       <c r="O7" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="Q7" s="97"/>
     </row>
@@ -25904,16 +25891,16 @@
         <v>150</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
       </c>
       <c r="I10" s="97" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J10" s="5">
         <v>1</v>
@@ -25935,26 +25922,26 @@
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="94"/>
       <c r="C11" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D11" s="5">
         <v>2</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G11" s="5">
         <v>2</v>
       </c>
       <c r="I11" s="97" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J11" s="5">
         <v>2</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M11" s="104"/>
       <c r="O11" s="104"/>
@@ -25963,69 +25950,69 @@
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="94"/>
       <c r="C12" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D12" s="5">
         <v>0.5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G12" s="5">
         <v>1</v>
       </c>
       <c r="H12" s="98"/>
       <c r="I12" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="J12" s="5">
         <v>1</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="94"/>
       <c r="C13" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D13" s="5">
         <v>0.5</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="L13" s="104" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M13" s="104"/>
       <c r="O13" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="94"/>
       <c r="C14" s="104" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G14" s="100">
         <v>0.5</v>
       </c>
       <c r="L14" s="97" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="94"/>
       <c r="C15" s="5" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D15" s="5">
         <v>2</v>
@@ -26037,13 +26024,13 @@
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J15" s="5">
         <v>2</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M15" s="5">
         <v>1</v>
@@ -26066,31 +26053,31 @@
         <v>73</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D18" s="5">
         <v>2</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G18" s="5">
         <v>3</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J18" s="5">
         <v>3</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="M18" s="5">
         <v>3</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="P18" s="5">
         <v>3</v>
@@ -26100,25 +26087,25 @@
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="94"/>
       <c r="C19" s="5" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D19" s="5">
         <v>0.5</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G19" s="5">
         <v>3</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="J19" s="5">
         <v>3</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="M19" s="5">
         <v>3</v>
@@ -26127,7 +26114,7 @@
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="94"/>
       <c r="C20" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D20" s="5">
         <v>0.5</v>
@@ -26136,7 +26123,7 @@
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="94"/>
       <c r="C21" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
@@ -26145,19 +26132,19 @@
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="94"/>
       <c r="C22" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D22" s="5">
         <v>2</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="94"/>
       <c r="C23" s="132" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F23" s="107"/>
       <c r="H23" s="108"/>
@@ -26208,7 +26195,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B27" s="114"/>
       <c r="C27" s="67" t="s">
@@ -26233,10 +26220,10 @@
       </c>
       <c r="B28" s="114"/>
       <c r="C28" s="96" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F28" s="96" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G28" s="117"/>
       <c r="H28" s="117"/>
@@ -26258,7 +26245,7 @@
       </c>
       <c r="B29" s="114"/>
       <c r="C29" s="67" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D29" s="117"/>
       <c r="E29" s="67"/>
@@ -26277,12 +26264,12 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="64" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B30" s="114"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I30" s="67" t="s">
         <v>255</v>
@@ -26299,11 +26286,11 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="64" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B31" s="114"/>
       <c r="C31" s="26" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="26" t="s">
@@ -26311,7 +26298,7 @@
       </c>
       <c r="H31" s="26"/>
       <c r="I31" s="67" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="J31" s="67"/>
       <c r="K31" s="115"/>
@@ -26325,18 +26312,18 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="64" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B32" s="114"/>
       <c r="C32" s="66" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F32" s="26" t="s">
         <v>311</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="67" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="J32" s="67"/>
       <c r="K32" s="115"/>
@@ -26350,11 +26337,11 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="64" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B33" s="114"/>
       <c r="F33" s="26" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H33" s="96"/>
       <c r="I33" s="67" t="s">
@@ -26370,16 +26357,16 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="64" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B34" s="114"/>
       <c r="C34" s="66" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F34" s="66"/>
       <c r="H34" s="26"/>
       <c r="I34" s="67" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="J34" s="67"/>
       <c r="K34" s="115"/>
@@ -26392,11 +26379,11 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="64" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B35" s="114"/>
       <c r="C35" s="66" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F35" s="26" t="s">
         <v>311</v>
@@ -26404,7 +26391,7 @@
       <c r="G35" s="100"/>
       <c r="H35" s="68"/>
       <c r="I35" s="67" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="J35" s="69"/>
       <c r="K35" s="99"/>
@@ -26418,11 +26405,11 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="64" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B36" s="114"/>
       <c r="C36" s="66" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F36" s="26" t="s">
         <v>311</v>
@@ -26430,7 +26417,7 @@
       <c r="G36" s="100"/>
       <c r="H36" s="68"/>
       <c r="I36" s="67" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="J36" s="69"/>
       <c r="K36" s="99"/>
@@ -26444,7 +26431,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="64" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B37" s="114"/>
       <c r="F37" s="66" t="s">
@@ -26466,12 +26453,12 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="63" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B38" s="119"/>
       <c r="C38" s="66"/>
       <c r="F38" s="26" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H38" s="26"/>
       <c r="I38" s="67" t="s">
@@ -26489,12 +26476,12 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="64" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B39" s="114"/>
       <c r="C39" s="26"/>
       <c r="F39" s="26" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H39" s="26"/>
       <c r="I39" s="67" t="s">
@@ -26512,12 +26499,12 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="64" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B40" s="114"/>
       <c r="H40" s="26"/>
       <c r="I40" s="67" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="J40" s="67"/>
       <c r="K40" s="115"/>
@@ -26530,7 +26517,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="64" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B41" s="114"/>
       <c r="C41" s="26" t="s">
@@ -26540,7 +26527,7 @@
         <v>254</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J41" s="26"/>
       <c r="K41" s="67"/>
@@ -26556,7 +26543,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="64" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B42" s="122"/>
       <c r="C42" s="26"/>
@@ -26564,7 +26551,7 @@
         <v>122</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="J42" s="26"/>
       <c r="K42" s="67"/>
@@ -26580,7 +26567,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="65" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B43" s="114"/>
       <c r="C43" s="26"/>
@@ -26597,7 +26584,7 @@
       <c r="M43" s="116"/>
       <c r="N43" s="117"/>
       <c r="O43" s="67" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="P43" s="117"/>
       <c r="Q43" s="117"/>
@@ -26605,7 +26592,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="65" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B44" s="114"/>
       <c r="C44" s="117"/>
@@ -26621,7 +26608,7 @@
       <c r="K44" s="116"/>
       <c r="M44" s="116"/>
       <c r="O44" s="67" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="Q44" s="117"/>
       <c r="R44" s="123"/>
@@ -27218,42 +27205,42 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -27263,22 +27250,22 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
@@ -27286,12 +27273,12 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
@@ -27299,12 +27286,12 @@
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
@@ -27312,52 +27299,52 @@
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D25" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="21" x14ac:dyDescent="0.3">
@@ -28153,7 +28140,7 @@
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理/进度计划/Demo-里程碑7/Demo-里程碑7计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑7/Demo-里程碑7计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38600" yWindow="620" windowWidth="28800" windowHeight="16660" tabRatio="349" activeTab="1"/>
+    <workbookView xWindow="39620" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="349" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑7" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="699">
   <si>
     <t>分类</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -9745,6 +9745,15 @@
   </si>
   <si>
     <t>扫荡配置（成长）</t>
+  </si>
+  <si>
+    <t>游戏各个系统定位整理</t>
+  </si>
+  <si>
+    <t>对局玩法改进方案</t>
+  </si>
+  <si>
+    <t>PVP</t>
   </si>
 </sst>
 </file>
@@ -16442,13 +16451,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U210"/>
+  <dimension ref="A2:U212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E74" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B163" sqref="B163"/>
+      <selection pane="bottomRight" activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -16771,7 +16780,7 @@
       <c r="U8" s="146"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="157" t="s">
         <v>408</v>
       </c>
       <c r="D9" s="150">
@@ -16987,7 +16996,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="34" x14ac:dyDescent="0.25">
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="157" t="s">
         <v>368</v>
       </c>
       <c r="D14" s="150">
@@ -17194,6 +17203,9 @@
       <c r="U18" s="146"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="156" t="s">
+        <v>697</v>
+      </c>
       <c r="G19" s="153"/>
       <c r="H19" s="152"/>
       <c r="I19" s="154"/>
@@ -17211,122 +17223,89 @@
       <c r="U19" s="146"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="146" t="s">
+      <c r="G20" s="153"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="154"/>
+      <c r="P20" s="153"/>
+      <c r="Q20" s="152"/>
+      <c r="R20" s="154"/>
+      <c r="S20" s="153"/>
+      <c r="T20" s="152"/>
+      <c r="U20" s="146"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="157" t="s">
         <v>667</v>
       </c>
-      <c r="D20" s="150">
+      <c r="D21" s="150">
         <v>1</v>
-      </c>
-      <c r="E20" s="150">
-        <v>5</v>
-      </c>
-      <c r="G20" s="153" t="str">
-        <f t="shared" ref="G20:G25" si="0">IF($E20=1,$B20," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H20" s="152" t="str">
-        <f t="shared" ref="H20:H25" si="1">IF($E20=1,$D20," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I20" s="154"/>
-      <c r="J20" s="153" t="str">
-        <f t="shared" ref="J20:J25" si="2">IF($E20=2,$B20," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K20" s="152" t="str">
-        <f t="shared" ref="K20:K25" si="3">IF($E20=2,$D20," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L20" s="154"/>
-      <c r="M20" s="153" t="str">
-        <f t="shared" ref="M20:M25" si="4">IF($E20=3,$B20," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N20" s="152" t="str">
-        <f t="shared" ref="N20:N25" si="5">IF($E20=3,$D20," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O20" s="154"/>
-      <c r="P20" s="153" t="str">
-        <f t="shared" ref="P20:P25" si="6">IF($E20=4,$B20," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q20" s="152" t="str">
-        <f t="shared" ref="Q20:Q25" si="7">IF($E20=4,$D20," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R20" s="154"/>
-      <c r="S20" s="153" t="str">
-        <f t="shared" ref="S20:S25" si="8">IF($E20=5,$B20," ")</f>
-        <v>普攻特效迭代需求</v>
-      </c>
-      <c r="T20" s="152">
-        <f t="shared" ref="T20:T25" si="9">IF($E20=5,$D20," ")</f>
-        <v>1</v>
-      </c>
-      <c r="U20" s="146"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="151" t="s">
-        <v>354</v>
-      </c>
-      <c r="C21" s="151"/>
-      <c r="D21" s="183">
-        <v>3</v>
       </c>
       <c r="E21" s="150">
         <v>5</v>
       </c>
       <c r="G21" s="153" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G21:G26" si="0">IF($E21=1,$B21," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H21" s="152" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H21:H26" si="1">IF($E21=1,$D21," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I21" s="154"/>
       <c r="J21" s="153" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J21:J26" si="2">IF($E21=2,$B21," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K21" s="152" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K21:K26" si="3">IF($E21=2,$D21," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L21" s="154"/>
       <c r="M21" s="153" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M21:M26" si="4">IF($E21=3,$B21," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N21" s="152" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N21:N26" si="5">IF($E21=3,$D21," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O21" s="154"/>
       <c r="P21" s="153" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="P21:P26" si="6">IF($E21=4,$B21," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q21" s="152" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="Q21:Q26" si="7">IF($E21=4,$D21," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R21" s="154"/>
       <c r="S21" s="153" t="str">
-        <f t="shared" si="8"/>
-        <v>0.7玩法难度定义和需求</v>
+        <f t="shared" ref="S21:S26" si="8">IF($E21=5,$B21," ")</f>
+        <v>普攻特效迭代需求</v>
       </c>
       <c r="T21" s="152">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="T21:T26" si="9">IF($E21=5,$D21," ")</f>
+        <v>1</v>
+      </c>
+      <c r="U21" s="146"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="151" t="s">
+        <v>354</v>
+      </c>
+      <c r="C22" s="151"/>
+      <c r="D22" s="183">
         <v>3</v>
       </c>
-      <c r="U21" s="146"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="183"/>
+      <c r="E22" s="150">
+        <v>5</v>
+      </c>
       <c r="G22" s="153" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -17365,21 +17344,18 @@
       <c r="R22" s="154"/>
       <c r="S22" s="153" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T22" s="152" t="str">
+        <v>0.7玩法难度定义和需求</v>
+      </c>
+      <c r="T22" s="152">
         <f t="shared" si="9"/>
-        <v xml:space="preserve"> </v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="U22" s="146"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="159" t="s">
-        <v>666</v>
-      </c>
-      <c r="C23" s="159"/>
-      <c r="D23" s="179">
-        <v>0.5</v>
-      </c>
+      <c r="B23" s="151"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="183"/>
       <c r="G23" s="153" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -17424,13 +17400,13 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U23" s="146"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="146" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="150">
+      <c r="B24" s="159" t="s">
+        <v>666</v>
+      </c>
+      <c r="C24" s="159"/>
+      <c r="D24" s="179">
         <v>0.5</v>
       </c>
       <c r="G24" s="153" t="str">
@@ -17481,7 +17457,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" s="146" t="s">
-        <v>665</v>
+        <v>173</v>
       </c>
       <c r="D25" s="150">
         <v>0.5</v>
@@ -17532,241 +17508,239 @@
       </c>
       <c r="U25" s="146"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U27" s="146"/>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="157" t="s">
+        <v>665</v>
+      </c>
+      <c r="D26" s="150">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="153" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H26" s="152" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I26" s="154"/>
+      <c r="J26" s="153" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K26" s="152" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L26" s="154"/>
+      <c r="M26" s="153" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N26" s="152" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O26" s="154"/>
+      <c r="P26" s="153" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q26" s="152" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R26" s="154"/>
+      <c r="S26" s="153" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T26" s="152" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U26" s="146"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="146"/>
-      <c r="B28" s="148" t="s">
+      <c r="U28" s="146"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="146"/>
+      <c r="B29" s="148" t="s">
         <v>631</v>
       </c>
-      <c r="C28" s="148"/>
-      <c r="D28" s="150">
-        <f>SUM(D5:D27)</f>
+      <c r="C29" s="148"/>
+      <c r="D29" s="150">
+        <f>SUM(D5:D28)</f>
         <v>21.5</v>
       </c>
-      <c r="H28" s="150">
-        <f>SUM(H2:H27)</f>
+      <c r="H29" s="150">
+        <f>SUM(H2:H28)</f>
         <v>4</v>
       </c>
-      <c r="K28" s="150">
-        <f>SUM(K8:K27)</f>
+      <c r="K29" s="150">
+        <f>SUM(K8:K28)</f>
         <v>6</v>
       </c>
-      <c r="N28" s="150">
-        <f>SUM(N8:N27)</f>
+      <c r="N29" s="150">
+        <f>SUM(N8:N28)</f>
         <v>4</v>
       </c>
-      <c r="Q28" s="150">
-        <f>SUM(Q8:Q27)</f>
+      <c r="Q29" s="150">
+        <f>SUM(Q8:Q28)</f>
         <v>4</v>
       </c>
-      <c r="T28" s="150">
-        <f>SUM(T8:T27)</f>
+      <c r="T29" s="150">
+        <f>SUM(T8:T28)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="161" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="164"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="164"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="164"/>
-      <c r="L29" s="162"/>
-      <c r="M29" s="164"/>
-      <c r="O29" s="162"/>
-      <c r="R29" s="162"/>
-      <c r="U29" s="162"/>
-    </row>
-    <row r="30" spans="1:21" s="159" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+    <row r="30" spans="1:21" s="161" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="164"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="164"/>
+      <c r="L30" s="162"/>
+      <c r="M30" s="164"/>
+      <c r="O30" s="162"/>
+      <c r="R30" s="162"/>
+      <c r="U30" s="162"/>
+    </row>
+    <row r="31" spans="1:21" s="159" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
         <v>664</v>
       </c>
-      <c r="B30" s="182"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="153" t="str">
-        <f>IF($E30=1,$B30," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I30" s="152" t="str">
-        <f>IF($E30=1,$D30," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J30" s="154"/>
-      <c r="K30" s="153" t="str">
-        <f>IF($E30=2,$B30," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L30" s="152" t="str">
-        <f>IF($E30=2,$D30," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M30" s="154"/>
-      <c r="N30" s="153" t="str">
-        <f>IF($E30=3,$B30," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O30" s="152" t="str">
-        <f>IF($E30=3,$D30," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P30" s="154"/>
-      <c r="Q30" s="153" t="str">
-        <f>IF($E30=4,$B30," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R30" s="152" t="str">
-        <f>IF($E30=4,$D30," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S30" s="154"/>
-      <c r="T30" s="153" t="str">
-        <f>IF($E30=5,$B30," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U30" s="152" t="str">
-        <f>IF($E30=5,$D30," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="34" x14ac:dyDescent="0.25">
-      <c r="A31" s="146"/>
-      <c r="B31" s="181" t="s">
+      <c r="B31" s="182"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="153" t="str">
+        <f>IF($E31=1,$B31," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I31" s="152" t="str">
+        <f>IF($E31=1,$D31," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J31" s="154"/>
+      <c r="K31" s="153" t="str">
+        <f>IF($E31=2,$B31," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L31" s="152" t="str">
+        <f>IF($E31=2,$D31," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M31" s="154"/>
+      <c r="N31" s="153" t="str">
+        <f>IF($E31=3,$B31," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O31" s="152" t="str">
+        <f>IF($E31=3,$D31," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P31" s="154"/>
+      <c r="Q31" s="153" t="str">
+        <f>IF($E31=4,$B31," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R31" s="152" t="str">
+        <f>IF($E31=4,$D31," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S31" s="154"/>
+      <c r="T31" s="153" t="str">
+        <f>IF($E31=5,$B31," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U31" s="152" t="str">
+        <f>IF($E31=5,$D31," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="34" x14ac:dyDescent="0.25">
+      <c r="A32" s="146"/>
+      <c r="B32" s="181" t="s">
         <v>663</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="150">
-        <v>0.5</v>
-      </c>
-      <c r="E31" s="150">
-        <v>1</v>
-      </c>
-      <c r="G31" s="153" t="str">
-        <f t="shared" ref="G31:G36" si="10">IF($E31=1,$B31," ")</f>
-        <v>对局调整（照妖镜，大招，技能提示，其他）验收，debug</v>
-      </c>
-      <c r="H31" s="152">
-        <f t="shared" ref="H31:H36" si="11">IF($E31=1,$D31," ")</f>
-        <v>0.5</v>
-      </c>
-      <c r="I31" s="154"/>
-      <c r="J31" s="153" t="str">
-        <f t="shared" ref="J31:J36" si="12">IF($E31=2,$B31," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K31" s="152" t="str">
-        <f t="shared" ref="K31:K36" si="13">IF($E31=2,$D31," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L31" s="154"/>
-      <c r="M31" s="153" t="str">
-        <f t="shared" ref="M31:M36" si="14">IF($E31=3,$B31," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N31" s="152" t="str">
-        <f t="shared" ref="N31:N36" si="15">IF($E31=3,$D31," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O31" s="154"/>
-      <c r="P31" s="153" t="str">
-        <f t="shared" ref="P31:P36" si="16">IF($E31=4,$B31," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q31" s="152" t="str">
-        <f t="shared" ref="Q31:Q36" si="17">IF($E31=4,$D31," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R31" s="154"/>
-      <c r="S31" s="153" t="str">
-        <f t="shared" ref="S31:S36" si="18">IF($E31=5,$B31," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T31" s="152" t="str">
-        <f t="shared" ref="T31:T36" si="19">IF($E31=5,$D31," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="181" t="s">
-        <v>350</v>
       </c>
       <c r="C32" s="149"/>
       <c r="D32" s="150">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E32" s="150">
         <v>1</v>
       </c>
       <c r="G32" s="153" t="str">
+        <f t="shared" ref="G32:G37" si="10">IF($E32=1,$B32," ")</f>
+        <v>对局调整（照妖镜，大招，技能提示，其他）验收，debug</v>
+      </c>
+      <c r="H32" s="152">
+        <f t="shared" ref="H32:H37" si="11">IF($E32=1,$D32," ")</f>
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="154"/>
+      <c r="J32" s="153" t="str">
+        <f t="shared" ref="J32:J37" si="12">IF($E32=2,$B32," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K32" s="152" t="str">
+        <f t="shared" ref="K32:K37" si="13">IF($E32=2,$D32," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L32" s="154"/>
+      <c r="M32" s="153" t="str">
+        <f t="shared" ref="M32:M37" si="14">IF($E32=3,$B32," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N32" s="152" t="str">
+        <f t="shared" ref="N32:N37" si="15">IF($E32=3,$D32," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O32" s="154"/>
+      <c r="P32" s="153" t="str">
+        <f t="shared" ref="P32:P37" si="16">IF($E32=4,$B32," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q32" s="152" t="str">
+        <f t="shared" ref="Q32:Q37" si="17">IF($E32=4,$D32," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R32" s="154"/>
+      <c r="S32" s="153" t="str">
+        <f t="shared" ref="S32:S37" si="18">IF($E32=5,$B32," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T32" s="152" t="str">
+        <f t="shared" ref="T32:T37" si="19">IF($E32=5,$D32," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="181" t="s">
+        <v>350</v>
+      </c>
+      <c r="C33" s="149"/>
+      <c r="D33" s="150">
+        <v>1</v>
+      </c>
+      <c r="E33" s="150">
+        <v>1</v>
+      </c>
+      <c r="G33" s="153" t="str">
         <f t="shared" si="10"/>
         <v>对局调整测试内容设计</v>
       </c>
-      <c r="H32" s="152">
+      <c r="H33" s="152">
         <f t="shared" si="11"/>
         <v>1</v>
-      </c>
-      <c r="I32" s="154"/>
-      <c r="J32" s="153" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K32" s="152" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L32" s="154"/>
-      <c r="M32" s="153" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N32" s="152" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O32" s="154"/>
-      <c r="P32" s="153" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q32" s="152" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R32" s="154"/>
-      <c r="S32" s="153" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T32" s="152" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="157" t="s">
-        <v>348</v>
-      </c>
-      <c r="D33" s="150">
-        <v>3.5</v>
-      </c>
-      <c r="E33" s="150">
-        <v>1</v>
-      </c>
-      <c r="G33" s="153" t="str">
-        <f t="shared" si="10"/>
-        <v>对局调整配置集体测试内容；</v>
-      </c>
-      <c r="H33" s="152">
-        <f t="shared" si="11"/>
-        <v>3.5</v>
       </c>
       <c r="I33" s="154"/>
       <c r="J33" s="153" t="str">
@@ -17806,23 +17780,22 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="146"/>
       <c r="B34" s="157" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="D34" s="150">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="E34" s="150">
         <v>1</v>
       </c>
       <c r="G34" s="153" t="str">
         <f t="shared" si="10"/>
-        <v>对局镜头切换验收</v>
+        <v>对局调整配置集体测试内容；</v>
       </c>
       <c r="H34" s="152">
         <f t="shared" si="11"/>
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="I34" s="154"/>
       <c r="J34" s="153" t="str">
@@ -17860,12 +17833,11 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U34" s="146"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="146"/>
       <c r="B35" s="157" t="s">
-        <v>576</v>
+        <v>369</v>
       </c>
       <c r="D35" s="150">
         <v>0.5</v>
@@ -17875,7 +17847,7 @@
       </c>
       <c r="G35" s="153" t="str">
         <f t="shared" si="10"/>
-        <v>大招镜头调整</v>
+        <v>对局镜头切换验收</v>
       </c>
       <c r="H35" s="152">
         <f t="shared" si="11"/>
@@ -17921,23 +17893,22 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="146"/>
-      <c r="B36" s="181" t="s">
-        <v>690</v>
-      </c>
-      <c r="C36" s="149"/>
+      <c r="B36" s="157" t="s">
+        <v>576</v>
+      </c>
       <c r="D36" s="150">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E36" s="150">
         <v>1</v>
       </c>
       <c r="G36" s="153" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">账号登录，创建角色，服务器选择，公告 </v>
+        <v>大招镜头调整</v>
       </c>
       <c r="H36" s="152">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I36" s="154"/>
       <c r="J36" s="153" t="str">
@@ -17979,87 +17950,87 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="146"/>
-      <c r="B37" s="149"/>
+      <c r="B37" s="181" t="s">
+        <v>690</v>
+      </c>
       <c r="C37" s="149"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="152"/>
+      <c r="D37" s="150">
+        <v>1</v>
+      </c>
+      <c r="E37" s="150">
+        <v>1</v>
+      </c>
+      <c r="G37" s="153" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">账号登录，创建角色，服务器选择，公告 </v>
+      </c>
+      <c r="H37" s="152">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="I37" s="154"/>
-      <c r="J37" s="153"/>
-      <c r="K37" s="152"/>
+      <c r="J37" s="153" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K37" s="152" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L37" s="154"/>
-      <c r="M37" s="153"/>
-      <c r="N37" s="152"/>
+      <c r="M37" s="153" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N37" s="152" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O37" s="154"/>
-      <c r="P37" s="153"/>
-      <c r="Q37" s="152"/>
+      <c r="P37" s="153" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q37" s="152" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R37" s="154"/>
-      <c r="S37" s="153"/>
-      <c r="T37" s="152"/>
+      <c r="S37" s="153" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T37" s="152" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="U37" s="146"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="146"/>
-      <c r="B38" s="157" t="s">
-        <v>349</v>
-      </c>
-      <c r="D38" s="150">
-        <v>1</v>
-      </c>
-      <c r="E38" s="150">
-        <v>2</v>
-      </c>
-      <c r="G38" s="153" t="str">
-        <f>IF($E38=1,$B38," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H38" s="152" t="str">
-        <f>IF($E38=1,$D38," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B38" s="149"/>
+      <c r="C38" s="149"/>
+      <c r="G38" s="153"/>
+      <c r="H38" s="152"/>
       <c r="I38" s="154"/>
-      <c r="J38" s="153" t="str">
-        <f>IF($E38=2,$B38," ")</f>
-        <v>副本、阵容选择集体测试配置</v>
-      </c>
-      <c r="K38" s="152">
-        <f>IF($E38=2,$D38," ")</f>
-        <v>1</v>
-      </c>
+      <c r="J38" s="153"/>
+      <c r="K38" s="152"/>
       <c r="L38" s="154"/>
-      <c r="M38" s="153" t="str">
-        <f t="shared" ref="M38:M48" si="20">IF($E38=3,$B38," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N38" s="152" t="str">
-        <f>IF($E38=3,$D38," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M38" s="153"/>
+      <c r="N38" s="152"/>
       <c r="O38" s="154"/>
-      <c r="P38" s="153" t="str">
-        <f>IF($E38=4,$B38," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q38" s="152" t="str">
-        <f>IF($E38=4,$D38," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P38" s="153"/>
+      <c r="Q38" s="152"/>
       <c r="R38" s="154"/>
-      <c r="S38" s="153" t="str">
-        <f>IF($E38=5,$B38," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T38" s="152" t="str">
-        <f>IF($E38=5,$D38," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S38" s="153"/>
+      <c r="T38" s="152"/>
       <c r="U38" s="146"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="146"/>
-      <c r="B39" s="181" t="s">
-        <v>392</v>
-      </c>
-      <c r="C39" s="149"/>
+      <c r="B39" s="157" t="s">
+        <v>349</v>
+      </c>
       <c r="D39" s="150">
         <v>1</v>
       </c>
@@ -18077,7 +18048,7 @@
       <c r="I39" s="154"/>
       <c r="J39" s="153" t="str">
         <f>IF($E39=2,$B39," ")</f>
-        <v>副本，阵容算泽验收，Debug</v>
+        <v>副本、阵容选择集体测试配置</v>
       </c>
       <c r="K39" s="152">
         <f>IF($E39=2,$D39," ")</f>
@@ -18085,7 +18056,7 @@
       </c>
       <c r="L39" s="154"/>
       <c r="M39" s="153" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="M39:M49" si="20">IF($E39=3,$B39," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N39" s="152" t="str">
@@ -18114,136 +18085,136 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="146"/>
-      <c r="B40" s="182"/>
+      <c r="B40" s="181" t="s">
+        <v>392</v>
+      </c>
       <c r="C40" s="149"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="152"/>
+      <c r="D40" s="150">
+        <v>1</v>
+      </c>
+      <c r="E40" s="150">
+        <v>2</v>
+      </c>
+      <c r="G40" s="153" t="str">
+        <f>IF($E40=1,$B40," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H40" s="152" t="str">
+        <f>IF($E40=1,$D40," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I40" s="154"/>
-      <c r="J40" s="153"/>
-      <c r="K40" s="152"/>
+      <c r="J40" s="153" t="str">
+        <f>IF($E40=2,$B40," ")</f>
+        <v>副本，阵容算泽验收，Debug</v>
+      </c>
+      <c r="K40" s="152">
+        <f>IF($E40=2,$D40," ")</f>
+        <v>1</v>
+      </c>
       <c r="L40" s="154"/>
-      <c r="M40" s="153"/>
-      <c r="N40" s="152"/>
+      <c r="M40" s="153" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N40" s="152" t="str">
+        <f>IF($E40=3,$D40," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O40" s="154"/>
-      <c r="P40" s="153"/>
-      <c r="Q40" s="152"/>
+      <c r="P40" s="153" t="str">
+        <f>IF($E40=4,$B40," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q40" s="152" t="str">
+        <f>IF($E40=4,$D40," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R40" s="154"/>
-      <c r="S40" s="153"/>
-      <c r="T40" s="152"/>
+      <c r="S40" s="153" t="str">
+        <f>IF($E40=5,$B40," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T40" s="152" t="str">
+        <f>IF($E40=5,$D40," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="U40" s="146"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="146"/>
-      <c r="B41" s="181" t="s">
-        <v>390</v>
-      </c>
+      <c r="B41" s="182"/>
       <c r="C41" s="149"/>
-      <c r="D41" s="150">
-        <v>1</v>
-      </c>
-      <c r="E41" s="150">
-        <v>3</v>
-      </c>
-      <c r="G41" s="153" t="str">
-        <f t="shared" ref="G41" si="21">IF($E41=1,$B41," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H41" s="152" t="str">
-        <f t="shared" ref="H41" si="22">IF($E41=1,$D41," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G41" s="153"/>
+      <c r="H41" s="152"/>
       <c r="I41" s="154"/>
-      <c r="J41" s="153" t="str">
-        <f t="shared" ref="J41" si="23">IF($E41=2,$B41," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K41" s="152" t="str">
-        <f t="shared" ref="K41" si="24">IF($E41=2,$D41," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J41" s="153"/>
+      <c r="K41" s="152"/>
       <c r="L41" s="154"/>
-      <c r="M41" s="153" t="str">
-        <f t="shared" ref="M41" si="25">IF($E41=3,$B41," ")</f>
-        <v>账号登录，创建角色，服务器选择，公告 - 封文档</v>
-      </c>
-      <c r="N41" s="152">
-        <f t="shared" ref="N41" si="26">IF($E41=3,$D41," ")</f>
-        <v>1</v>
-      </c>
+      <c r="M41" s="153"/>
+      <c r="N41" s="152"/>
       <c r="O41" s="154"/>
-      <c r="P41" s="153" t="str">
-        <f t="shared" ref="P41" si="27">IF($E41=4,$B41," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q41" s="152" t="str">
-        <f t="shared" ref="Q41" si="28">IF($E41=4,$D41," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P41" s="153"/>
+      <c r="Q41" s="152"/>
       <c r="R41" s="154"/>
-      <c r="S41" s="153" t="str">
-        <f t="shared" ref="S41" si="29">IF($E41=5,$B41," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T41" s="152" t="str">
-        <f t="shared" ref="T41" si="30">IF($E41=5,$D41," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S41" s="153"/>
+      <c r="T41" s="152"/>
       <c r="U41" s="146"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="146"/>
       <c r="B42" s="181" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C42" s="149"/>
       <c r="D42" s="150">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E42" s="150">
         <v>3</v>
       </c>
       <c r="G42" s="153" t="str">
-        <f>IF($E42=1,$B42," ")</f>
+        <f t="shared" ref="G42" si="21">IF($E42=1,$B42," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H42" s="152" t="str">
-        <f>IF($E42=1,$D42," ")</f>
+        <f t="shared" ref="H42" si="22">IF($E42=1,$D42," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I42" s="154"/>
       <c r="J42" s="153" t="str">
-        <f>IF($E42=2,$B42," ")</f>
+        <f t="shared" ref="J42" si="23">IF($E42=2,$B42," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K42" s="152" t="str">
-        <f>IF($E42=2,$D42," ")</f>
+        <f t="shared" ref="K42" si="24">IF($E42=2,$D42," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L42" s="154"/>
       <c r="M42" s="153" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">副本配置准备 </v>
+        <f t="shared" ref="M42" si="25">IF($E42=3,$B42," ")</f>
+        <v>账号登录，创建角色，服务器选择，公告 - 封文档</v>
       </c>
       <c r="N42" s="152">
-        <f>IF($E42=3,$D42," ")</f>
-        <v>0.5</v>
+        <f t="shared" ref="N42" si="26">IF($E42=3,$D42," ")</f>
+        <v>1</v>
       </c>
       <c r="O42" s="154"/>
       <c r="P42" s="153" t="str">
-        <f>IF($E42=4,$B42," ")</f>
+        <f t="shared" ref="P42" si="27">IF($E42=4,$B42," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q42" s="152" t="str">
-        <f>IF($E42=4,$D42," ")</f>
+        <f t="shared" ref="Q42" si="28">IF($E42=4,$D42," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R42" s="154"/>
       <c r="S42" s="153" t="str">
-        <f>IF($E42=5,$B42," ")</f>
+        <f t="shared" ref="S42" si="29">IF($E42=5,$B42," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T42" s="152" t="str">
-        <f>IF($E42=5,$D42," ")</f>
+        <f t="shared" ref="T42" si="30">IF($E42=5,$D42," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U42" s="146"/>
@@ -18251,38 +18222,65 @@
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="146"/>
       <c r="B43" s="181" t="s">
-        <v>661</v>
+        <v>398</v>
       </c>
       <c r="C43" s="149"/>
       <c r="D43" s="150">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E43" s="150">
         <v>3</v>
       </c>
-      <c r="G43" s="153"/>
-      <c r="H43" s="152"/>
+      <c r="G43" s="153" t="str">
+        <f>IF($E43=1,$B43," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H43" s="152" t="str">
+        <f>IF($E43=1,$D43," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I43" s="154"/>
-      <c r="J43" s="153"/>
-      <c r="K43" s="152"/>
+      <c r="J43" s="153" t="str">
+        <f>IF($E43=2,$B43," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K43" s="152" t="str">
+        <f>IF($E43=2,$D43," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L43" s="154"/>
       <c r="M43" s="153" t="str">
         <f t="shared" si="20"/>
-        <v>对局集体测试后修改需求</v>
-      </c>
-      <c r="N43" s="152"/>
+        <v xml:space="preserve">副本配置准备 </v>
+      </c>
+      <c r="N43" s="152">
+        <f>IF($E43=3,$D43," ")</f>
+        <v>0.5</v>
+      </c>
       <c r="O43" s="154"/>
-      <c r="P43" s="153"/>
-      <c r="Q43" s="152"/>
+      <c r="P43" s="153" t="str">
+        <f>IF($E43=4,$B43," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q43" s="152" t="str">
+        <f>IF($E43=4,$D43," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R43" s="154"/>
-      <c r="S43" s="153"/>
-      <c r="T43" s="152"/>
+      <c r="S43" s="153" t="str">
+        <f>IF($E43=5,$B43," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T43" s="152" t="str">
+        <f>IF($E43=5,$D43," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="U43" s="146"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="146"/>
-      <c r="B44" s="180" t="s">
-        <v>681</v>
+      <c r="B44" s="181" t="s">
+        <v>661</v>
       </c>
       <c r="C44" s="149"/>
       <c r="D44" s="150">
@@ -18291,60 +18289,33 @@
       <c r="E44" s="150">
         <v>3</v>
       </c>
-      <c r="G44" s="153" t="str">
-        <f>IF($E44=1,$B44," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H44" s="152" t="str">
-        <f>IF($E44=1,$D44," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G44" s="153"/>
+      <c r="H44" s="152"/>
       <c r="I44" s="154"/>
-      <c r="J44" s="153" t="str">
-        <f>IF($E44=2,$B44," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K44" s="152" t="str">
-        <f>IF($E44=2,$D44," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J44" s="153"/>
+      <c r="K44" s="152"/>
       <c r="L44" s="154"/>
       <c r="M44" s="153" t="str">
         <f t="shared" si="20"/>
-        <v>副本配置 - 小怪（逻辑）</v>
-      </c>
-      <c r="N44" s="152">
-        <f>IF($E44=3,$D44," ")</f>
-        <v>2</v>
-      </c>
+        <v>对局集体测试后修改需求</v>
+      </c>
+      <c r="N44" s="152"/>
       <c r="O44" s="154"/>
-      <c r="P44" s="153" t="str">
-        <f>IF($E44=4,$B44," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q44" s="152" t="str">
-        <f>IF($E44=4,$D44," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P44" s="153"/>
+      <c r="Q44" s="152"/>
       <c r="R44" s="154"/>
-      <c r="S44" s="153" t="str">
-        <f>IF($E44=5,$B44," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T44" s="152" t="str">
-        <f>IF($E44=5,$D44," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S44" s="153"/>
+      <c r="T44" s="152"/>
       <c r="U44" s="146"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="146"/>
       <c r="B45" s="180" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="C45" s="149"/>
       <c r="D45" s="150">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E45" s="150">
         <v>3</v>
@@ -18369,11 +18340,11 @@
       <c r="L45" s="154"/>
       <c r="M45" s="153" t="str">
         <f t="shared" si="20"/>
-        <v>副本配置 - Boss（逻辑）</v>
+        <v>副本配置 - 小怪（逻辑）</v>
       </c>
       <c r="N45" s="152">
         <f>IF($E45=3,$D45," ")</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O45" s="154"/>
       <c r="P45" s="153" t="str">
@@ -18397,90 +18368,90 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="146"/>
-      <c r="B46" s="149"/>
+      <c r="B46" s="180" t="s">
+        <v>659</v>
+      </c>
       <c r="C46" s="149"/>
-      <c r="G46" s="153"/>
-      <c r="H46" s="152"/>
+      <c r="D46" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="E46" s="150">
+        <v>3</v>
+      </c>
+      <c r="G46" s="153" t="str">
+        <f>IF($E46=1,$B46," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H46" s="152" t="str">
+        <f>IF($E46=1,$D46," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I46" s="154"/>
-      <c r="J46" s="153"/>
-      <c r="K46" s="152"/>
+      <c r="J46" s="153" t="str">
+        <f>IF($E46=2,$B46," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K46" s="152" t="str">
+        <f>IF($E46=2,$D46," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L46" s="154"/>
-      <c r="M46" s="153"/>
-      <c r="N46" s="152"/>
+      <c r="M46" s="153" t="str">
+        <f t="shared" si="20"/>
+        <v>副本配置 - Boss（逻辑）</v>
+      </c>
+      <c r="N46" s="152">
+        <f>IF($E46=3,$D46," ")</f>
+        <v>1.5</v>
+      </c>
       <c r="O46" s="154"/>
-      <c r="P46" s="153"/>
-      <c r="Q46" s="152"/>
+      <c r="P46" s="153" t="str">
+        <f>IF($E46=4,$B46," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q46" s="152" t="str">
+        <f>IF($E46=4,$D46," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R46" s="154"/>
-      <c r="S46" s="153"/>
-      <c r="T46" s="152"/>
+      <c r="S46" s="153" t="str">
+        <f>IF($E46=5,$B46," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T46" s="152" t="str">
+        <f>IF($E46=5,$D46," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="U46" s="146"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="146"/>
-      <c r="B47" s="149" t="s">
-        <v>658</v>
-      </c>
+      <c r="B47" s="149"/>
       <c r="C47" s="149"/>
-      <c r="D47" s="150">
-        <v>1</v>
-      </c>
-      <c r="E47" s="150">
-        <v>4</v>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f>IF($E47=1,$B47," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H47" s="152" t="str">
-        <f>IF($E47=1,$D47," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G47" s="153"/>
+      <c r="H47" s="152"/>
       <c r="I47" s="154"/>
-      <c r="J47" s="153" t="str">
-        <f>IF($E47=2,$B47," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K47" s="152" t="str">
-        <f>IF($E47=2,$D47," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J47" s="153"/>
+      <c r="K47" s="152"/>
       <c r="L47" s="154"/>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N47" s="152" t="str">
-        <f>IF($E47=3,$D47," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M47" s="153"/>
+      <c r="N47" s="152"/>
       <c r="O47" s="154"/>
-      <c r="P47" s="153" t="str">
-        <f>IF($E47=4,$B47," ")</f>
-        <v>副本配置 - 小怪（表现相关）</v>
-      </c>
-      <c r="Q47" s="152">
-        <f>IF($E47=4,$D47," ")</f>
-        <v>1</v>
-      </c>
+      <c r="P47" s="153"/>
+      <c r="Q47" s="152"/>
       <c r="R47" s="154"/>
-      <c r="S47" s="153" t="str">
-        <f>IF($E47=5,$B47," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T47" s="152" t="str">
-        <f>IF($E47=5,$D47," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S47" s="153"/>
+      <c r="T47" s="152"/>
       <c r="U47" s="146"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="146"/>
       <c r="B48" s="149" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C48" s="149"/>
       <c r="D48" s="150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" s="150">
         <v>4</v>
@@ -18514,11 +18485,11 @@
       <c r="O48" s="154"/>
       <c r="P48" s="153" t="str">
         <f>IF($E48=4,$B48," ")</f>
-        <v>副本配置 - Boss（表现相关）</v>
+        <v>副本配置 - 小怪（表现相关）</v>
       </c>
       <c r="Q48" s="152">
         <f>IF($E48=4,$D48," ")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R48" s="154"/>
       <c r="S48" s="153" t="str">
@@ -18531,14 +18502,14 @@
       </c>
       <c r="U48" s="146"/>
     </row>
-    <row r="49" spans="1:21" ht="34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="146"/>
       <c r="B49" s="149" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C49" s="149"/>
       <c r="D49" s="150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="150">
         <v>4</v>
@@ -18562,7 +18533,7 @@
       </c>
       <c r="L49" s="154"/>
       <c r="M49" s="153" t="str">
-        <f>IF($E49=3,$B49," ")</f>
+        <f t="shared" si="20"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N49" s="152" t="str">
@@ -18572,11 +18543,11 @@
       <c r="O49" s="154"/>
       <c r="P49" s="153" t="str">
         <f>IF($E49=4,$B49," ")</f>
-        <v>村落场景，主UI （配置，验收，Debug)</v>
+        <v>副本配置 - Boss（表现相关）</v>
       </c>
       <c r="Q49" s="152">
         <f>IF($E49=4,$D49," ")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R49" s="154"/>
       <c r="S49" s="153" t="str">
@@ -18589,10 +18560,10 @@
       </c>
       <c r="U49" s="146"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="34" x14ac:dyDescent="0.25">
       <c r="A50" s="146"/>
       <c r="B50" s="149" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="C50" s="149"/>
       <c r="D50" s="150">
@@ -18601,167 +18572,167 @@
       <c r="E50" s="150">
         <v>4</v>
       </c>
-      <c r="G50" s="153"/>
-      <c r="H50" s="152"/>
+      <c r="G50" s="153" t="str">
+        <f>IF($E50=1,$B50," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H50" s="152" t="str">
+        <f>IF($E50=1,$D50," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I50" s="154"/>
-      <c r="J50" s="153"/>
-      <c r="K50" s="152"/>
+      <c r="J50" s="153" t="str">
+        <f>IF($E50=2,$B50," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K50" s="152" t="str">
+        <f>IF($E50=2,$D50," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L50" s="154"/>
       <c r="M50" s="153" t="str">
         <f>IF($E50=3,$B50," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N50" s="152"/>
+      <c r="N50" s="152" t="str">
+        <f>IF($E50=3,$D50," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O50" s="154"/>
-      <c r="P50" s="153"/>
-      <c r="Q50" s="152"/>
+      <c r="P50" s="153" t="str">
+        <f>IF($E50=4,$B50," ")</f>
+        <v>村落场景，主UI （配置，验收，Debug)</v>
+      </c>
+      <c r="Q50" s="152">
+        <f>IF($E50=4,$D50," ")</f>
+        <v>1</v>
+      </c>
       <c r="R50" s="154"/>
-      <c r="S50" s="153"/>
-      <c r="T50" s="152"/>
+      <c r="S50" s="153" t="str">
+        <f>IF($E50=5,$B50," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T50" s="152" t="str">
+        <f>IF($E50=5,$D50," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="U50" s="146"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="146"/>
       <c r="B51" s="149" t="s">
-        <v>634</v>
+        <v>680</v>
       </c>
       <c r="C51" s="149"/>
       <c r="D51" s="150">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E51" s="150">
-        <v>5</v>
-      </c>
-      <c r="G51" s="153" t="str">
-        <f>IF($E51=1,$B51," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H51" s="152" t="str">
-        <f>IF($E51=1,$D51," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G51" s="153"/>
+      <c r="H51" s="152"/>
       <c r="I51" s="154"/>
-      <c r="J51" s="153" t="str">
-        <f>IF($E51=2,$B51," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K51" s="152" t="str">
-        <f>IF($E51=2,$D51," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J51" s="153"/>
+      <c r="K51" s="152"/>
       <c r="L51" s="154"/>
       <c r="M51" s="153" t="str">
         <f>IF($E51=3,$B51," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N51" s="152" t="str">
-        <f>IF($E51=3,$D51," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="N51" s="152"/>
       <c r="O51" s="154"/>
-      <c r="P51" s="153" t="str">
-        <f>IF($E51=4,$B51," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q51" s="152" t="str">
-        <f>IF($E51=4,$D51," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P51" s="153"/>
+      <c r="Q51" s="152"/>
       <c r="R51" s="154"/>
-      <c r="S51" s="153" t="str">
-        <f>IF($E51=5,$B51," ")</f>
+      <c r="S51" s="153"/>
+      <c r="T51" s="152"/>
+      <c r="U51" s="146"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B52" s="149" t="s">
+        <v>634</v>
+      </c>
+      <c r="C52" s="149"/>
+      <c r="D52" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="E52" s="150">
+        <v>5</v>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f>IF($E52=1,$B52," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H52" s="152" t="str">
+        <f>IF($E52=1,$D52," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I52" s="154"/>
+      <c r="J52" s="153" t="str">
+        <f>IF($E52=2,$B52," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K52" s="152" t="str">
+        <f>IF($E52=2,$D52," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L52" s="154"/>
+      <c r="M52" s="153" t="str">
+        <f>IF($E52=3,$B52," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N52" s="152" t="str">
+        <f>IF($E52=3,$D52," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O52" s="154"/>
+      <c r="P52" s="153" t="str">
+        <f>IF($E52=4,$B52," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q52" s="152" t="str">
+        <f>IF($E52=4,$D52," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R52" s="154"/>
+      <c r="S52" s="153" t="str">
+        <f>IF($E52=5,$B52," ")</f>
         <v>副本配置debug</v>
       </c>
-      <c r="T51" s="152">
-        <f>IF($E51=5,$D51," ")</f>
+      <c r="T52" s="152">
+        <f>IF($E52=5,$D52," ")</f>
         <v>1.5</v>
       </c>
-      <c r="U51" s="146"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B52" s="149"/>
-      <c r="C52" s="149"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="152"/>
-      <c r="I52" s="154"/>
-      <c r="J52" s="153"/>
-      <c r="K52" s="152"/>
-      <c r="L52" s="154"/>
-      <c r="M52" s="153"/>
-      <c r="N52" s="152"/>
-      <c r="O52" s="154"/>
-      <c r="P52" s="153"/>
-      <c r="Q52" s="152"/>
-      <c r="R52" s="154"/>
-      <c r="S52" s="153"/>
-      <c r="T52" s="152"/>
       <c r="U52" s="146"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="146"/>
-      <c r="B53" s="182" t="s">
-        <v>662</v>
-      </c>
+      <c r="B53" s="149"/>
       <c r="C53" s="149"/>
-      <c r="D53" s="150">
-        <v>1.5</v>
-      </c>
-      <c r="E53" s="150">
-        <v>5</v>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f>IF($E53=1,$B53," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H53" s="152" t="str">
-        <f>IF($E53=1,$D53," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G53" s="153"/>
+      <c r="H53" s="152"/>
       <c r="I53" s="154"/>
-      <c r="J53" s="153" t="str">
-        <f>IF($E53=2,$B53," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K53" s="152" t="str">
-        <f>IF($E53=2,$D53," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J53" s="153"/>
+      <c r="K53" s="152"/>
       <c r="L53" s="154"/>
-      <c r="M53" s="153" t="str">
-        <f>IF($E53=3,$B53," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N53" s="152" t="str">
-        <f>IF($E53=3,$D53," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M53" s="153"/>
+      <c r="N53" s="152"/>
       <c r="O53" s="154"/>
-      <c r="P53" s="153" t="str">
-        <f>IF($E53=4,$B53," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q53" s="152" t="str">
-        <f>IF($E53=4,$D53," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P53" s="153"/>
+      <c r="Q53" s="152"/>
       <c r="R53" s="154"/>
-      <c r="S53" s="153" t="str">
-        <f>IF($E53=5,$B53," ")</f>
-        <v>任务系统</v>
-      </c>
-      <c r="T53" s="152">
-        <f>IF($E53=5,$D53," ")</f>
-        <v>1.5</v>
-      </c>
+      <c r="S53" s="153"/>
+      <c r="T53" s="152"/>
       <c r="U53" s="146"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="146"/>
-      <c r="B54" s="149" t="s">
-        <v>391</v>
+      <c r="B54" s="182" t="s">
+        <v>662</v>
       </c>
       <c r="C54" s="149"/>
       <c r="D54" s="150">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E54" s="150">
         <v>5</v>
@@ -18804,21 +18775,22 @@
       <c r="R54" s="154"/>
       <c r="S54" s="153" t="str">
         <f>IF($E54=5,$B54," ")</f>
-        <v>任务系统 - 验收，Debug</v>
+        <v>任务系统</v>
       </c>
       <c r="T54" s="152">
         <f>IF($E54=5,$D54," ")</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="U54" s="146"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="146"/>
-      <c r="B55" s="146" t="s">
-        <v>656</v>
-      </c>
+      <c r="B55" s="149" t="s">
+        <v>391</v>
+      </c>
+      <c r="C55" s="149"/>
       <c r="D55" s="150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" s="150">
         <v>5</v>
@@ -18861,21 +18833,21 @@
       <c r="R55" s="154"/>
       <c r="S55" s="153" t="str">
         <f>IF($E55=5,$B55," ")</f>
-        <v>任务内容</v>
+        <v>任务系统 - 验收，Debug</v>
       </c>
       <c r="T55" s="152">
         <f>IF($E55=5,$D55," ")</f>
+        <v>1</v>
+      </c>
+      <c r="U55" s="146"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="146"/>
+      <c r="B56" s="146" t="s">
+        <v>656</v>
+      </c>
+      <c r="D56" s="150">
         <v>2</v>
-      </c>
-      <c r="U55" s="146"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B56" s="149" t="s">
-        <v>655</v>
-      </c>
-      <c r="C56" s="149"/>
-      <c r="D56" s="150">
-        <v>3</v>
       </c>
       <c r="E56" s="150">
         <v>5</v>
@@ -18918,43 +18890,74 @@
       <c r="R56" s="154"/>
       <c r="S56" s="153" t="str">
         <f>IF($E56=5,$B56," ")</f>
-        <v>自动战斗逻辑</v>
+        <v>任务内容</v>
       </c>
       <c r="T56" s="152">
         <f>IF($E56=5,$D56," ")</f>
+        <v>2</v>
+      </c>
+      <c r="U56" s="146"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B57" s="149" t="s">
+        <v>655</v>
+      </c>
+      <c r="C57" s="149"/>
+      <c r="D57" s="150">
         <v>3</v>
       </c>
-      <c r="U56" s="146"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B57" s="149"/>
-      <c r="C57" s="149"/>
-      <c r="G57" s="153"/>
-      <c r="H57" s="152"/>
+      <c r="E57" s="150">
+        <v>5</v>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f>IF($E57=1,$B57," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H57" s="152" t="str">
+        <f>IF($E57=1,$D57," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I57" s="154"/>
-      <c r="J57" s="153"/>
-      <c r="K57" s="152"/>
+      <c r="J57" s="153" t="str">
+        <f>IF($E57=2,$B57," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K57" s="152" t="str">
+        <f>IF($E57=2,$D57," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L57" s="154"/>
-      <c r="M57" s="153"/>
-      <c r="N57" s="152"/>
+      <c r="M57" s="153" t="str">
+        <f>IF($E57=3,$B57," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N57" s="152" t="str">
+        <f>IF($E57=3,$D57," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O57" s="154"/>
-      <c r="P57" s="153"/>
-      <c r="Q57" s="152"/>
+      <c r="P57" s="153" t="str">
+        <f>IF($E57=4,$B57," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q57" s="152" t="str">
+        <f>IF($E57=4,$D57," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R57" s="154"/>
-      <c r="S57" s="153"/>
-      <c r="T57" s="152"/>
+      <c r="S57" s="153" t="str">
+        <f>IF($E57=5,$B57," ")</f>
+        <v>自动战斗逻辑</v>
+      </c>
+      <c r="T57" s="152">
+        <f>IF($E57=5,$D57," ")</f>
+        <v>3</v>
+      </c>
       <c r="U57" s="146"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B58" s="146" t="s">
-        <v>401</v>
-      </c>
-      <c r="D58" s="150">
-        <v>3</v>
-      </c>
-      <c r="E58" s="150">
-        <v>5</v>
-      </c>
+      <c r="B58" s="149"/>
+      <c r="C58" s="149"/>
       <c r="G58" s="153"/>
       <c r="H58" s="152"/>
       <c r="I58" s="154"/>
@@ -18967,115 +18970,124 @@
       <c r="P58" s="153"/>
       <c r="Q58" s="152"/>
       <c r="R58" s="154"/>
-      <c r="S58" s="153" t="str">
-        <f>IF($E58=5,$B58," ")</f>
-        <v>活动指引界面 （超额）</v>
-      </c>
-      <c r="T58" s="152">
-        <f>IF($E58=5,$D58," ")</f>
+      <c r="S58" s="153"/>
+      <c r="T58" s="152"/>
+      <c r="U58" s="146"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B59" s="146" t="s">
+        <v>401</v>
+      </c>
+      <c r="D59" s="150">
         <v>3</v>
       </c>
-      <c r="U58" s="146"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G59" s="153" t="str">
-        <f>IF($E59=1,$B59," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H59" s="152" t="str">
-        <f>IF($E59=1,$D59," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="E59" s="150">
+        <v>5</v>
+      </c>
+      <c r="G59" s="153"/>
+      <c r="H59" s="152"/>
       <c r="I59" s="154"/>
-      <c r="J59" s="153" t="str">
-        <f>IF($E59=2,$B59," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K59" s="152" t="str">
-        <f>IF($E59=2,$D59," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J59" s="153"/>
+      <c r="K59" s="152"/>
       <c r="L59" s="154"/>
-      <c r="M59" s="153" t="str">
-        <f>IF($E59=3,$B59," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N59" s="152" t="str">
-        <f>IF($E59=3,$D59," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M59" s="153"/>
+      <c r="N59" s="152"/>
       <c r="O59" s="154"/>
-      <c r="P59" s="153" t="str">
-        <f>IF($E59=4,$B59," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q59" s="152" t="str">
-        <f>IF($E59=4,$D59," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P59" s="153"/>
+      <c r="Q59" s="152"/>
       <c r="R59" s="154"/>
       <c r="S59" s="153" t="str">
         <f>IF($E59=5,$B59," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T59" s="152" t="str">
+        <v>活动指引界面 （超额）</v>
+      </c>
+      <c r="T59" s="152">
         <f>IF($E59=5,$D59," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>3</v>
       </c>
       <c r="U59" s="146"/>
     </row>
-    <row r="60" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="24" t="s">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G60" s="153" t="str">
+        <f>IF($E60=1,$B60," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H60" s="152" t="str">
+        <f>IF($E60=1,$D60," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I60" s="154"/>
+      <c r="J60" s="153" t="str">
+        <f>IF($E60=2,$B60," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K60" s="152" t="str">
+        <f>IF($E60=2,$D60," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L60" s="154"/>
+      <c r="M60" s="153" t="str">
+        <f>IF($E60=3,$B60," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N60" s="152" t="str">
+        <f>IF($E60=3,$D60," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O60" s="154"/>
+      <c r="P60" s="153" t="str">
+        <f>IF($E60=4,$B60," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q60" s="152" t="str">
+        <f>IF($E60=4,$D60," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R60" s="154"/>
+      <c r="S60" s="153" t="str">
+        <f>IF($E60=5,$B60," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T60" s="152" t="str">
+        <f>IF($E60=5,$D60," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U60" s="146"/>
+    </row>
+    <row r="61" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="24" t="s">
         <v>631</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="72">
-        <f>SUM(D31:D59)</f>
+      <c r="C61" s="24"/>
+      <c r="D61" s="72">
+        <f>SUM(D32:D60)</f>
         <v>33</v>
       </c>
-      <c r="E60" s="72"/>
-      <c r="F60" s="75"/>
-      <c r="H60" s="72">
-        <f>SUM(H29:H59)</f>
+      <c r="E61" s="72"/>
+      <c r="F61" s="75"/>
+      <c r="H61" s="72">
+        <f>SUM(H30:H60)</f>
         <v>7</v>
       </c>
-      <c r="I60" s="20"/>
-      <c r="K60" s="72">
-        <f>SUM(K34:K59)</f>
+      <c r="I61" s="20"/>
+      <c r="K61" s="72">
+        <f>SUM(K35:K60)</f>
         <v>2</v>
       </c>
-      <c r="L60" s="20"/>
-      <c r="N60" s="72">
-        <f>SUM(N34:N59)</f>
+      <c r="L61" s="20"/>
+      <c r="N61" s="72">
+        <f>SUM(N35:N60)</f>
         <v>5</v>
       </c>
-      <c r="O60" s="20"/>
-      <c r="Q60" s="72">
-        <f>SUM(Q34:Q59)</f>
+      <c r="O61" s="20"/>
+      <c r="Q61" s="72">
+        <f>SUM(Q35:Q60)</f>
         <v>4</v>
       </c>
-      <c r="R60" s="20"/>
-      <c r="T60" s="72">
-        <f>SUM(T34:T59)</f>
+      <c r="R61" s="20"/>
+      <c r="T61" s="72">
+        <f>SUM(T35:T60)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G61" s="153"/>
-      <c r="H61" s="152"/>
-      <c r="I61" s="154"/>
-      <c r="J61" s="153"/>
-      <c r="K61" s="152"/>
-      <c r="L61" s="154"/>
-      <c r="M61" s="153"/>
-      <c r="N61" s="152"/>
-      <c r="O61" s="154"/>
-      <c r="P61" s="153"/>
-      <c r="Q61" s="152"/>
-      <c r="R61" s="154"/>
-      <c r="S61" s="153"/>
-      <c r="T61" s="152"/>
-      <c r="U61" s="146"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G62" s="153"/>
@@ -19095,9 +19107,6 @@
       <c r="U62" s="146"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B63" s="146" t="s">
-        <v>389</v>
-      </c>
       <c r="G63" s="153"/>
       <c r="H63" s="152"/>
       <c r="I63" s="154"/>
@@ -19116,83 +19125,80 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B64" s="146" t="s">
+        <v>389</v>
+      </c>
+      <c r="G64" s="153"/>
+      <c r="H64" s="152"/>
+      <c r="I64" s="154"/>
+      <c r="J64" s="153"/>
+      <c r="K64" s="152"/>
+      <c r="L64" s="154"/>
+      <c r="M64" s="153"/>
+      <c r="N64" s="152"/>
+      <c r="O64" s="154"/>
+      <c r="P64" s="153"/>
+      <c r="Q64" s="152"/>
+      <c r="R64" s="154"/>
+      <c r="S64" s="153"/>
+      <c r="T64" s="152"/>
+      <c r="U64" s="146"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B65" s="146" t="s">
         <v>654</v>
       </c>
-      <c r="D64" s="150">
+      <c r="D65" s="150">
         <v>1</v>
       </c>
-      <c r="G64" s="153" t="str">
-        <f>IF($E64=1,$B64," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H64" s="152" t="str">
-        <f>IF($E64=1,$D64," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I64" s="154"/>
-      <c r="J64" s="153" t="str">
-        <f>IF($E64=2,$B64," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K64" s="152" t="str">
-        <f>IF($E64=2,$D64," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L64" s="154"/>
-      <c r="M64" s="153" t="str">
-        <f>IF($E64=3,$B64," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N64" s="152" t="str">
-        <f>IF($E64=3,$D64," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O64" s="154"/>
-      <c r="P64" s="153" t="str">
-        <f>IF($E64=4,$B64," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q64" s="152" t="str">
-        <f>IF($E64=4,$D64," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R64" s="154"/>
-      <c r="S64" s="153" t="str">
-        <f>IF($E64=5,$B64," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T64" s="152" t="str">
-        <f>IF($E64=5,$D64," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U64" s="146"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B66" s="146" t="s">
-        <v>393</v>
-      </c>
-      <c r="D66" s="150">
-        <v>1</v>
-      </c>
-      <c r="G66" s="153"/>
-      <c r="H66" s="152"/>
-      <c r="I66" s="154"/>
-      <c r="J66" s="153"/>
-      <c r="K66" s="152"/>
-      <c r="L66" s="154"/>
-      <c r="M66" s="153"/>
-      <c r="N66" s="152"/>
-      <c r="O66" s="154"/>
-      <c r="P66" s="153"/>
-      <c r="Q66" s="152"/>
-      <c r="R66" s="154"/>
-      <c r="S66" s="153"/>
-      <c r="T66" s="152"/>
-      <c r="U66" s="146"/>
+      <c r="G65" s="153" t="str">
+        <f>IF($E65=1,$B65," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H65" s="152" t="str">
+        <f>IF($E65=1,$D65," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I65" s="154"/>
+      <c r="J65" s="153" t="str">
+        <f>IF($E65=2,$B65," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K65" s="152" t="str">
+        <f>IF($E65=2,$D65," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L65" s="154"/>
+      <c r="M65" s="153" t="str">
+        <f>IF($E65=3,$B65," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N65" s="152" t="str">
+        <f>IF($E65=3,$D65," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O65" s="154"/>
+      <c r="P65" s="153" t="str">
+        <f>IF($E65=4,$B65," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q65" s="152" t="str">
+        <f>IF($E65=4,$D65," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R65" s="154"/>
+      <c r="S65" s="153" t="str">
+        <f>IF($E65=5,$B65," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T65" s="152" t="str">
+        <f>IF($E65=5,$D65," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U65" s="146"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B67" s="146" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D67" s="150">
         <v>1</v>
@@ -19215,10 +19221,10 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B68" s="146" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D68" s="150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G68" s="153"/>
       <c r="H68" s="152"/>
@@ -19237,6 +19243,12 @@
       <c r="U68" s="146"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B69" s="146" t="s">
+        <v>395</v>
+      </c>
+      <c r="D69" s="150">
+        <v>3</v>
+      </c>
       <c r="G69" s="153"/>
       <c r="H69" s="152"/>
       <c r="I69" s="154"/>
@@ -19254,154 +19266,113 @@
       <c r="U69" s="146"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J70" s="149"/>
-      <c r="M70" s="149"/>
+      <c r="G70" s="153"/>
+      <c r="H70" s="152"/>
+      <c r="I70" s="154"/>
+      <c r="J70" s="153"/>
+      <c r="K70" s="152"/>
+      <c r="L70" s="154"/>
+      <c r="M70" s="153"/>
+      <c r="N70" s="152"/>
+      <c r="O70" s="154"/>
+      <c r="P70" s="153"/>
+      <c r="Q70" s="152"/>
+      <c r="R70" s="154"/>
+      <c r="S70" s="153"/>
+      <c r="T70" s="152"/>
+      <c r="U70" s="146"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B71" s="149"/>
-      <c r="C71" s="149"/>
       <c r="J71" s="149"/>
       <c r="M71" s="149"/>
     </row>
-    <row r="72" spans="1:21" s="161" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="164"/>
-      <c r="C72" s="164"/>
-      <c r="D72" s="165"/>
-      <c r="E72" s="165"/>
-      <c r="F72" s="164"/>
-      <c r="H72" s="163"/>
-      <c r="I72" s="162"/>
-      <c r="J72" s="164"/>
-      <c r="L72" s="162"/>
-      <c r="M72" s="164"/>
-      <c r="O72" s="162"/>
-      <c r="R72" s="162"/>
-      <c r="U72" s="162"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B72" s="149"/>
+      <c r="C72" s="149"/>
+      <c r="J72" s="149"/>
+      <c r="M72" s="149"/>
+    </row>
+    <row r="73" spans="1:21" s="161" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="29"/>
+      <c r="B73" s="164"/>
+      <c r="C73" s="164"/>
+      <c r="D73" s="165"/>
+      <c r="E73" s="165"/>
+      <c r="F73" s="164"/>
+      <c r="H73" s="163"/>
+      <c r="I73" s="162"/>
+      <c r="J73" s="164"/>
+      <c r="L73" s="162"/>
+      <c r="M73" s="164"/>
+      <c r="O73" s="162"/>
+      <c r="R73" s="162"/>
+      <c r="U73" s="162"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
         <v>653</v>
       </c>
-      <c r="B73" s="157" t="s">
+      <c r="B74" s="157" t="s">
         <v>652</v>
       </c>
-      <c r="D73" s="150">
+      <c r="D74" s="150">
         <v>1</v>
-      </c>
-      <c r="E73" s="150">
-        <v>1</v>
-      </c>
-      <c r="G73" s="153" t="str">
-        <f t="shared" ref="G73:G78" si="31">IF($E73=1,$B73," ")</f>
-        <v>图鉴宠物获得途径-验收，debug</v>
-      </c>
-      <c r="H73" s="152">
-        <f t="shared" ref="H73:H78" si="32">IF($E73=1,$D73," ")</f>
-        <v>1</v>
-      </c>
-      <c r="I73" s="154"/>
-      <c r="J73" s="153" t="str">
-        <f t="shared" ref="J73:J78" si="33">IF($E73=2,$B73," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K73" s="152" t="str">
-        <f t="shared" ref="K73:K78" si="34">IF($E73=2,$D73," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L73" s="154"/>
-      <c r="M73" s="153" t="str">
-        <f t="shared" ref="M73:M78" si="35">IF($E73=3,$B73," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N73" s="152" t="str">
-        <f t="shared" ref="N73:N78" si="36">IF($E73=3,$D73," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O73" s="154"/>
-      <c r="P73" s="153" t="str">
-        <f t="shared" ref="P73:P78" si="37">IF($E73=4,$B73," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q73" s="152" t="str">
-        <f t="shared" ref="Q73:Q78" si="38">IF($E73=4,$D73," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R73" s="154"/>
-      <c r="S73" s="153" t="str">
-        <f t="shared" ref="S73:S78" si="39">IF($E73=5,$B73," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T73" s="152" t="str">
-        <f t="shared" ref="T73:T78" si="40">IF($E73=5,$D73," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" s="159" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="157" t="s">
-        <v>651</v>
-      </c>
-      <c r="D74" s="179">
-        <v>0.5</v>
       </c>
       <c r="E74" s="150">
         <v>1</v>
       </c>
-      <c r="F74" s="149"/>
       <c r="G74" s="153" t="str">
-        <f t="shared" si="31"/>
-        <v>公会-封文档</v>
+        <f t="shared" ref="G74:G79" si="31">IF($E74=1,$B74," ")</f>
+        <v>图鉴宠物获得途径-验收，debug</v>
       </c>
       <c r="H74" s="152">
-        <f t="shared" si="32"/>
-        <v>0.5</v>
+        <f t="shared" ref="H74:H79" si="32">IF($E74=1,$D74," ")</f>
+        <v>1</v>
       </c>
       <c r="I74" s="154"/>
       <c r="J74" s="153" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="J74:J79" si="33">IF($E74=2,$B74," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K74" s="152" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="K74:K79" si="34">IF($E74=2,$D74," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L74" s="154"/>
       <c r="M74" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="M74:M79" si="35">IF($E74=3,$B74," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N74" s="152" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="N74:N79" si="36">IF($E74=3,$D74," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O74" s="154"/>
       <c r="P74" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="P74:P79" si="37">IF($E74=4,$B74," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q74" s="152" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="Q74:Q79" si="38">IF($E74=4,$D74," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R74" s="154"/>
       <c r="S74" s="153" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="S74:S79" si="39">IF($E74=5,$B74," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T74" s="152" t="str">
-        <f t="shared" si="40"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U74" s="154"/>
+        <f t="shared" ref="T74:T79" si="40">IF($E74=5,$D74," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="75" spans="1:21" s="159" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="157" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D75" s="179">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E75" s="150">
         <v>1</v>
@@ -19409,11 +19380,11 @@
       <c r="F75" s="149"/>
       <c r="G75" s="153" t="str">
         <f t="shared" si="31"/>
-        <v>IM调整-封文档</v>
+        <v>公会-封文档</v>
       </c>
       <c r="H75" s="152">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I75" s="154"/>
       <c r="J75" s="153" t="str">
@@ -19456,7 +19427,7 @@
     <row r="76" spans="1:21" s="159" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="157" t="s">
-        <v>378</v>
+        <v>650</v>
       </c>
       <c r="D76" s="179">
         <v>1</v>
@@ -19467,7 +19438,7 @@
       <c r="F76" s="149"/>
       <c r="G76" s="153" t="str">
         <f t="shared" si="31"/>
-        <v>邮箱调整</v>
+        <v>IM调整-封文档</v>
       </c>
       <c r="H76" s="152">
         <f t="shared" si="32"/>
@@ -19511,19 +19482,21 @@
       </c>
       <c r="U76" s="154"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" s="159" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="19"/>
       <c r="B77" s="157" t="s">
-        <v>649</v>
-      </c>
-      <c r="D77" s="150">
+        <v>378</v>
+      </c>
+      <c r="D77" s="179">
         <v>1</v>
       </c>
       <c r="E77" s="150">
         <v>1</v>
       </c>
+      <c r="F77" s="149"/>
       <c r="G77" s="153" t="str">
         <f t="shared" si="31"/>
-        <v>宠物界面-调整封文档</v>
+        <v>邮箱调整</v>
       </c>
       <c r="H77" s="152">
         <f t="shared" si="32"/>
@@ -19565,10 +19538,11 @@
         <f t="shared" si="40"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="U77" s="154"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B78" s="157" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D78" s="150">
         <v>1</v>
@@ -19578,7 +19552,7 @@
       </c>
       <c r="G78" s="153" t="str">
         <f t="shared" si="31"/>
-        <v>宠物界面-技能性格调整-UI评审</v>
+        <v>宠物界面-调整封文档</v>
       </c>
       <c r="H78" s="152">
         <f t="shared" si="32"/>
@@ -19622,143 +19596,142 @@
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G79" s="153"/>
-      <c r="H79" s="152"/>
+      <c r="B79" s="157" t="s">
+        <v>648</v>
+      </c>
+      <c r="D79" s="150">
+        <v>1</v>
+      </c>
+      <c r="E79" s="150">
+        <v>1</v>
+      </c>
+      <c r="G79" s="153" t="str">
+        <f t="shared" si="31"/>
+        <v>宠物界面-技能性格调整-UI评审</v>
+      </c>
+      <c r="H79" s="152">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
       <c r="I79" s="154"/>
-      <c r="J79" s="153"/>
-      <c r="K79" s="152"/>
+      <c r="J79" s="153" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K79" s="152" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L79" s="154"/>
-      <c r="M79" s="153"/>
-      <c r="N79" s="152"/>
+      <c r="M79" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N79" s="152" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O79" s="154"/>
-      <c r="P79" s="153"/>
-      <c r="Q79" s="152"/>
+      <c r="P79" s="153" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q79" s="152" t="str">
+        <f t="shared" si="38"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R79" s="154"/>
-      <c r="S79" s="153"/>
-      <c r="T79" s="152"/>
+      <c r="S79" s="153" t="str">
+        <f t="shared" si="39"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T79" s="152" t="str">
+        <f t="shared" si="40"/>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B80" s="157" t="s">
+      <c r="G80" s="153"/>
+      <c r="H80" s="152"/>
+      <c r="I80" s="154"/>
+      <c r="J80" s="153"/>
+      <c r="K80" s="152"/>
+      <c r="L80" s="154"/>
+      <c r="M80" s="153"/>
+      <c r="N80" s="152"/>
+      <c r="O80" s="154"/>
+      <c r="P80" s="153"/>
+      <c r="Q80" s="152"/>
+      <c r="R80" s="154"/>
+      <c r="S80" s="153"/>
+      <c r="T80" s="152"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B81" s="157" t="s">
         <v>647</v>
       </c>
-      <c r="D80" s="150">
+      <c r="D81" s="150">
         <v>1</v>
       </c>
-      <c r="E80" s="150">
+      <c r="E81" s="150">
         <v>2</v>
       </c>
-      <c r="G80" s="153" t="str">
-        <f t="shared" ref="G80:G93" si="41">IF($E80=1,$B80," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H80" s="152" t="str">
-        <f t="shared" ref="H80:H93" si="42">IF($E80=1,$D80," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I80" s="154"/>
-      <c r="J80" s="153" t="str">
-        <f t="shared" ref="J80:J93" si="43">IF($E80=2,$B80," ")</f>
-        <v>宠物界面-技能性格调整-文档，封文档</v>
-      </c>
-      <c r="K80" s="152">
-        <f t="shared" ref="K80:K93" si="44">IF($E80=2,$D80," ")</f>
-        <v>1</v>
-      </c>
-      <c r="L80" s="154"/>
-      <c r="M80" s="153" t="str">
-        <f t="shared" ref="M80:M93" si="45">IF($E80=3,$B80," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N80" s="152" t="str">
-        <f t="shared" ref="N80:N93" si="46">IF($E80=3,$D80," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O80" s="154"/>
-      <c r="P80" s="153" t="str">
-        <f t="shared" ref="P80:P93" si="47">IF($E80=4,$B80," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q80" s="152" t="str">
-        <f t="shared" ref="Q80:Q93" si="48">IF($E80=4,$D80," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R80" s="154"/>
-      <c r="S80" s="153" t="str">
-        <f t="shared" ref="S80:S93" si="49">IF($E80=5,$B80," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T80" s="152" t="str">
-        <f t="shared" ref="T80:T93" si="50">IF($E80=5,$D80," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A81" s="146"/>
-      <c r="B81" s="170" t="s">
-        <v>646</v>
-      </c>
-      <c r="C81" s="169"/>
-      <c r="D81" s="168">
-        <v>1</v>
-      </c>
-      <c r="E81" s="150">
-        <v>3</v>
-      </c>
       <c r="G81" s="153" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="G81:G95" si="41">IF($E81=1,$B81," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H81" s="152" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="H81:H95" si="42">IF($E81=1,$D81," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I81" s="154"/>
       <c r="J81" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K81" s="152" t="str">
-        <f t="shared" si="44"/>
-        <v xml:space="preserve"> </v>
+        <f t="shared" ref="J81:J95" si="43">IF($E81=2,$B81," ")</f>
+        <v>宠物界面-技能性格调整-文档，封文档</v>
+      </c>
+      <c r="K81" s="152">
+        <f t="shared" ref="K81:K95" si="44">IF($E81=2,$D81," ")</f>
+        <v>1</v>
       </c>
       <c r="L81" s="154"/>
       <c r="M81" s="153" t="str">
-        <f t="shared" si="45"/>
-        <v>v0.6功能集体测试（道具合成分解，宠物图鉴）</v>
-      </c>
-      <c r="N81" s="152">
-        <f t="shared" si="46"/>
-        <v>1</v>
+        <f t="shared" ref="M81:M95" si="45">IF($E81=3,$B81," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N81" s="152" t="str">
+        <f t="shared" ref="N81:N95" si="46">IF($E81=3,$D81," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="O81" s="154"/>
       <c r="P81" s="153" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="P81:P95" si="47">IF($E81=4,$B81," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q81" s="152" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="Q81:Q95" si="48">IF($E81=4,$D81," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R81" s="154"/>
       <c r="S81" s="153" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="S81:S95" si="49">IF($E81=5,$B81," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T81" s="152" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="T81:T95" si="50">IF($E81=5,$D81," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B82" s="157" t="s">
-        <v>374</v>
-      </c>
-      <c r="C82" s="159"/>
-      <c r="D82" s="179">
-        <v>2</v>
+      <c r="A82" s="146"/>
+      <c r="B82" s="185" t="s">
+        <v>646</v>
+      </c>
+      <c r="C82" s="169"/>
+      <c r="D82" s="168">
+        <v>1</v>
       </c>
       <c r="E82" s="150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G82" s="153" t="str">
         <f t="shared" si="41"/>
@@ -19771,20 +19744,20 @@
       <c r="I82" s="154"/>
       <c r="J82" s="153" t="str">
         <f t="shared" si="43"/>
-        <v>副本结算调整+（星级评价？）</v>
-      </c>
-      <c r="K82" s="152">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K82" s="152" t="str">
         <f t="shared" si="44"/>
-        <v>2</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L82" s="154"/>
       <c r="M82" s="153" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N82" s="152" t="str">
+        <v>v0.6功能集体测试（道具合成分解，宠物图鉴）</v>
+      </c>
+      <c r="N82" s="152">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
       <c r="O82" s="154"/>
       <c r="P82" s="153" t="str">
@@ -19807,14 +19780,14 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B83" s="157" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C83" s="159"/>
       <c r="D83" s="179">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E83" s="150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G83" s="153" t="str">
         <f t="shared" si="41"/>
@@ -19827,20 +19800,20 @@
       <c r="I83" s="154"/>
       <c r="J83" s="153" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K83" s="152" t="str">
+        <v>副本结算调整+（星级评价？）</v>
+      </c>
+      <c r="K83" s="152">
         <f t="shared" si="44"/>
-        <v xml:space="preserve"> </v>
+        <v>2</v>
       </c>
       <c r="L83" s="154"/>
       <c r="M83" s="153" t="str">
         <f t="shared" si="45"/>
-        <v>IM调整 - 验收，Debug</v>
-      </c>
-      <c r="N83" s="152">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N83" s="152" t="str">
         <f t="shared" si="46"/>
-        <v>0.5</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="O83" s="154"/>
       <c r="P83" s="153" t="str">
@@ -19862,12 +19835,11 @@
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A84" s="146"/>
-      <c r="B84" s="185" t="s">
-        <v>379</v>
-      </c>
-      <c r="C84" s="169"/>
-      <c r="D84" s="168">
+      <c r="B84" s="157" t="s">
+        <v>380</v>
+      </c>
+      <c r="C84" s="159"/>
+      <c r="D84" s="179">
         <v>0.5</v>
       </c>
       <c r="E84" s="150">
@@ -19893,7 +19865,7 @@
       <c r="L84" s="154"/>
       <c r="M84" s="153" t="str">
         <f t="shared" si="45"/>
-        <v>邮箱调整 - 验收，Debug</v>
+        <v>IM调整 - 验收，Debug</v>
       </c>
       <c r="N84" s="152">
         <f t="shared" si="46"/>
@@ -19917,18 +19889,18 @@
         <f t="shared" si="50"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U84" s="146"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="146"/>
-      <c r="B85" s="157" t="s">
-        <v>645</v>
-      </c>
-      <c r="D85" s="150">
-        <v>1.5</v>
+      <c r="B85" s="185" t="s">
+        <v>379</v>
+      </c>
+      <c r="C85" s="169"/>
+      <c r="D85" s="168">
+        <v>0.5</v>
       </c>
       <c r="E85" s="150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G85" s="153" t="str">
         <f t="shared" si="41"/>
@@ -19941,20 +19913,20 @@
       <c r="I85" s="154"/>
       <c r="J85" s="153" t="str">
         <f t="shared" si="43"/>
-        <v>商店调整-三方前</v>
-      </c>
-      <c r="K85" s="152">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K85" s="152" t="str">
         <f t="shared" si="44"/>
-        <v>1.5</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L85" s="154"/>
       <c r="M85" s="153" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N85" s="152" t="str">
+        <v>邮箱调整 - 验收，Debug</v>
+      </c>
+      <c r="N85" s="152">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0.5</v>
       </c>
       <c r="O85" s="154"/>
       <c r="P85" s="153" t="str">
@@ -19978,9 +19950,15 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="146"/>
-      <c r="B86" s="169"/>
-      <c r="C86" s="169"/>
-      <c r="D86" s="168"/>
+      <c r="B86" s="157" t="s">
+        <v>645</v>
+      </c>
+      <c r="D86" s="150">
+        <v>1.5</v>
+      </c>
+      <c r="E86" s="150">
+        <v>2</v>
+      </c>
       <c r="G86" s="153" t="str">
         <f t="shared" si="41"/>
         <v xml:space="preserve"> </v>
@@ -19992,11 +19970,11 @@
       <c r="I86" s="154"/>
       <c r="J86" s="153" t="str">
         <f t="shared" si="43"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K86" s="152" t="str">
+        <v>商店调整-三方前</v>
+      </c>
+      <c r="K86" s="152">
         <f t="shared" si="44"/>
-        <v xml:space="preserve"> </v>
+        <v>1.5</v>
       </c>
       <c r="L86" s="154"/>
       <c r="M86" s="153" t="str">
@@ -20028,132 +20006,125 @@
       <c r="U86" s="146"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B87" s="157" t="s">
-        <v>644</v>
-      </c>
-      <c r="C87" s="159"/>
-      <c r="D87" s="179">
-        <v>1</v>
-      </c>
-      <c r="E87" s="150">
-        <v>3</v>
-      </c>
+      <c r="A87" s="146"/>
+      <c r="B87" s="169"/>
+      <c r="C87" s="169"/>
+      <c r="D87" s="168"/>
       <c r="G87" s="153" t="str">
-        <f>IF($E87=1,$B87," ")</f>
+        <f t="shared" si="41"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H87" s="152" t="str">
-        <f>IF($E87=1,$D87," ")</f>
+        <f t="shared" si="42"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I87" s="154"/>
       <c r="J87" s="153" t="str">
-        <f>IF($E87=2,$B87," ")</f>
+        <f t="shared" si="43"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K87" s="152" t="str">
-        <f>IF($E87=2,$D87," ")</f>
+        <f t="shared" si="44"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L87" s="154"/>
       <c r="M87" s="153" t="str">
-        <f>IF($E87=3,$B87," ")</f>
-        <v>副本结算调整+（星级评价？）-验收，Debug</v>
-      </c>
-      <c r="N87" s="152">
-        <f>IF($E87=3,$D87," ")</f>
-        <v>1</v>
+        <f t="shared" si="45"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N87" s="152" t="str">
+        <f t="shared" si="46"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="O87" s="154"/>
       <c r="P87" s="153" t="str">
-        <f>IF($E87=4,$B87," ")</f>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q87" s="152" t="str">
-        <f>IF($E87=4,$D87," ")</f>
+        <f t="shared" si="48"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R87" s="154"/>
       <c r="S87" s="153" t="str">
-        <f>IF($E87=5,$B87," ")</f>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T87" s="152" t="str">
-        <f>IF($E87=5,$D87," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="146"/>
-      <c r="B88" s="156" t="s">
-        <v>643</v>
-      </c>
-      <c r="D88" s="150">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U87" s="146"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B88" s="157" t="s">
+        <v>644</v>
+      </c>
+      <c r="C88" s="159"/>
+      <c r="D88" s="179">
         <v>1</v>
       </c>
       <c r="E88" s="150">
         <v>3</v>
       </c>
-      <c r="F88" s="149" t="s">
-        <v>357</v>
-      </c>
       <c r="G88" s="153" t="str">
-        <f t="shared" si="41"/>
+        <f>IF($E88=1,$B88," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H88" s="152" t="str">
-        <f t="shared" si="42"/>
+        <f>IF($E88=1,$D88," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I88" s="154"/>
       <c r="J88" s="153" t="str">
-        <f t="shared" si="43"/>
+        <f>IF($E88=2,$B88," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K88" s="152" t="str">
-        <f t="shared" si="44"/>
+        <f>IF($E88=2,$D88," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L88" s="154"/>
       <c r="M88" s="153" t="str">
-        <f t="shared" si="45"/>
-        <v>商店调整-封文档</v>
+        <f>IF($E88=3,$B88," ")</f>
+        <v>副本结算调整+（星级评价？）-验收，Debug</v>
       </c>
       <c r="N88" s="152">
-        <f t="shared" si="46"/>
+        <f>IF($E88=3,$D88," ")</f>
         <v>1</v>
       </c>
       <c r="O88" s="154"/>
       <c r="P88" s="153" t="str">
-        <f t="shared" si="47"/>
+        <f>IF($E88=4,$B88," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q88" s="152" t="str">
-        <f t="shared" si="48"/>
+        <f>IF($E88=4,$D88," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R88" s="154"/>
       <c r="S88" s="153" t="str">
-        <f t="shared" si="49"/>
+        <f>IF($E88=5,$B88," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T88" s="152" t="str">
-        <f t="shared" si="50"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U88" s="146"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+        <f>IF($E88=5,$D88," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="146"/>
-      <c r="B89" s="169" t="s">
-        <v>642</v>
-      </c>
-      <c r="C89" s="169"/>
-      <c r="D89" s="168">
+      <c r="B89" s="157" t="s">
+        <v>643</v>
+      </c>
+      <c r="D89" s="150">
         <v>1</v>
       </c>
       <c r="E89" s="150">
         <v>3</v>
+      </c>
+      <c r="F89" s="149" t="s">
+        <v>357</v>
       </c>
       <c r="G89" s="153" t="str">
         <f t="shared" si="41"/>
@@ -20175,7 +20146,7 @@
       <c r="L89" s="154"/>
       <c r="M89" s="153" t="str">
         <f t="shared" si="45"/>
-        <v>公会验收-基础，Debug</v>
+        <v>商店调整-封文档</v>
       </c>
       <c r="N89" s="152">
         <f t="shared" si="46"/>
@@ -20202,17 +20173,16 @@
       <c r="U89" s="146"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B90" s="146" t="s">
-        <v>688</v>
-      </c>
-      <c r="D90" s="150">
-        <v>2.5</v>
+      <c r="A90" s="146"/>
+      <c r="B90" s="185" t="s">
+        <v>642</v>
+      </c>
+      <c r="C90" s="169"/>
+      <c r="D90" s="168">
+        <v>1</v>
       </c>
       <c r="E90" s="150">
         <v>3</v>
-      </c>
-      <c r="F90" s="149" t="s">
-        <v>364</v>
       </c>
       <c r="G90" s="153" t="str">
         <f t="shared" si="41"/>
@@ -20234,11 +20204,11 @@
       <c r="L90" s="154"/>
       <c r="M90" s="153" t="str">
         <f t="shared" si="45"/>
-        <v>大冒险 - 文档，评审(1/2)</v>
+        <v>公会验收-基础，Debug</v>
       </c>
       <c r="N90" s="152">
         <f t="shared" si="46"/>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="O90" s="154"/>
       <c r="P90" s="153" t="str">
@@ -20261,6 +20231,14 @@
       <c r="U90" s="146"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" s="146"/>
+      <c r="B91" s="170" t="s">
+        <v>696</v>
+      </c>
+      <c r="C91" s="169"/>
+      <c r="D91" s="168">
+        <v>1</v>
+      </c>
       <c r="G91" s="153"/>
       <c r="H91" s="152"/>
       <c r="I91" s="154"/>
@@ -20278,16 +20256,17 @@
       <c r="U91" s="146"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A92" s="146"/>
-      <c r="B92" s="169" t="s">
-        <v>641</v>
-      </c>
-      <c r="C92" s="169"/>
-      <c r="D92" s="168">
-        <v>1</v>
+      <c r="B92" s="156" t="s">
+        <v>688</v>
+      </c>
+      <c r="D92" s="150">
+        <v>2.5</v>
       </c>
       <c r="E92" s="150">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F92" s="149" t="s">
+        <v>364</v>
       </c>
       <c r="G92" s="153" t="str">
         <f t="shared" si="41"/>
@@ -20309,20 +20288,20 @@
       <c r="L92" s="154"/>
       <c r="M92" s="153" t="str">
         <f t="shared" si="45"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N92" s="152" t="str">
+        <v>大冒险 - 文档，评审(1/2)</v>
+      </c>
+      <c r="N92" s="152">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>2.5</v>
       </c>
       <c r="O92" s="154"/>
       <c r="P92" s="153" t="str">
         <f t="shared" si="47"/>
-        <v>公会验收-其他，Debug</v>
-      </c>
-      <c r="Q92" s="152">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q92" s="152" t="str">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R92" s="154"/>
       <c r="S92" s="153" t="str">
@@ -20336,209 +20315,207 @@
       <c r="U92" s="146"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B93" s="146" t="s">
+      <c r="G93" s="153"/>
+      <c r="H93" s="152"/>
+      <c r="I93" s="154"/>
+      <c r="J93" s="153"/>
+      <c r="K93" s="152"/>
+      <c r="L93" s="154"/>
+      <c r="M93" s="153"/>
+      <c r="N93" s="152"/>
+      <c r="O93" s="154"/>
+      <c r="P93" s="153"/>
+      <c r="Q93" s="152"/>
+      <c r="R93" s="154"/>
+      <c r="S93" s="153"/>
+      <c r="T93" s="152"/>
+      <c r="U93" s="146"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94" s="146"/>
+      <c r="B94" s="170" t="s">
+        <v>641</v>
+      </c>
+      <c r="C94" s="169"/>
+      <c r="D94" s="168">
+        <v>1</v>
+      </c>
+      <c r="E94" s="150">
+        <v>4</v>
+      </c>
+      <c r="G94" s="153" t="str">
+        <f t="shared" si="41"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H94" s="152" t="str">
+        <f t="shared" si="42"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I94" s="154"/>
+      <c r="J94" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K94" s="152" t="str">
+        <f t="shared" si="44"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L94" s="154"/>
+      <c r="M94" s="153" t="str">
+        <f t="shared" si="45"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N94" s="152" t="str">
+        <f t="shared" si="46"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O94" s="154"/>
+      <c r="P94" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v>公会验收-其他，Debug</v>
+      </c>
+      <c r="Q94" s="152">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="R94" s="154"/>
+      <c r="S94" s="153" t="str">
+        <f t="shared" si="49"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T94" s="152" t="str">
+        <f t="shared" si="50"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U94" s="146"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B95" s="146" t="s">
         <v>687</v>
       </c>
-      <c r="D93" s="150">
+      <c r="D95" s="150">
         <v>2.5</v>
       </c>
-      <c r="E93" s="150">
+      <c r="E95" s="150">
         <v>4</v>
       </c>
-      <c r="F93" s="149" t="s">
+      <c r="F95" s="149" t="s">
         <v>364</v>
       </c>
-      <c r="G93" s="153" t="str">
+      <c r="G95" s="153" t="str">
         <f t="shared" si="41"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H93" s="152" t="str">
+      <c r="H95" s="152" t="str">
         <f t="shared" si="42"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I93" s="154"/>
-      <c r="J93" s="153" t="str">
+      <c r="I95" s="154"/>
+      <c r="J95" s="153" t="str">
         <f t="shared" si="43"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K93" s="152" t="str">
+      <c r="K95" s="152" t="str">
         <f t="shared" si="44"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L93" s="154"/>
-      <c r="M93" s="153" t="str">
+      <c r="L95" s="154"/>
+      <c r="M95" s="153" t="str">
         <f t="shared" si="45"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N93" s="152" t="str">
+      <c r="N95" s="152" t="str">
         <f t="shared" si="46"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O93" s="154"/>
-      <c r="P93" s="153" t="str">
+      <c r="O95" s="154"/>
+      <c r="P95" s="153" t="str">
         <f t="shared" si="47"/>
         <v>大冒险 - 文档，评审（2/2)</v>
       </c>
-      <c r="Q93" s="152">
+      <c r="Q95" s="152">
         <f t="shared" si="48"/>
         <v>2.5</v>
       </c>
-      <c r="R93" s="154"/>
-      <c r="S93" s="153" t="str">
-        <f t="shared" si="49"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T93" s="152" t="str">
-        <f t="shared" si="50"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U93" s="146"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A94" s="146"/>
-      <c r="B94" s="169" t="s">
-        <v>381</v>
-      </c>
-      <c r="C94" s="169"/>
-      <c r="D94" s="168">
-        <v>0.5</v>
-      </c>
-      <c r="E94" s="150">
-        <v>4</v>
-      </c>
-      <c r="G94" s="153" t="str">
-        <f>IF($E94=1,$B94," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H94" s="152" t="str">
-        <f>IF($E94=1,$D94," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I94" s="154"/>
-      <c r="J94" s="153" t="str">
-        <f>IF($E94=2,$B94," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K94" s="152" t="str">
-        <f>IF($E94=2,$D94," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L94" s="154"/>
-      <c r="M94" s="153" t="str">
-        <f>IF($E94=3,$B94," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N94" s="152" t="str">
-        <f>IF($E94=3,$D94," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O94" s="154"/>
-      <c r="P94" s="153" t="str">
-        <f>IF($E94=4,$B94," ")</f>
-        <v>商店调整 - 验收，Debug</v>
-      </c>
-      <c r="Q94" s="152">
-        <f>IF($E94=4,$D94," ")</f>
-        <v>0.5</v>
-      </c>
-      <c r="R94" s="154"/>
-      <c r="S94" s="153" t="str">
-        <f>IF($E94=5,$B94," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T94" s="152" t="str">
-        <f>IF($E94=5,$D94," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U94" s="146"/>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A95" s="146"/>
-      <c r="B95" s="146" t="s">
-        <v>382</v>
-      </c>
-      <c r="D95" s="150">
-        <v>1</v>
-      </c>
-      <c r="E95" s="150">
-        <v>4</v>
-      </c>
-      <c r="G95" s="153" t="str">
-        <f>IF($E95=1,$B95," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H95" s="152" t="str">
-        <f>IF($E95=1,$D95," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I95" s="154"/>
-      <c r="J95" s="153" t="str">
-        <f>IF($E95=2,$B95," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K95" s="152" t="str">
-        <f>IF($E95=2,$D95," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L95" s="154"/>
-      <c r="M95" s="153" t="str">
-        <f>IF($E95=3,$B95," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N95" s="152" t="str">
-        <f>IF($E95=3,$D95," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O95" s="154"/>
-      <c r="P95" s="153" t="str">
-        <f>IF($E95=4,$B95," ")</f>
-        <v>宠物界面 - 调整验收</v>
-      </c>
-      <c r="Q95" s="152">
-        <f>IF($E95=4,$D95," ")</f>
-        <v>1</v>
-      </c>
       <c r="R95" s="154"/>
       <c r="S95" s="153" t="str">
-        <f>IF($E95=5,$B95," ")</f>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T95" s="152" t="str">
-        <f>IF($E95=5,$D95," ")</f>
+        <f t="shared" si="50"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U95" s="146"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="146"/>
-      <c r="G96" s="153"/>
-      <c r="H96" s="152"/>
+      <c r="B96" s="170" t="s">
+        <v>381</v>
+      </c>
+      <c r="C96" s="169"/>
+      <c r="D96" s="168">
+        <v>0.5</v>
+      </c>
+      <c r="E96" s="150">
+        <v>4</v>
+      </c>
+      <c r="G96" s="153" t="str">
+        <f>IF($E96=1,$B96," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H96" s="152" t="str">
+        <f>IF($E96=1,$D96," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I96" s="154"/>
-      <c r="J96" s="153"/>
-      <c r="K96" s="152"/>
+      <c r="J96" s="153" t="str">
+        <f>IF($E96=2,$B96," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K96" s="152" t="str">
+        <f>IF($E96=2,$D96," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L96" s="154"/>
-      <c r="M96" s="153"/>
-      <c r="N96" s="152"/>
+      <c r="M96" s="153" t="str">
+        <f>IF($E96=3,$B96," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N96" s="152" t="str">
+        <f>IF($E96=3,$D96," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O96" s="154"/>
-      <c r="P96" s="153"/>
-      <c r="Q96" s="152"/>
+      <c r="P96" s="153" t="str">
+        <f>IF($E96=4,$B96," ")</f>
+        <v>商店调整 - 验收，Debug</v>
+      </c>
+      <c r="Q96" s="152">
+        <f>IF($E96=4,$D96," ")</f>
+        <v>0.5</v>
+      </c>
       <c r="R96" s="154"/>
-      <c r="S96" s="153"/>
-      <c r="T96" s="152"/>
+      <c r="S96" s="153" t="str">
+        <f>IF($E96=5,$B96," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T96" s="152" t="str">
+        <f>IF($E96=5,$D96," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="U96" s="146"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B97" s="146" t="s">
-        <v>689</v>
+      <c r="A97" s="146"/>
+      <c r="B97" s="156" t="s">
+        <v>382</v>
       </c>
       <c r="D97" s="150">
         <v>1</v>
       </c>
       <c r="E97" s="150">
-        <v>5</v>
-      </c>
-      <c r="F97" s="149" t="s">
-        <v>346</v>
+        <v>4</v>
       </c>
       <c r="G97" s="153" t="str">
         <f>IF($E97=1,$B97," ")</f>
@@ -20569,89 +20546,53 @@
       <c r="O97" s="154"/>
       <c r="P97" s="153" t="str">
         <f>IF($E97=4,$B97," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q97" s="152" t="str">
+        <v>宠物界面 - 调整验收</v>
+      </c>
+      <c r="Q97" s="152">
         <f>IF($E97=4,$D97," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
       <c r="R97" s="154"/>
       <c r="S97" s="153" t="str">
         <f>IF($E97=5,$B97," ")</f>
-        <v>大冒险 - 内容设计</v>
-      </c>
-      <c r="T97" s="152">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T97" s="152" t="str">
         <f>IF($E97=5,$D97," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U97" s="146"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A98" s="146"/>
+      <c r="G98" s="153"/>
+      <c r="H98" s="152"/>
+      <c r="I98" s="154"/>
+      <c r="J98" s="153"/>
+      <c r="K98" s="152"/>
+      <c r="L98" s="154"/>
+      <c r="M98" s="153"/>
+      <c r="N98" s="152"/>
+      <c r="O98" s="154"/>
+      <c r="P98" s="153"/>
+      <c r="Q98" s="152"/>
+      <c r="R98" s="154"/>
+      <c r="S98" s="153"/>
+      <c r="T98" s="152"/>
+      <c r="U98" s="146"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B99" s="146" t="s">
+        <v>689</v>
+      </c>
+      <c r="D99" s="150">
         <v>1</v>
-      </c>
-      <c r="U97" s="146"/>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B98" s="146" t="s">
-        <v>384</v>
-      </c>
-      <c r="D98" s="150">
-        <v>1</v>
-      </c>
-      <c r="E98" s="150">
-        <v>5</v>
-      </c>
-      <c r="G98" s="153" t="str">
-        <f>IF($E98=1,$B98," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H98" s="152" t="str">
-        <f>IF($E98=1,$D98," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I98" s="154"/>
-      <c r="J98" s="153" t="str">
-        <f>IF($E98=2,$B98," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K98" s="152" t="str">
-        <f>IF($E98=2,$D98," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L98" s="154"/>
-      <c r="M98" s="153" t="str">
-        <f>IF($E98=3,$B98," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N98" s="152" t="str">
-        <f>IF($E98=3,$D98," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O98" s="154"/>
-      <c r="P98" s="153" t="str">
-        <f>IF($E98=4,$B98," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q98" s="152" t="str">
-        <f>IF($E98=4,$D98," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R98" s="154"/>
-      <c r="S98" s="153" t="str">
-        <f>IF($E98=5,$B98," ")</f>
-        <v>装备背包 - 验收， Debug</v>
-      </c>
-      <c r="T98" s="152">
-        <f>IF($E98=5,$D98," ")</f>
-        <v>1</v>
-      </c>
-      <c r="U98" s="146"/>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B99" s="159" t="s">
-        <v>396</v>
-      </c>
-      <c r="C99" s="159"/>
-      <c r="D99" s="179">
-        <v>4.5</v>
       </c>
       <c r="E99" s="150">
         <v>5</v>
+      </c>
+      <c r="F99" s="149" t="s">
+        <v>346</v>
       </c>
       <c r="G99" s="153" t="str">
         <f>IF($E99=1,$B99," ")</f>
@@ -20691,27 +20632,23 @@
       <c r="R99" s="154"/>
       <c r="S99" s="153" t="str">
         <f>IF($E99=5,$B99," ")</f>
-        <v>新手文档 (1/2)</v>
+        <v>大冒险 - 内容设计</v>
       </c>
       <c r="T99" s="152">
         <f>IF($E99=5,$D99," ")</f>
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="U99" s="146"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B100" s="149" t="s">
-        <v>383</v>
-      </c>
-      <c r="C100" s="149"/>
+      <c r="B100" s="146" t="s">
+        <v>384</v>
+      </c>
       <c r="D100" s="150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E100" s="150">
         <v>5</v>
-      </c>
-      <c r="F100" s="149" t="s">
-        <v>358</v>
       </c>
       <c r="G100" s="153" t="str">
         <f>IF($E100=1,$B100," ")</f>
@@ -20751,74 +20688,134 @@
       <c r="R100" s="154"/>
       <c r="S100" s="153" t="str">
         <f>IF($E100=5,$B100," ")</f>
-        <v>装备背包 - 评审，文档提交</v>
+        <v>装备背包 - 验收， Debug</v>
       </c>
       <c r="T100" s="152">
         <f>IF($E100=5,$D100," ")</f>
+        <v>1</v>
+      </c>
+      <c r="U100" s="146"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B101" s="159" t="s">
+        <v>396</v>
+      </c>
+      <c r="C101" s="159"/>
+      <c r="D101" s="179">
+        <v>4.5</v>
+      </c>
+      <c r="E101" s="150">
+        <v>5</v>
+      </c>
+      <c r="G101" s="153" t="str">
+        <f>IF($E101=1,$B101," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H101" s="152" t="str">
+        <f>IF($E101=1,$D101," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I101" s="154"/>
+      <c r="J101" s="153" t="str">
+        <f>IF($E101=2,$B101," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K101" s="152" t="str">
+        <f>IF($E101=2,$D101," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L101" s="154"/>
+      <c r="M101" s="153" t="str">
+        <f>IF($E101=3,$B101," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N101" s="152" t="str">
+        <f>IF($E101=3,$D101," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O101" s="154"/>
+      <c r="P101" s="153" t="str">
+        <f>IF($E101=4,$B101," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q101" s="152" t="str">
+        <f>IF($E101=4,$D101," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R101" s="154"/>
+      <c r="S101" s="153" t="str">
+        <f>IF($E101=5,$B101," ")</f>
+        <v>新手文档 (1/2)</v>
+      </c>
+      <c r="T101" s="152">
+        <f>IF($E101=5,$D101," ")</f>
+        <v>4.5</v>
+      </c>
+      <c r="U101" s="146"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B102" s="149" t="s">
+        <v>383</v>
+      </c>
+      <c r="C102" s="149"/>
+      <c r="D102" s="150">
         <v>3</v>
       </c>
-      <c r="U100" s="146"/>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B101" s="149"/>
-      <c r="C101" s="149"/>
-      <c r="G101" s="153"/>
-      <c r="H101" s="152"/>
-      <c r="I101" s="154"/>
-      <c r="J101" s="153"/>
-      <c r="K101" s="152"/>
-      <c r="L101" s="154"/>
-      <c r="M101" s="153"/>
-      <c r="N101" s="152"/>
-      <c r="O101" s="154"/>
-      <c r="P101" s="153"/>
-      <c r="Q101" s="152"/>
-      <c r="R101" s="154"/>
-      <c r="S101" s="153"/>
-      <c r="T101" s="152"/>
-      <c r="U101" s="146"/>
-    </row>
-    <row r="102" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="24" t="s">
-        <v>631</v>
-      </c>
-      <c r="C102" s="24"/>
-      <c r="D102" s="72">
-        <f>SUM(D73:D100)</f>
-        <v>32</v>
-      </c>
-      <c r="E102" s="72"/>
-      <c r="F102" s="75"/>
-      <c r="H102" s="72">
-        <f>SUM(H73:H100)</f>
-        <v>5.5</v>
-      </c>
-      <c r="I102" s="20"/>
-      <c r="K102" s="72">
-        <f>SUM(K81:K100)</f>
-        <v>3.5</v>
-      </c>
-      <c r="L102" s="20"/>
-      <c r="N102" s="72">
-        <f>SUM(N81:N100)</f>
-        <v>7.5</v>
-      </c>
-      <c r="O102" s="20"/>
-      <c r="Q102" s="72">
-        <f>SUM(Q81:Q100)</f>
+      <c r="E102" s="150">
         <v>5</v>
       </c>
-      <c r="R102" s="20"/>
-      <c r="T102" s="72">
-        <f>SUM(T81:T100)</f>
-        <v>9.5</v>
-      </c>
-      <c r="U102" s="20"/>
+      <c r="F102" s="149" t="s">
+        <v>358</v>
+      </c>
+      <c r="G102" s="153" t="str">
+        <f>IF($E102=1,$B102," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H102" s="152" t="str">
+        <f>IF($E102=1,$D102," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I102" s="154"/>
+      <c r="J102" s="153" t="str">
+        <f>IF($E102=2,$B102," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K102" s="152" t="str">
+        <f>IF($E102=2,$D102," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L102" s="154"/>
+      <c r="M102" s="153" t="str">
+        <f>IF($E102=3,$B102," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N102" s="152" t="str">
+        <f>IF($E102=3,$D102," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O102" s="154"/>
+      <c r="P102" s="153" t="str">
+        <f>IF($E102=4,$B102," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q102" s="152" t="str">
+        <f>IF($E102=4,$D102," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R102" s="154"/>
+      <c r="S102" s="153" t="str">
+        <f>IF($E102=5,$B102," ")</f>
+        <v>装备背包 - 评审，文档提交</v>
+      </c>
+      <c r="T102" s="152">
+        <f>IF($E102=5,$D102," ")</f>
+        <v>3</v>
+      </c>
+      <c r="U102" s="146"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B103" s="159"/>
-      <c r="C103" s="159"/>
-      <c r="D103" s="179"/>
+      <c r="B103" s="149"/>
+      <c r="C103" s="149"/>
       <c r="G103" s="153"/>
       <c r="H103" s="152"/>
       <c r="I103" s="154"/>
@@ -20833,32 +20830,47 @@
       <c r="R103" s="154"/>
       <c r="S103" s="153"/>
       <c r="T103" s="152"/>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B104" s="159" t="s">
-        <v>389</v>
-      </c>
-      <c r="C104" s="159"/>
-      <c r="D104" s="179"/>
-      <c r="G104" s="153"/>
-      <c r="H104" s="152"/>
-      <c r="I104" s="154"/>
-      <c r="J104" s="153"/>
-      <c r="K104" s="152"/>
-      <c r="L104" s="154"/>
-      <c r="M104" s="153"/>
-      <c r="N104" s="152"/>
-      <c r="O104" s="154"/>
-      <c r="P104" s="153"/>
-      <c r="Q104" s="152"/>
-      <c r="R104" s="154"/>
-      <c r="S104" s="153"/>
-      <c r="T104" s="152"/>
+      <c r="U103" s="146"/>
+    </row>
+    <row r="104" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="C104" s="24"/>
+      <c r="D104" s="72">
+        <f>SUM(D74:D102)</f>
+        <v>33</v>
+      </c>
+      <c r="E104" s="72"/>
+      <c r="F104" s="75"/>
+      <c r="H104" s="72">
+        <f>SUM(H74:H102)</f>
+        <v>5.5</v>
+      </c>
+      <c r="I104" s="20"/>
+      <c r="K104" s="72">
+        <f>SUM(K82:K102)</f>
+        <v>3.5</v>
+      </c>
+      <c r="L104" s="20"/>
+      <c r="N104" s="72">
+        <f>SUM(N82:N102)</f>
+        <v>7.5</v>
+      </c>
+      <c r="O104" s="20"/>
+      <c r="Q104" s="72">
+        <f>SUM(Q82:Q102)</f>
+        <v>5</v>
+      </c>
+      <c r="R104" s="20"/>
+      <c r="T104" s="72">
+        <f>SUM(T82:T102)</f>
+        <v>9.5</v>
+      </c>
+      <c r="U104" s="20"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B105" s="159" t="s">
-        <v>403</v>
-      </c>
+      <c r="B105" s="159"/>
       <c r="C105" s="159"/>
       <c r="D105" s="179"/>
       <c r="G105" s="153"/>
@@ -20878,7 +20890,7 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B106" s="159" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C106" s="159"/>
       <c r="D106" s="179"/>
@@ -20899,7 +20911,7 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B107" s="159" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C107" s="159"/>
       <c r="D107" s="179"/>
@@ -20919,147 +20931,85 @@
       <c r="T107" s="152"/>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B108" s="159"/>
+      <c r="B108" s="159" t="s">
+        <v>397</v>
+      </c>
       <c r="C108" s="159"/>
       <c r="D108" s="179"/>
-      <c r="G108" s="153" t="str">
-        <f>IF(E108=1,B108," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H108" s="152" t="str">
-        <f>IF(E108=1,D108," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T108" s="148"/>
-    </row>
-    <row r="109" spans="1:21" s="161" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="29"/>
-      <c r="D109" s="165"/>
-      <c r="E109" s="165"/>
-      <c r="F109" s="164"/>
-      <c r="H109" s="163"/>
-      <c r="I109" s="162"/>
-      <c r="J109" s="178"/>
-      <c r="L109" s="162"/>
-      <c r="O109" s="162"/>
-      <c r="R109" s="162"/>
-      <c r="U109" s="162"/>
+      <c r="G108" s="153"/>
+      <c r="H108" s="152"/>
+      <c r="I108" s="154"/>
+      <c r="J108" s="153"/>
+      <c r="K108" s="152"/>
+      <c r="L108" s="154"/>
+      <c r="M108" s="153"/>
+      <c r="N108" s="152"/>
+      <c r="O108" s="154"/>
+      <c r="P108" s="153"/>
+      <c r="Q108" s="152"/>
+      <c r="R108" s="154"/>
+      <c r="S108" s="153"/>
+      <c r="T108" s="152"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B109" s="159" t="s">
+        <v>402</v>
+      </c>
+      <c r="C109" s="159"/>
+      <c r="D109" s="179"/>
+      <c r="G109" s="153"/>
+      <c r="H109" s="152"/>
+      <c r="I109" s="154"/>
+      <c r="J109" s="153"/>
+      <c r="K109" s="152"/>
+      <c r="L109" s="154"/>
+      <c r="M109" s="153"/>
+      <c r="N109" s="152"/>
+      <c r="O109" s="154"/>
+      <c r="P109" s="153"/>
+      <c r="Q109" s="152"/>
+      <c r="R109" s="154"/>
+      <c r="S109" s="153"/>
+      <c r="T109" s="152"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A110" s="19" t="s">
+      <c r="B110" s="159" t="s">
+        <v>698</v>
+      </c>
+      <c r="C110" s="159"/>
+      <c r="D110" s="179"/>
+      <c r="G110" s="153" t="str">
+        <f>IF(E110=1,B110," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H110" s="152" t="str">
+        <f>IF(E110=1,D110," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T110" s="148"/>
+    </row>
+    <row r="111" spans="1:21" s="161" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="29"/>
+      <c r="D111" s="165"/>
+      <c r="E111" s="165"/>
+      <c r="F111" s="164"/>
+      <c r="H111" s="163"/>
+      <c r="I111" s="162"/>
+      <c r="J111" s="178"/>
+      <c r="L111" s="162"/>
+      <c r="O111" s="162"/>
+      <c r="R111" s="162"/>
+      <c r="U111" s="162"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A112" s="19" t="s">
         <v>640</v>
       </c>
-      <c r="B110" s="169"/>
-      <c r="C110" s="169"/>
-      <c r="D110" s="168"/>
-      <c r="F110" s="153" t="str">
-        <f t="shared" ref="F110:G112" si="51">IF($E110=1,$B110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G110" s="153" t="str">
-        <f t="shared" si="51"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H110" s="152" t="str">
-        <f t="shared" ref="H110:H117" si="52">IF($E110=1,$D110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I110" s="154"/>
-      <c r="J110" s="153" t="str">
-        <f t="shared" ref="J110:J117" si="53">IF($E110=2,$B110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K110" s="152" t="str">
-        <f t="shared" ref="K110:K117" si="54">IF($E110=2,$D110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L110" s="154"/>
-      <c r="M110" s="153" t="str">
-        <f t="shared" ref="M110:M117" si="55">IF($E110=3,$B110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N110" s="152" t="str">
-        <f t="shared" ref="N110:N117" si="56">IF($E110=3,$D110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O110" s="154"/>
-      <c r="P110" s="153" t="str">
-        <f t="shared" ref="P110:P117" si="57">IF($E110=4,$B110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q110" s="152" t="str">
-        <f t="shared" ref="Q110:Q117" si="58">IF($E110=4,$D110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R110" s="154"/>
-      <c r="S110" s="153" t="str">
-        <f t="shared" ref="S110:S117" si="59">IF($E110=5,$B110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T110" s="152" t="str">
-        <f t="shared" ref="T110:T117" si="60">IF($E110=5,$D110," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B111" s="169"/>
-      <c r="C111" s="169"/>
-      <c r="D111" s="168"/>
-      <c r="F111" s="153" t="str">
-        <f t="shared" si="51"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G111" s="153" t="str">
-        <f t="shared" si="51"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H111" s="152" t="str">
-        <f t="shared" si="52"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I111" s="154"/>
-      <c r="J111" s="153" t="str">
-        <f t="shared" si="53"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K111" s="152" t="str">
-        <f t="shared" si="54"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L111" s="154"/>
-      <c r="M111" s="153" t="str">
-        <f t="shared" si="55"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N111" s="152" t="str">
-        <f t="shared" si="56"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O111" s="154"/>
-      <c r="P111" s="153" t="str">
-        <f t="shared" si="57"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q111" s="152" t="str">
-        <f t="shared" si="58"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R111" s="154"/>
-      <c r="S111" s="153" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T111" s="152" t="str">
-        <f t="shared" si="60"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B112" s="169"/>
       <c r="C112" s="169"/>
       <c r="D112" s="168"/>
       <c r="F112" s="153" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="F112:G114" si="51">IF($E112=1,$B112," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G112" s="153" t="str">
@@ -21067,66 +21017,61 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="H112" s="152" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="H112:H119" si="52">IF($E112=1,$D112," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I112" s="154"/>
       <c r="J112" s="153" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="J112:J119" si="53">IF($E112=2,$B112," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K112" s="152" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="K112:K119" si="54">IF($E112=2,$D112," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L112" s="154"/>
       <c r="M112" s="153" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="M112:M119" si="55">IF($E112=3,$B112," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N112" s="152" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="N112:N119" si="56">IF($E112=3,$D112," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O112" s="154"/>
       <c r="P112" s="153" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="P112:P119" si="57">IF($E112=4,$B112," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q112" s="152" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="Q112:Q119" si="58">IF($E112=4,$D112," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R112" s="154"/>
       <c r="S112" s="153" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="S112:S119" si="59">IF($E112=5,$B112," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T112" s="152" t="str">
-        <f t="shared" si="60"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U112" s="154"/>
+        <f t="shared" ref="T112:T119" si="60">IF($E112=5,$D112," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B113" s="177" t="s">
-        <v>639</v>
-      </c>
-      <c r="C113" s="167"/>
-      <c r="D113" s="167">
-        <v>1.5</v>
-      </c>
-      <c r="E113" s="150">
-        <v>1</v>
-      </c>
-      <c r="F113" s="153"/>
+      <c r="B113" s="169"/>
+      <c r="C113" s="169"/>
+      <c r="D113" s="168"/>
+      <c r="F113" s="153" t="str">
+        <f t="shared" si="51"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="G113" s="153" t="str">
-        <f>IF($E113=1,$B113," ")</f>
-        <v>通天塔-经验、金钱、boss，小怪 （逻辑）验收，debug</v>
-      </c>
-      <c r="H113" s="152">
+        <f t="shared" si="51"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H113" s="152" t="str">
         <f t="shared" si="52"/>
-        <v>1.5</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I113" s="154"/>
       <c r="J113" s="153" t="str">
@@ -21164,72 +21109,68 @@
         <f t="shared" si="60"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U113" s="146"/>
-    </row>
-    <row r="114" spans="1:21" s="153" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="71"/>
-      <c r="B114" s="176" t="s">
-        <v>638</v>
-      </c>
-      <c r="C114" s="175"/>
-      <c r="D114" s="155">
-        <v>2</v>
-      </c>
-      <c r="E114" s="174">
-        <v>1</v>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B114" s="169"/>
+      <c r="C114" s="169"/>
+      <c r="D114" s="168"/>
+      <c r="F114" s="153" t="str">
+        <f t="shared" si="51"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G114" s="153" t="str">
-        <f>IF($E114=1,$B114," ")</f>
-        <v>第一二章小怪Boss和第二章大Boss设计</v>
-      </c>
-      <c r="H114" s="173">
+        <f t="shared" si="51"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H114" s="152" t="str">
         <f t="shared" si="52"/>
-        <v>2</v>
-      </c>
-      <c r="I114" s="172"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I114" s="154"/>
       <c r="J114" s="153" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K114" s="171" t="str">
+      <c r="K114" s="152" t="str">
         <f t="shared" si="54"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L114" s="172"/>
+      <c r="L114" s="154"/>
       <c r="M114" s="153" t="str">
         <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N114" s="171" t="str">
+      <c r="N114" s="152" t="str">
         <f t="shared" si="56"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O114" s="172"/>
+      <c r="O114" s="154"/>
       <c r="P114" s="153" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q114" s="171" t="str">
+      <c r="Q114" s="152" t="str">
         <f t="shared" si="58"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R114" s="172"/>
+      <c r="R114" s="154"/>
       <c r="S114" s="153" t="str">
         <f t="shared" si="59"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T114" s="171" t="str">
+      <c r="T114" s="152" t="str">
         <f t="shared" si="60"/>
         <v xml:space="preserve"> </v>
       </c>
+      <c r="U114" s="154"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B115" s="177" t="s">
-        <v>385</v>
+        <v>639</v>
       </c>
       <c r="C115" s="167"/>
       <c r="D115" s="167">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E115" s="150">
         <v>1</v>
@@ -21237,11 +21178,11 @@
       <c r="F115" s="153"/>
       <c r="G115" s="153" t="str">
         <f>IF($E115=1,$B115," ")</f>
-        <v>对局修改 - 数值配合</v>
+        <v>通天塔-经验、金钱、boss，小怪 （逻辑）验收，debug</v>
       </c>
       <c r="H115" s="152">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="I115" s="154"/>
       <c r="J115" s="153" t="str">
@@ -21279,69 +21220,72 @@
         <f t="shared" si="60"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B116" s="157" t="s">
-        <v>386</v>
-      </c>
-      <c r="D116" s="150">
-        <v>0.5</v>
-      </c>
-      <c r="E116" s="150">
+      <c r="U115" s="146"/>
+    </row>
+    <row r="116" spans="1:21" s="153" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="71"/>
+      <c r="B116" s="176" t="s">
+        <v>638</v>
+      </c>
+      <c r="C116" s="175"/>
+      <c r="D116" s="155">
+        <v>2</v>
+      </c>
+      <c r="E116" s="174">
         <v>1</v>
       </c>
-      <c r="F116" s="153"/>
       <c r="G116" s="153" t="str">
         <f>IF($E116=1,$B116," ")</f>
-        <v>物攻走五行修改  - 封文档</v>
-      </c>
-      <c r="H116" s="152">
+        <v>第一二章小怪Boss和第二章大Boss设计</v>
+      </c>
+      <c r="H116" s="173">
         <f t="shared" si="52"/>
-        <v>0.5</v>
-      </c>
-      <c r="I116" s="154"/>
+        <v>2</v>
+      </c>
+      <c r="I116" s="172"/>
       <c r="J116" s="153" t="str">
         <f t="shared" si="53"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K116" s="152" t="str">
+      <c r="K116" s="171" t="str">
         <f t="shared" si="54"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L116" s="154"/>
+      <c r="L116" s="172"/>
       <c r="M116" s="153" t="str">
         <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N116" s="152" t="str">
+      <c r="N116" s="171" t="str">
         <f t="shared" si="56"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O116" s="154"/>
+      <c r="O116" s="172"/>
       <c r="P116" s="153" t="str">
         <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q116" s="152" t="str">
+      <c r="Q116" s="171" t="str">
         <f t="shared" si="58"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R116" s="154"/>
+      <c r="R116" s="172"/>
       <c r="S116" s="153" t="str">
         <f t="shared" si="59"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T116" s="152" t="str">
+      <c r="T116" s="171" t="str">
         <f t="shared" si="60"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B117" s="157" t="s">
-        <v>387</v>
-      </c>
-      <c r="D117" s="150">
-        <v>0.5</v>
+      <c r="B117" s="177" t="s">
+        <v>385</v>
+      </c>
+      <c r="C117" s="167"/>
+      <c r="D117" s="167">
+        <v>1</v>
       </c>
       <c r="E117" s="150">
         <v>1</v>
@@ -21349,11 +21293,11 @@
       <c r="F117" s="153"/>
       <c r="G117" s="153" t="str">
         <f>IF($E117=1,$B117," ")</f>
-        <v>打断走技能修改 - 封文档</v>
+        <v>对局修改 - 数值配合</v>
       </c>
       <c r="H117" s="152">
         <f t="shared" si="52"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I117" s="154"/>
       <c r="J117" s="153" t="str">
@@ -21393,140 +21337,138 @@
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B118" s="157" t="s">
+        <v>386</v>
+      </c>
+      <c r="D118" s="150">
+        <v>0.5</v>
+      </c>
+      <c r="E118" s="150">
+        <v>1</v>
+      </c>
       <c r="F118" s="153"/>
-      <c r="G118" s="153"/>
-      <c r="H118" s="152"/>
+      <c r="G118" s="153" t="str">
+        <f>IF($E118=1,$B118," ")</f>
+        <v>物攻走五行修改  - 封文档</v>
+      </c>
+      <c r="H118" s="152">
+        <f t="shared" si="52"/>
+        <v>0.5</v>
+      </c>
       <c r="I118" s="154"/>
-      <c r="J118" s="153"/>
-      <c r="K118" s="152"/>
+      <c r="J118" s="153" t="str">
+        <f t="shared" si="53"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K118" s="152" t="str">
+        <f t="shared" si="54"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L118" s="154"/>
-      <c r="M118" s="153"/>
-      <c r="N118" s="152"/>
+      <c r="M118" s="153" t="str">
+        <f t="shared" si="55"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N118" s="152" t="str">
+        <f t="shared" si="56"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O118" s="154"/>
-      <c r="P118" s="153"/>
-      <c r="Q118" s="152"/>
+      <c r="P118" s="153" t="str">
+        <f t="shared" si="57"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q118" s="152" t="str">
+        <f t="shared" si="58"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R118" s="154"/>
-      <c r="S118" s="153"/>
-      <c r="T118" s="152"/>
-      <c r="U118" s="146"/>
+      <c r="S118" s="153" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T118" s="152" t="str">
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B119" s="157" t="s">
-        <v>637</v>
+        <v>387</v>
       </c>
       <c r="D119" s="150">
+        <v>0.5</v>
+      </c>
+      <c r="E119" s="150">
         <v>1</v>
-      </c>
-      <c r="E119" s="150">
-        <v>2</v>
       </c>
       <c r="F119" s="153"/>
       <c r="G119" s="153" t="str">
-        <f t="shared" ref="G119:G127" si="61">IF($E119=1,$B119," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H119" s="152" t="str">
-        <f t="shared" ref="H119:H127" si="62">IF($E119=1,$D119," ")</f>
-        <v xml:space="preserve"> </v>
+        <f>IF($E119=1,$B119," ")</f>
+        <v>打断走技能修改 - 封文档</v>
+      </c>
+      <c r="H119" s="152">
+        <f t="shared" si="52"/>
+        <v>0.5</v>
       </c>
       <c r="I119" s="154"/>
       <c r="J119" s="153" t="str">
-        <f t="shared" ref="J119:J127" si="63">IF($E119=2,$B119," ")</f>
-        <v>道具tips掉落途径验收，debug</v>
-      </c>
-      <c r="K119" s="152">
-        <f t="shared" ref="K119:K127" si="64">IF($E119=2,$D119," ")</f>
-        <v>1</v>
+        <f t="shared" si="53"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K119" s="152" t="str">
+        <f t="shared" si="54"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L119" s="154"/>
       <c r="M119" s="153" t="str">
-        <f t="shared" ref="M119:M127" si="65">IF($E119=3,$B119," ")</f>
+        <f t="shared" si="55"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N119" s="152" t="str">
-        <f t="shared" ref="N119:N127" si="66">IF($E119=3,$D119," ")</f>
+        <f t="shared" si="56"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O119" s="154"/>
       <c r="P119" s="153" t="str">
-        <f t="shared" ref="P119:P127" si="67">IF($E119=4,$B119," ")</f>
+        <f t="shared" si="57"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q119" s="152" t="str">
-        <f t="shared" ref="Q119:Q127" si="68">IF($E119=4,$D119," ")</f>
+        <f t="shared" si="58"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R119" s="154"/>
       <c r="S119" s="153" t="str">
-        <f t="shared" ref="S119:S127" si="69">IF($E119=5,$B119," ")</f>
+        <f t="shared" si="59"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T119" s="152" t="str">
-        <f t="shared" ref="T119:T127" si="70">IF($E119=5,$D119," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U119" s="146"/>
+        <f t="shared" si="60"/>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B120" s="185" t="s">
-        <v>636</v>
-      </c>
-      <c r="C120" s="169"/>
-      <c r="D120" s="168">
-        <v>1</v>
-      </c>
-      <c r="E120" s="150">
-        <v>2</v>
-      </c>
       <c r="F120" s="153"/>
-      <c r="G120" s="153" t="str">
-        <f t="shared" si="61"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H120" s="152" t="str">
-        <f t="shared" si="62"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G120" s="153"/>
+      <c r="H120" s="152"/>
       <c r="I120" s="154"/>
-      <c r="J120" s="153" t="str">
-        <f t="shared" si="63"/>
-        <v>v0.6功能集体测试（背包）</v>
-      </c>
-      <c r="K120" s="152">
-        <f t="shared" si="64"/>
-        <v>1</v>
-      </c>
+      <c r="J120" s="153"/>
+      <c r="K120" s="152"/>
       <c r="L120" s="154"/>
-      <c r="M120" s="153" t="str">
-        <f t="shared" si="65"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N120" s="152" t="str">
-        <f t="shared" si="66"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M120" s="153"/>
+      <c r="N120" s="152"/>
       <c r="O120" s="154"/>
-      <c r="P120" s="153" t="str">
-        <f t="shared" si="67"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q120" s="152" t="str">
-        <f t="shared" si="68"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P120" s="153"/>
+      <c r="Q120" s="152"/>
       <c r="R120" s="154"/>
-      <c r="S120" s="153" t="str">
-        <f t="shared" si="69"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T120" s="152" t="str">
-        <f t="shared" si="70"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S120" s="153"/>
+      <c r="T120" s="152"/>
+      <c r="U120" s="146"/>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B121" s="157" t="s">
-        <v>388</v>
+        <v>637</v>
       </c>
       <c r="D121" s="150">
         <v>1</v>
@@ -21536,57 +21478,58 @@
       </c>
       <c r="F121" s="153"/>
       <c r="G121" s="153" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="G121:G129" si="61">IF($E121=1,$B121," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H121" s="152" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="H121:H129" si="62">IF($E121=1,$D121," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I121" s="154"/>
       <c r="J121" s="153" t="str">
-        <f t="shared" si="63"/>
-        <v>物攻五行，打断验收，Debug</v>
+        <f t="shared" ref="J121:J129" si="63">IF($E121=2,$B121," ")</f>
+        <v>道具tips掉落途径验收，debug</v>
       </c>
       <c r="K121" s="152">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="K121:K129" si="64">IF($E121=2,$D121," ")</f>
         <v>1</v>
       </c>
       <c r="L121" s="154"/>
       <c r="M121" s="153" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="M121:M129" si="65">IF($E121=3,$B121," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N121" s="152" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" ref="N121:N129" si="66">IF($E121=3,$D121," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O121" s="154"/>
       <c r="P121" s="153" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="P121:P129" si="67">IF($E121=4,$B121," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q121" s="152" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="Q121:Q129" si="68">IF($E121=4,$D121," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R121" s="154"/>
       <c r="S121" s="153" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" ref="S121:S129" si="69">IF($E121=5,$B121," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T121" s="152" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="T121:T129" si="70">IF($E121=5,$D121," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U121" s="146"/>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B122" s="157" t="s">
-        <v>352</v>
-      </c>
-      <c r="D122" s="150">
-        <v>2</v>
+      <c r="B122" s="185" t="s">
+        <v>636</v>
+      </c>
+      <c r="C122" s="169"/>
+      <c r="D122" s="168">
+        <v>1</v>
       </c>
       <c r="E122" s="150">
         <v>2</v>
@@ -21603,11 +21546,11 @@
       <c r="I122" s="154"/>
       <c r="J122" s="153" t="str">
         <f t="shared" si="63"/>
-        <v>回归技能玩法， 和团队玩法</v>
+        <v>v0.6功能集体测试（背包）</v>
       </c>
       <c r="K122" s="152">
         <f t="shared" si="64"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L122" s="154"/>
       <c r="M122" s="153" t="str">
@@ -21636,11 +21579,10 @@
         <f t="shared" si="70"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U122" s="146"/>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B123" s="157" t="s">
-        <v>635</v>
+        <v>388</v>
       </c>
       <c r="D123" s="150">
         <v>1</v>
@@ -21660,7 +21602,7 @@
       <c r="I123" s="154"/>
       <c r="J123" s="153" t="str">
         <f t="shared" si="63"/>
-        <v>宠物规划</v>
+        <v>物攻五行，打断验收，Debug</v>
       </c>
       <c r="K123" s="152">
         <f t="shared" si="64"/>
@@ -21696,33 +21638,71 @@
       <c r="U123" s="146"/>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B124" s="159"/>
+      <c r="B124" s="157" t="s">
+        <v>352</v>
+      </c>
+      <c r="D124" s="150">
+        <v>2</v>
+      </c>
+      <c r="E124" s="150">
+        <v>2</v>
+      </c>
       <c r="F124" s="153"/>
-      <c r="G124" s="153"/>
-      <c r="H124" s="152"/>
+      <c r="G124" s="153" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H124" s="152" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I124" s="154"/>
-      <c r="J124" s="153"/>
-      <c r="K124" s="152"/>
+      <c r="J124" s="153" t="str">
+        <f t="shared" si="63"/>
+        <v>回归技能玩法， 和团队玩法</v>
+      </c>
+      <c r="K124" s="152">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
       <c r="L124" s="154"/>
-      <c r="M124" s="153"/>
-      <c r="N124" s="152"/>
+      <c r="M124" s="153" t="str">
+        <f t="shared" si="65"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N124" s="152" t="str">
+        <f t="shared" si="66"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O124" s="154"/>
-      <c r="P124" s="153"/>
-      <c r="Q124" s="152"/>
+      <c r="P124" s="153" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q124" s="152" t="str">
+        <f t="shared" si="68"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R124" s="154"/>
-      <c r="S124" s="153"/>
-      <c r="T124" s="152"/>
+      <c r="S124" s="153" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T124" s="152" t="str">
+        <f t="shared" si="70"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="U124" s="146"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B125" s="157" t="s">
-        <v>399</v>
+        <v>635</v>
       </c>
       <c r="D125" s="150">
         <v>1</v>
       </c>
       <c r="E125" s="150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F125" s="153"/>
       <c r="G125" s="153" t="str">
@@ -21736,20 +21716,20 @@
       <c r="I125" s="154"/>
       <c r="J125" s="153" t="str">
         <f t="shared" si="63"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K125" s="152" t="str">
+        <v>宠物规划</v>
+      </c>
+      <c r="K125" s="152">
         <f t="shared" si="64"/>
-        <v xml:space="preserve"> </v>
+        <v>1</v>
       </c>
       <c r="L125" s="154"/>
       <c r="M125" s="153" t="str">
         <f t="shared" si="65"/>
-        <v>副本配置准备</v>
-      </c>
-      <c r="N125" s="152">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N125" s="152" t="str">
         <f t="shared" si="66"/>
-        <v>1</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="O125" s="154"/>
       <c r="P125" s="153" t="str">
@@ -21772,71 +21752,30 @@
       <c r="U125" s="146"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B126" s="181" t="s">
-        <v>684</v>
-      </c>
-      <c r="C126" s="149"/>
-      <c r="D126" s="150">
-        <v>3</v>
-      </c>
-      <c r="E126" s="150">
-        <v>3</v>
-      </c>
+      <c r="B126" s="159"/>
       <c r="F126" s="153"/>
-      <c r="G126" s="153" t="str">
-        <f t="shared" si="61"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H126" s="152" t="str">
-        <f t="shared" si="62"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G126" s="153"/>
+      <c r="H126" s="152"/>
       <c r="I126" s="154"/>
-      <c r="J126" s="153" t="str">
-        <f t="shared" si="63"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K126" s="152" t="str">
-        <f t="shared" si="64"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J126" s="153"/>
+      <c r="K126" s="152"/>
       <c r="L126" s="154"/>
-      <c r="M126" s="153" t="str">
-        <f t="shared" si="65"/>
-        <v>副本配置（小怪，逻辑，AI，Unit Data）</v>
-      </c>
-      <c r="N126" s="152">
-        <f t="shared" si="66"/>
-        <v>3</v>
-      </c>
+      <c r="M126" s="153"/>
+      <c r="N126" s="152"/>
       <c r="O126" s="154"/>
-      <c r="P126" s="153" t="str">
-        <f t="shared" si="67"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q126" s="152" t="str">
-        <f t="shared" si="68"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P126" s="153"/>
+      <c r="Q126" s="152"/>
       <c r="R126" s="154"/>
-      <c r="S126" s="153" t="str">
-        <f t="shared" si="69"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T126" s="152" t="str">
-        <f t="shared" si="70"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S126" s="153"/>
+      <c r="T126" s="152"/>
       <c r="U126" s="146"/>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A127" s="146"/>
-      <c r="B127" s="181" t="s">
-        <v>685</v>
-      </c>
-      <c r="C127" s="149"/>
+      <c r="B127" s="157" t="s">
+        <v>399</v>
+      </c>
       <c r="D127" s="150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E127" s="150">
         <v>3</v>
@@ -21862,11 +21801,11 @@
       <c r="L127" s="154"/>
       <c r="M127" s="153" t="str">
         <f t="shared" si="65"/>
-        <v>副本配置（小怪Boss，UnitData + AI）</v>
+        <v>副本配置准备</v>
       </c>
       <c r="N127" s="152">
         <f t="shared" si="66"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O127" s="154"/>
       <c r="P127" s="153" t="str">
@@ -21889,180 +21828,219 @@
       <c r="U127" s="146"/>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B128" s="157" t="s">
-        <v>692</v>
-      </c>
+      <c r="B128" s="181" t="s">
+        <v>684</v>
+      </c>
+      <c r="C128" s="149"/>
+      <c r="D128" s="150">
+        <v>3</v>
+      </c>
+      <c r="E128" s="150">
+        <v>3</v>
+      </c>
+      <c r="F128" s="153"/>
+      <c r="G128" s="153" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H128" s="152" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I128" s="154"/>
+      <c r="J128" s="153" t="str">
+        <f t="shared" si="63"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K128" s="152" t="str">
+        <f t="shared" si="64"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L128" s="154"/>
+      <c r="M128" s="153" t="str">
+        <f t="shared" si="65"/>
+        <v>副本配置（小怪，逻辑，AI，Unit Data）</v>
+      </c>
+      <c r="N128" s="152">
+        <f t="shared" si="66"/>
+        <v>3</v>
+      </c>
+      <c r="O128" s="154"/>
+      <c r="P128" s="153" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q128" s="152" t="str">
+        <f t="shared" si="68"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R128" s="154"/>
+      <c r="S128" s="153" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T128" s="152" t="str">
+        <f t="shared" si="70"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U128" s="146"/>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="146"/>
-      <c r="B129" s="180" t="s">
-        <v>693</v>
+      <c r="B129" s="181" t="s">
+        <v>685</v>
       </c>
       <c r="C129" s="149"/>
+      <c r="D129" s="150">
+        <v>3</v>
+      </c>
+      <c r="E129" s="150">
+        <v>3</v>
+      </c>
       <c r="F129" s="153"/>
-      <c r="G129" s="153"/>
-      <c r="H129" s="152"/>
+      <c r="G129" s="153" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H129" s="152" t="str">
+        <f t="shared" si="62"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I129" s="154"/>
-      <c r="J129" s="153"/>
-      <c r="K129" s="152"/>
+      <c r="J129" s="153" t="str">
+        <f t="shared" si="63"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K129" s="152" t="str">
+        <f t="shared" si="64"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L129" s="154"/>
-      <c r="M129" s="153"/>
-      <c r="N129" s="152"/>
+      <c r="M129" s="153" t="str">
+        <f t="shared" si="65"/>
+        <v>副本配置（小怪Boss，UnitData + AI）</v>
+      </c>
+      <c r="N129" s="152">
+        <f t="shared" si="66"/>
+        <v>3</v>
+      </c>
       <c r="O129" s="154"/>
-      <c r="P129" s="153"/>
-      <c r="Q129" s="152"/>
+      <c r="P129" s="153" t="str">
+        <f t="shared" si="67"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q129" s="152" t="str">
+        <f t="shared" si="68"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R129" s="154"/>
-      <c r="S129" s="153"/>
-      <c r="T129" s="152"/>
+      <c r="S129" s="153" t="str">
+        <f t="shared" si="69"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T129" s="152" t="str">
+        <f t="shared" si="70"/>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="U129" s="146"/>
     </row>
-    <row r="130" spans="1:21" ht="34" x14ac:dyDescent="0.25">
-      <c r="B130" s="186" t="s">
-        <v>686</v>
-      </c>
-      <c r="C130" s="167"/>
-      <c r="D130" s="167">
-        <v>2.5</v>
-      </c>
-      <c r="E130" s="150">
-        <v>4</v>
-      </c>
-      <c r="F130" s="153"/>
-      <c r="G130" s="153" t="str">
-        <f>IF($E130=1,$B130," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H130" s="152" t="str">
-        <f>IF($E130=1,$D130," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I130" s="154"/>
-      <c r="J130" s="153" t="str">
-        <f>IF($E130=2,$B130," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K130" s="152" t="str">
-        <f>IF($E130=2,$D130," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L130" s="154"/>
-      <c r="M130" s="153" t="str">
-        <f>IF($E130=3,$B130," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N130" s="152" t="str">
-        <f>IF($E130=3,$D130," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O130" s="154"/>
-      <c r="P130" s="153" t="str">
-        <f>IF($E130=4,$B130," ")</f>
-        <v>第一二章的怪物数值调试 （1/2) 包括星级模拟</v>
-      </c>
-      <c r="Q130" s="152">
-        <f>IF($E130=4,$D130," ")</f>
-        <v>2.5</v>
-      </c>
-      <c r="R130" s="154"/>
-      <c r="S130" s="153" t="str">
-        <f>IF($E130=5,$B130," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T130" s="152" t="str">
-        <f>IF($E130=5,$D130," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U130" s="146"/>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B130" s="157" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="146"/>
       <c r="B131" s="180" t="s">
+        <v>693</v>
+      </c>
+      <c r="C131" s="149"/>
+      <c r="F131" s="153"/>
+      <c r="G131" s="153"/>
+      <c r="H131" s="152"/>
+      <c r="I131" s="154"/>
+      <c r="J131" s="153"/>
+      <c r="K131" s="152"/>
+      <c r="L131" s="154"/>
+      <c r="M131" s="153"/>
+      <c r="N131" s="152"/>
+      <c r="O131" s="154"/>
+      <c r="P131" s="153"/>
+      <c r="Q131" s="152"/>
+      <c r="R131" s="154"/>
+      <c r="S131" s="153"/>
+      <c r="T131" s="152"/>
+      <c r="U131" s="146"/>
+    </row>
+    <row r="132" spans="1:21" ht="34" x14ac:dyDescent="0.25">
+      <c r="B132" s="186" t="s">
+        <v>686</v>
+      </c>
+      <c r="C132" s="167"/>
+      <c r="D132" s="167">
+        <v>2.5</v>
+      </c>
+      <c r="E132" s="150">
+        <v>4</v>
+      </c>
+      <c r="F132" s="153"/>
+      <c r="G132" s="153" t="str">
+        <f>IF($E132=1,$B132," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H132" s="152" t="str">
+        <f>IF($E132=1,$D132," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I132" s="154"/>
+      <c r="J132" s="153" t="str">
+        <f>IF($E132=2,$B132," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K132" s="152" t="str">
+        <f>IF($E132=2,$D132," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L132" s="154"/>
+      <c r="M132" s="153" t="str">
+        <f>IF($E132=3,$B132," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N132" s="152" t="str">
+        <f>IF($E132=3,$D132," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O132" s="154"/>
+      <c r="P132" s="153" t="str">
+        <f>IF($E132=4,$B132," ")</f>
+        <v>第一二章的怪物数值调试 （1/2) 包括星级模拟</v>
+      </c>
+      <c r="Q132" s="152">
+        <f>IF($E132=4,$D132," ")</f>
+        <v>2.5</v>
+      </c>
+      <c r="R132" s="154"/>
+      <c r="S132" s="153" t="str">
+        <f>IF($E132=5,$B132," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T132" s="152" t="str">
+        <f>IF($E132=5,$D132," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U132" s="146"/>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A133" s="146"/>
+      <c r="B133" s="180" t="s">
         <v>634</v>
       </c>
-      <c r="C131" s="149"/>
-      <c r="D131" s="150">
+      <c r="C133" s="149"/>
+      <c r="D133" s="150">
         <v>2</v>
       </c>
-      <c r="E131" s="150">
+      <c r="E133" s="150">
         <v>3</v>
-      </c>
-      <c r="F131" s="153"/>
-      <c r="G131" s="153" t="str">
-        <f>IF($E131=1,$B131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H131" s="152" t="str">
-        <f>IF($E131=1,$D131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I131" s="154"/>
-      <c r="J131" s="153" t="str">
-        <f>IF($E131=2,$B131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K131" s="152" t="str">
-        <f>IF($E131=2,$D131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L131" s="154"/>
-      <c r="M131" s="153" t="str">
-        <f>IF($E131=3,$B131," ")</f>
-        <v>副本配置debug</v>
-      </c>
-      <c r="N131" s="152">
-        <f>IF($E131=3,$D131," ")</f>
-        <v>2</v>
-      </c>
-      <c r="O131" s="154"/>
-      <c r="P131" s="153" t="str">
-        <f>IF($E131=4,$B131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q131" s="152" t="str">
-        <f>IF($E131=4,$D131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R131" s="154"/>
-      <c r="S131" s="153" t="str">
-        <f>IF($E131=5,$B131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T131" s="152" t="str">
-        <f>IF($E131=5,$D131," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U131" s="146"/>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A132" s="146"/>
-      <c r="B132" s="149"/>
-      <c r="C132" s="149"/>
-      <c r="F132" s="153"/>
-      <c r="G132" s="153"/>
-      <c r="H132" s="152"/>
-      <c r="I132" s="154"/>
-      <c r="J132" s="153"/>
-      <c r="K132" s="152"/>
-      <c r="L132" s="154"/>
-      <c r="M132" s="153"/>
-      <c r="N132" s="152"/>
-      <c r="O132" s="154"/>
-      <c r="P132" s="153"/>
-      <c r="Q132" s="152"/>
-      <c r="R132" s="154"/>
-      <c r="S132" s="153"/>
-      <c r="T132" s="152"/>
-      <c r="U132" s="146"/>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B133" s="156" t="s">
-        <v>355</v>
-      </c>
-      <c r="D133" s="150">
-        <v>4</v>
-      </c>
-      <c r="E133" s="150">
-        <v>5</v>
       </c>
       <c r="F133" s="153"/>
       <c r="G133" s="153" t="str">
@@ -22085,11 +22063,11 @@
       <c r="L133" s="154"/>
       <c r="M133" s="153" t="str">
         <f>IF($E133=3,$B133," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N133" s="152" t="str">
+        <v>副本配置debug</v>
+      </c>
+      <c r="N133" s="152">
         <f>IF($E133=3,$D133," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>2</v>
       </c>
       <c r="O133" s="154"/>
       <c r="P133" s="153" t="str">
@@ -22103,308 +22081,276 @@
       <c r="R133" s="154"/>
       <c r="S133" s="153" t="str">
         <f>IF($E133=5,$B133," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T133" s="152" t="str">
+        <f>IF($E133=5,$D133," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U133" s="146"/>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A134" s="146"/>
+      <c r="B134" s="149"/>
+      <c r="C134" s="149"/>
+      <c r="F134" s="153"/>
+      <c r="G134" s="153"/>
+      <c r="H134" s="152"/>
+      <c r="I134" s="154"/>
+      <c r="J134" s="153"/>
+      <c r="K134" s="152"/>
+      <c r="L134" s="154"/>
+      <c r="M134" s="153"/>
+      <c r="N134" s="152"/>
+      <c r="O134" s="154"/>
+      <c r="P134" s="153"/>
+      <c r="Q134" s="152"/>
+      <c r="R134" s="154"/>
+      <c r="S134" s="153"/>
+      <c r="T134" s="152"/>
+      <c r="U134" s="146"/>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B135" s="156" t="s">
+        <v>355</v>
+      </c>
+      <c r="D135" s="150">
+        <v>4</v>
+      </c>
+      <c r="E135" s="150">
+        <v>5</v>
+      </c>
+      <c r="F135" s="153"/>
+      <c r="G135" s="153" t="str">
+        <f>IF($E135=1,$B135," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H135" s="152" t="str">
+        <f>IF($E135=1,$D135," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I135" s="154"/>
+      <c r="J135" s="153" t="str">
+        <f>IF($E135=2,$B135," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K135" s="152" t="str">
+        <f>IF($E135=2,$D135," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L135" s="154"/>
+      <c r="M135" s="153" t="str">
+        <f>IF($E135=3,$B135," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N135" s="152" t="str">
+        <f>IF($E135=3,$D135," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O135" s="154"/>
+      <c r="P135" s="153" t="str">
+        <f>IF($E135=4,$B135," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q135" s="152" t="str">
+        <f>IF($E135=4,$D135," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R135" s="154"/>
+      <c r="S135" s="153" t="str">
+        <f>IF($E135=5,$B135," ")</f>
         <v>第三到五章的小怪物设计</v>
       </c>
-      <c r="T133" s="152">
-        <f>IF($E133=5,$D133," ")</f>
+      <c r="T135" s="152">
+        <f>IF($E135=5,$D135," ")</f>
         <v>4</v>
       </c>
-      <c r="U133" s="146"/>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B134" s="146" t="s">
+      <c r="U135" s="146"/>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B136" s="146" t="s">
         <v>400</v>
       </c>
-      <c r="D134" s="150">
+      <c r="D136" s="150">
         <v>2</v>
       </c>
-      <c r="E134" s="150">
+      <c r="E136" s="150">
         <v>5</v>
       </c>
-      <c r="F134" s="153"/>
-      <c r="G134" s="153" t="str">
-        <f>IF($E134=1,$B134," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H134" s="152" t="str">
-        <f>IF($E134=1,$D134," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I134" s="154"/>
-      <c r="J134" s="153" t="str">
-        <f>IF($E134=2,$B134," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K134" s="152" t="str">
-        <f>IF($E134=2,$D134," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L134" s="154"/>
-      <c r="M134" s="153" t="str">
-        <f>IF($E134=3,$B134," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N134" s="152" t="str">
-        <f>IF($E134=3,$D134," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O134" s="154"/>
-      <c r="P134" s="153" t="str">
-        <f>IF($E134=4,$B134," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q134" s="152" t="str">
-        <f>IF($E134=4,$D134," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R134" s="154"/>
-      <c r="S134" s="153" t="str">
-        <f>IF($E134=5,$B134," ")</f>
+      <c r="F136" s="153"/>
+      <c r="G136" s="153" t="str">
+        <f>IF($E136=1,$B136," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H136" s="152" t="str">
+        <f>IF($E136=1,$D136," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I136" s="154"/>
+      <c r="J136" s="153" t="str">
+        <f>IF($E136=2,$B136," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K136" s="152" t="str">
+        <f>IF($E136=2,$D136," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L136" s="154"/>
+      <c r="M136" s="153" t="str">
+        <f>IF($E136=3,$B136," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N136" s="152" t="str">
+        <f>IF($E136=3,$D136," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O136" s="154"/>
+      <c r="P136" s="153" t="str">
+        <f>IF($E136=4,$B136," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q136" s="152" t="str">
+        <f>IF($E136=4,$D136," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R136" s="154"/>
+      <c r="S136" s="153" t="str">
+        <f>IF($E136=5,$B136," ")</f>
         <v>第三到 五章Boss设计 (部分）</v>
       </c>
-      <c r="T134" s="152">
-        <f>IF($E134=5,$D134," ")</f>
+      <c r="T136" s="152">
+        <f>IF($E136=5,$D136," ")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="24" t="s">
+    <row r="138" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="24" t="s">
         <v>631</v>
       </c>
-      <c r="C136" s="24"/>
-      <c r="D136" s="72">
-        <f>SUM(D112:D135)</f>
+      <c r="C138" s="24"/>
+      <c r="D138" s="72">
+        <f>SUM(D114:D137)</f>
         <v>29</v>
       </c>
-      <c r="E136" s="72"/>
-      <c r="F136" s="75"/>
-      <c r="H136" s="72">
-        <f>SUM(H112:H135)</f>
+      <c r="E138" s="72"/>
+      <c r="F138" s="75"/>
+      <c r="H138" s="72">
+        <f>SUM(H114:H137)</f>
         <v>5.5</v>
       </c>
-      <c r="I136" s="20"/>
-      <c r="K136" s="72">
-        <f>SUM(K112:K135)</f>
+      <c r="I138" s="20"/>
+      <c r="K138" s="72">
+        <f>SUM(K114:K137)</f>
         <v>6</v>
       </c>
-      <c r="L136" s="20"/>
-      <c r="N136" s="72">
-        <f>SUM(N112:N135)</f>
+      <c r="L138" s="20"/>
+      <c r="N138" s="72">
+        <f>SUM(N114:N137)</f>
         <v>9</v>
       </c>
-      <c r="O136" s="20"/>
-      <c r="Q136" s="72">
-        <f>SUM(Q112:Q135)</f>
+      <c r="O138" s="20"/>
+      <c r="Q138" s="72">
+        <f>SUM(Q114:Q137)</f>
         <v>2.5</v>
       </c>
-      <c r="R136" s="20"/>
-      <c r="T136" s="72">
-        <f>SUM(T112:T135)</f>
+      <c r="R138" s="20"/>
+      <c r="T138" s="72">
+        <f>SUM(T114:T137)</f>
         <v>6</v>
       </c>
-      <c r="U136" s="20"/>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B138" s="167" t="s">
-        <v>389</v>
-      </c>
-      <c r="C138" s="167"/>
-      <c r="D138" s="167"/>
-      <c r="F138" s="153"/>
-      <c r="G138" s="153"/>
-      <c r="H138" s="152"/>
-      <c r="I138" s="154"/>
-      <c r="J138" s="153"/>
-      <c r="K138" s="152"/>
-      <c r="L138" s="154"/>
-      <c r="M138" s="153"/>
-      <c r="N138" s="152"/>
-      <c r="O138" s="154"/>
-      <c r="P138" s="153"/>
-      <c r="Q138" s="152"/>
-      <c r="R138" s="154"/>
-      <c r="S138" s="153"/>
-      <c r="T138" s="152"/>
+      <c r="U138" s="20"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B140" s="167" t="s">
+        <v>389</v>
+      </c>
+      <c r="C140" s="167"/>
+      <c r="D140" s="167"/>
+      <c r="F140" s="153"/>
+      <c r="G140" s="153"/>
+      <c r="H140" s="152"/>
+      <c r="I140" s="154"/>
+      <c r="J140" s="153"/>
+      <c r="K140" s="152"/>
+      <c r="L140" s="154"/>
+      <c r="M140" s="153"/>
+      <c r="N140" s="152"/>
+      <c r="O140" s="154"/>
+      <c r="P140" s="153"/>
+      <c r="Q140" s="152"/>
+      <c r="R140" s="154"/>
+      <c r="S140" s="153"/>
+      <c r="T140" s="152"/>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B142" s="167" t="s">
         <v>633</v>
       </c>
-      <c r="C140" s="167"/>
-      <c r="D140" s="167">
-        <v>3</v>
-      </c>
-      <c r="E140" s="150">
-        <v>6</v>
-      </c>
-      <c r="F140" s="153"/>
-      <c r="G140" s="153" t="str">
-        <f t="shared" ref="G140:G147" si="71">IF($E140=1,$B140," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H140" s="152" t="str">
-        <f t="shared" ref="H140:H146" si="72">IF($E140=1,$D140," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I140" s="154"/>
-      <c r="J140" s="153" t="str">
-        <f t="shared" ref="J140:J146" si="73">IF($E140=2,$B140," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K140" s="152" t="str">
-        <f t="shared" ref="K140:K146" si="74">IF($E140=2,$D140," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L140" s="154"/>
-      <c r="M140" s="153" t="str">
-        <f t="shared" ref="M140:M146" si="75">IF($E140=3,$B140," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N140" s="152" t="str">
-        <f t="shared" ref="N140:N146" si="76">IF($E140=3,$D140," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O140" s="154"/>
-      <c r="P140" s="153" t="str">
-        <f t="shared" ref="P140:P146" si="77">IF($E140=4,$B140," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q140" s="152" t="str">
-        <f t="shared" ref="Q140:Q146" si="78">IF($E140=4,$D140," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R140" s="154"/>
-      <c r="S140" s="153" t="str">
-        <f t="shared" ref="S140:S146" si="79">IF($E140=5,$B140," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T140" s="152" t="str">
-        <f t="shared" ref="T140:T146" si="80">IF($E140=5,$D140," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B141" s="146" t="s">
-        <v>370</v>
-      </c>
-      <c r="D141" s="150">
-        <v>3</v>
-      </c>
-      <c r="E141" s="150">
-        <v>6</v>
-      </c>
-      <c r="F141" s="153" t="str">
-        <f t="shared" ref="F141:F147" si="81">IF($E141=1,$B141," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G141" s="153" t="str">
-        <f t="shared" si="71"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H141" s="152" t="str">
-        <f t="shared" si="72"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I141" s="154"/>
-      <c r="J141" s="153" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K141" s="152" t="str">
-        <f t="shared" si="74"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L141" s="154"/>
-      <c r="M141" s="153" t="str">
-        <f t="shared" si="75"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N141" s="152" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O141" s="154"/>
-      <c r="P141" s="153" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q141" s="152" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R141" s="154"/>
-      <c r="S141" s="153" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T141" s="152" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B142" s="146" t="s">
-        <v>351</v>
-      </c>
-      <c r="D142" s="150">
+      <c r="C142" s="167"/>
+      <c r="D142" s="167">
         <v>3</v>
       </c>
       <c r="E142" s="150">
         <v>6</v>
       </c>
-      <c r="F142" s="153" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="F142" s="153"/>
       <c r="G142" s="153" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" ref="G142:G149" si="71">IF($E142=1,$B142," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H142" s="152" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" ref="H142:H148" si="72">IF($E142=1,$D142," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I142" s="154"/>
       <c r="J142" s="153" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" ref="J142:J148" si="73">IF($E142=2,$B142," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K142" s="152" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="K142:K148" si="74">IF($E142=2,$D142," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L142" s="154"/>
       <c r="M142" s="153" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="M142:M148" si="75">IF($E142=3,$B142," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N142" s="152" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="N142:N148" si="76">IF($E142=3,$D142," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O142" s="154"/>
       <c r="P142" s="153" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="P142:P148" si="77">IF($E142=4,$B142," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q142" s="152" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="Q142:Q148" si="78">IF($E142=4,$D142," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R142" s="154"/>
       <c r="S142" s="153" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="S142:S148" si="79">IF($E142=5,$B142," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T142" s="152" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="T142:T148" si="80">IF($E142=5,$D142," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A143" s="146"/>
+      <c r="B143" s="146" t="s">
+        <v>370</v>
+      </c>
+      <c r="D143" s="150">
+        <v>3</v>
+      </c>
+      <c r="E143" s="150">
+        <v>6</v>
+      </c>
       <c r="F143" s="153" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" ref="F143:F149" si="81">IF($E143=1,$B143," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G143" s="153" t="str">
@@ -22452,8 +22398,16 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="146"/>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B144" s="146" t="s">
+        <v>351</v>
+      </c>
+      <c r="D144" s="150">
+        <v>3</v>
+      </c>
+      <c r="E144" s="150">
+        <v>6</v>
+      </c>
       <c r="F144" s="153" t="str">
         <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
@@ -22504,6 +22458,7 @@
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A145" s="146"/>
       <c r="F145" s="153" t="str">
         <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
@@ -22553,7 +22508,8 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="146"/>
       <c r="F146" s="153" t="str">
         <f t="shared" si="81"/>
         <v xml:space="preserve"> </v>
@@ -22612,217 +22568,199 @@
         <f t="shared" si="71"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H147" s="166" t="str">
-        <f t="shared" ref="H147:T147" si="82">IF($E147=1,$B147," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I147" s="153" t="str">
+      <c r="H147" s="152" t="str">
+        <f t="shared" si="72"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I147" s="154"/>
+      <c r="J147" s="153" t="str">
+        <f t="shared" si="73"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K147" s="152" t="str">
+        <f t="shared" si="74"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L147" s="154"/>
+      <c r="M147" s="153" t="str">
+        <f t="shared" si="75"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N147" s="152" t="str">
+        <f t="shared" si="76"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O147" s="154"/>
+      <c r="P147" s="153" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q147" s="152" t="str">
+        <f t="shared" si="78"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R147" s="154"/>
+      <c r="S147" s="153" t="str">
+        <f t="shared" si="79"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T147" s="152" t="str">
+        <f t="shared" si="80"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F148" s="153" t="str">
+        <f t="shared" si="81"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G148" s="153" t="str">
+        <f t="shared" si="71"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H148" s="152" t="str">
+        <f t="shared" si="72"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I148" s="154"/>
+      <c r="J148" s="153" t="str">
+        <f t="shared" si="73"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K148" s="152" t="str">
+        <f t="shared" si="74"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L148" s="154"/>
+      <c r="M148" s="153" t="str">
+        <f t="shared" si="75"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N148" s="152" t="str">
+        <f t="shared" si="76"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O148" s="154"/>
+      <c r="P148" s="153" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q148" s="152" t="str">
+        <f t="shared" si="78"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R148" s="154"/>
+      <c r="S148" s="153" t="str">
+        <f t="shared" si="79"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T148" s="152" t="str">
+        <f t="shared" si="80"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F149" s="153" t="str">
+        <f t="shared" si="81"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G149" s="153" t="str">
+        <f t="shared" si="71"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H149" s="166" t="str">
+        <f t="shared" ref="H149:T149" si="82">IF($E149=1,$B149," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I149" s="153" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J147" s="153" t="str">
+      <c r="J149" s="153" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K147" s="153" t="str">
+      <c r="K149" s="153" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L147" s="153" t="str">
+      <c r="L149" s="153" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M147" s="153" t="str">
+      <c r="M149" s="153" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N147" s="153" t="str">
+      <c r="N149" s="153" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O147" s="153" t="str">
+      <c r="O149" s="153" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P147" s="153" t="str">
+      <c r="P149" s="153" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q147" s="153" t="str">
+      <c r="Q149" s="153" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R147" s="153" t="str">
+      <c r="R149" s="153" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S147" s="153" t="str">
+      <c r="S149" s="153" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T147" s="153" t="str">
+      <c r="T149" s="153" t="str">
         <f t="shared" si="82"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="149" spans="1:21" s="161" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D149" s="165"/>
-      <c r="E149" s="165"/>
-      <c r="F149" s="164"/>
-      <c r="H149" s="163"/>
-      <c r="I149" s="162"/>
-      <c r="L149" s="162"/>
-      <c r="O149" s="162"/>
-      <c r="R149" s="162"/>
-      <c r="U149" s="162"/>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A150" s="19" t="s">
+    <row r="151" spans="1:21" s="161" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D151" s="165"/>
+      <c r="E151" s="165"/>
+      <c r="F151" s="164"/>
+      <c r="H151" s="163"/>
+      <c r="I151" s="162"/>
+      <c r="L151" s="162"/>
+      <c r="O151" s="162"/>
+      <c r="R151" s="162"/>
+      <c r="U151" s="162"/>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A152" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="B150" s="155"/>
-      <c r="C150" s="155"/>
-      <c r="D150" s="155"/>
-      <c r="G150" s="155"/>
-      <c r="H150" s="160"/>
-      <c r="I150" s="154"/>
-      <c r="J150" s="159"/>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B151" s="158" t="s">
+      <c r="B152" s="155"/>
+      <c r="C152" s="155"/>
+      <c r="D152" s="155"/>
+      <c r="G152" s="155"/>
+      <c r="H152" s="160"/>
+      <c r="I152" s="154"/>
+      <c r="J152" s="159"/>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B153" s="158" t="s">
         <v>156</v>
       </c>
-      <c r="C151" s="155"/>
-      <c r="D151" s="155">
-        <v>1</v>
-      </c>
-      <c r="E151" s="150">
-        <v>1</v>
-      </c>
-      <c r="F151" s="149" t="s">
-        <v>359</v>
-      </c>
-      <c r="G151" s="153" t="str">
-        <f>IF($E151=1,$B151," ")</f>
-        <v>收费点/VIP替代方案</v>
-      </c>
-      <c r="H151" s="152">
-        <f>IF($E151=1,$D151," ")</f>
-        <v>1</v>
-      </c>
-      <c r="I151" s="154"/>
-      <c r="J151" s="153" t="str">
-        <f>IF($E151=2,$B151," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K151" s="152" t="str">
-        <f>IF($E151=2,$D151," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L151" s="154"/>
-      <c r="M151" s="153" t="str">
-        <f>IF($E151=3,$B151," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N151" s="152" t="str">
-        <f>IF($E151=3,$D151," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O151" s="154"/>
-      <c r="P151" s="153" t="str">
-        <f>IF($E151=4,$B151," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q151" s="152" t="str">
-        <f>IF($E151=4,$D151," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R151" s="154"/>
-      <c r="S151" s="153" t="str">
-        <f>IF($E151=5,$B151," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T151" s="152" t="str">
-        <f>IF($E151=5,$D151," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U151" s="146"/>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B152" s="156" t="s">
-        <v>365</v>
-      </c>
-      <c r="D152" s="150">
-        <v>2</v>
-      </c>
-      <c r="E152" s="150">
-        <v>1</v>
-      </c>
-      <c r="F152" s="149" t="s">
-        <v>367</v>
-      </c>
-      <c r="G152" s="153" t="str">
-        <f>IF($E152=1,$B152," ")</f>
-        <v>怪物 - 投放规划（碎片，整只）</v>
-      </c>
-      <c r="H152" s="152">
-        <f>IF($E152=1,$D152," ")</f>
-        <v>2</v>
-      </c>
-      <c r="I152" s="154"/>
-      <c r="J152" s="153" t="str">
-        <f>IF($E152=2,$B152," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K152" s="152" t="str">
-        <f>IF($E152=2,$D152," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L152" s="154"/>
-      <c r="M152" s="153" t="str">
-        <f>IF($E152=3,$B152," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N152" s="152" t="str">
-        <f>IF($E152=3,$D152," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O152" s="154"/>
-      <c r="P152" s="153" t="str">
-        <f>IF($E152=4,$B152," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q152" s="152" t="str">
-        <f>IF($E152=4,$D152," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R152" s="154"/>
-      <c r="S152" s="153" t="str">
-        <f>IF($E152=5,$B152," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T152" s="152" t="str">
-        <f>IF($E152=5,$D152," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U152" s="146"/>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B153" s="157" t="s">
-        <v>356</v>
-      </c>
-      <c r="D153" s="150">
+      <c r="C153" s="155"/>
+      <c r="D153" s="155">
         <v>1</v>
       </c>
       <c r="E153" s="150">
         <v>1</v>
       </c>
       <c r="F153" s="149" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G153" s="153" t="str">
         <f>IF($E153=1,$B153," ")</f>
-        <v>法物攻走五行后相关回归</v>
+        <v>收费点/VIP替代方案</v>
       </c>
       <c r="H153" s="152">
         <f>IF($E153=1,$D153," ")</f>
@@ -22867,8 +22805,8 @@
       <c r="U153" s="146"/>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B154" s="157" t="s">
-        <v>406</v>
+      <c r="B154" s="156" t="s">
+        <v>365</v>
       </c>
       <c r="D154" s="150">
         <v>2</v>
@@ -22876,168 +22814,172 @@
       <c r="E154" s="150">
         <v>1</v>
       </c>
+      <c r="F154" s="149" t="s">
+        <v>367</v>
+      </c>
       <c r="G154" s="153" t="str">
         <f>IF($E154=1,$B154," ")</f>
-        <v>玩家前两天新手学习时间规划</v>
+        <v>怪物 - 投放规划（碎片，整只）</v>
       </c>
       <c r="H154" s="152">
         <f>IF($E154=1,$D154," ")</f>
         <v>2</v>
       </c>
       <c r="I154" s="154"/>
-      <c r="J154" s="153"/>
-      <c r="K154" s="152"/>
+      <c r="J154" s="153" t="str">
+        <f>IF($E154=2,$B154," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K154" s="152" t="str">
+        <f>IF($E154=2,$D154," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L154" s="154"/>
-      <c r="M154" s="153"/>
-      <c r="N154" s="152"/>
+      <c r="M154" s="153" t="str">
+        <f>IF($E154=3,$B154," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N154" s="152" t="str">
+        <f>IF($E154=3,$D154," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O154" s="154"/>
-      <c r="P154" s="153"/>
-      <c r="Q154" s="152"/>
+      <c r="P154" s="153" t="str">
+        <f>IF($E154=4,$B154," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q154" s="152" t="str">
+        <f>IF($E154=4,$D154," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R154" s="154"/>
-      <c r="S154" s="153"/>
-      <c r="T154" s="152"/>
+      <c r="S154" s="153" t="str">
+        <f>IF($E154=5,$B154," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T154" s="152" t="str">
+        <f>IF($E154=5,$D154," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="U154" s="146"/>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G155" s="153"/>
-      <c r="H155" s="152"/>
+      <c r="B155" s="157" t="s">
+        <v>356</v>
+      </c>
+      <c r="D155" s="150">
+        <v>1</v>
+      </c>
+      <c r="E155" s="150">
+        <v>1</v>
+      </c>
+      <c r="F155" s="149" t="s">
+        <v>361</v>
+      </c>
+      <c r="G155" s="153" t="str">
+        <f>IF($E155=1,$B155," ")</f>
+        <v>法物攻走五行后相关回归</v>
+      </c>
+      <c r="H155" s="152">
+        <f>IF($E155=1,$D155," ")</f>
+        <v>1</v>
+      </c>
       <c r="I155" s="154"/>
-      <c r="J155" s="153"/>
-      <c r="K155" s="152"/>
+      <c r="J155" s="153" t="str">
+        <f>IF($E155=2,$B155," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K155" s="152" t="str">
+        <f>IF($E155=2,$D155," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L155" s="154"/>
-      <c r="M155" s="153"/>
-      <c r="N155" s="152"/>
+      <c r="M155" s="153" t="str">
+        <f>IF($E155=3,$B155," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N155" s="152" t="str">
+        <f>IF($E155=3,$D155," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O155" s="154"/>
-      <c r="P155" s="153"/>
-      <c r="Q155" s="152"/>
+      <c r="P155" s="153" t="str">
+        <f>IF($E155=4,$B155," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q155" s="152" t="str">
+        <f>IF($E155=4,$D155," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R155" s="154"/>
-      <c r="S155" s="153"/>
-      <c r="T155" s="152"/>
+      <c r="S155" s="153" t="str">
+        <f>IF($E155=5,$B155," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T155" s="152" t="str">
+        <f>IF($E155=5,$D155," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="U155" s="146"/>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B156" s="157" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D156" s="150">
+        <v>2</v>
+      </c>
+      <c r="E156" s="150">
         <v>1</v>
-      </c>
-      <c r="E156" s="150">
-        <v>2</v>
       </c>
       <c r="G156" s="153" t="str">
         <f>IF($E156=1,$B156," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H156" s="152" t="str">
+        <v>玩家前两天新手学习时间规划</v>
+      </c>
+      <c r="H156" s="152">
         <f>IF($E156=1,$D156," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>2</v>
       </c>
       <c r="I156" s="154"/>
-      <c r="J156" s="153" t="str">
-        <f>IF($E156=2,$B156," ")</f>
-        <v>配置 - 怪物升级信息，经验</v>
-      </c>
-      <c r="K156" s="152">
-        <f>IF($E156=2,$D156," ")</f>
-        <v>1</v>
-      </c>
+      <c r="J156" s="153"/>
+      <c r="K156" s="152"/>
       <c r="L156" s="154"/>
-      <c r="M156" s="153" t="str">
-        <f>IF($E156=3,$B156," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N156" s="152" t="str">
-        <f>IF($E156=3,$D156," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M156" s="153"/>
+      <c r="N156" s="152"/>
       <c r="O156" s="154"/>
-      <c r="P156" s="153" t="str">
-        <f>IF($E156=4,$B156," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q156" s="152" t="str">
-        <f>IF($E156=4,$D156," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P156" s="153"/>
+      <c r="Q156" s="152"/>
       <c r="R156" s="154"/>
-      <c r="S156" s="153" t="str">
-        <f>IF($E156=5,$B156," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T156" s="152" t="str">
-        <f>IF($E156=5,$D156," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S156" s="153"/>
+      <c r="T156" s="152"/>
+      <c r="U156" s="146"/>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B157" s="158" t="s">
-        <v>405</v>
-      </c>
-      <c r="C157" s="155"/>
-      <c r="D157" s="155">
-        <v>1</v>
-      </c>
-      <c r="E157" s="150">
-        <v>2</v>
-      </c>
-      <c r="G157" s="153" t="str">
-        <f>IF($E157=1,$B157," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H157" s="152" t="str">
-        <f>IF($E157=1,$D157," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G157" s="153"/>
+      <c r="H157" s="152"/>
       <c r="I157" s="154"/>
-      <c r="J157" s="153" t="str">
-        <f>IF($E157=2,$B157," ")</f>
-        <v>配置 - 角色升级信息，经验</v>
-      </c>
-      <c r="K157" s="152">
-        <f>IF($E157=2,$D157," ")</f>
-        <v>1</v>
-      </c>
+      <c r="J157" s="153"/>
+      <c r="K157" s="152"/>
       <c r="L157" s="154"/>
-      <c r="M157" s="153" t="str">
-        <f>IF($E157=3,$B157," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N157" s="152" t="str">
-        <f>IF($E157=3,$D157," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M157" s="153"/>
+      <c r="N157" s="152"/>
       <c r="O157" s="154"/>
-      <c r="P157" s="153" t="str">
-        <f>IF($E157=4,$B157," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q157" s="152" t="str">
-        <f>IF($E157=4,$D157," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P157" s="153"/>
+      <c r="Q157" s="152"/>
       <c r="R157" s="154"/>
-      <c r="S157" s="153" t="str">
-        <f>IF($E157=5,$B157," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T157" s="152" t="str">
-        <f>IF($E157=5,$D157," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S157" s="153"/>
+      <c r="T157" s="152"/>
+      <c r="U157" s="146"/>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B158" s="157" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="D158" s="150">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E158" s="150">
         <v>2</v>
-      </c>
-      <c r="F158" s="149" t="s">
-        <v>366</v>
       </c>
       <c r="G158" s="153" t="str">
         <f>IF($E158=1,$B158," ")</f>
@@ -23050,11 +22992,11 @@
       <c r="I158" s="154"/>
       <c r="J158" s="153" t="str">
         <f>IF($E158=2,$B158," ")</f>
-        <v>道具内容配置</v>
+        <v>配置 - 怪物升级信息，经验</v>
       </c>
       <c r="K158" s="152">
         <f>IF($E158=2,$D158," ")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L158" s="154"/>
       <c r="M158" s="153" t="str">
@@ -23083,35 +23025,72 @@
         <f>IF($E158=5,$D158," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U158" s="146"/>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G159" s="153"/>
-      <c r="H159" s="152"/>
+      <c r="B159" s="158" t="s">
+        <v>405</v>
+      </c>
+      <c r="C159" s="155"/>
+      <c r="D159" s="155">
+        <v>1</v>
+      </c>
+      <c r="E159" s="150">
+        <v>2</v>
+      </c>
+      <c r="G159" s="153" t="str">
+        <f>IF($E159=1,$B159," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H159" s="152" t="str">
+        <f>IF($E159=1,$D159," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I159" s="154"/>
-      <c r="J159" s="153"/>
-      <c r="K159" s="152"/>
+      <c r="J159" s="153" t="str">
+        <f>IF($E159=2,$B159," ")</f>
+        <v>配置 - 角色升级信息，经验</v>
+      </c>
+      <c r="K159" s="152">
+        <f>IF($E159=2,$D159," ")</f>
+        <v>1</v>
+      </c>
       <c r="L159" s="154"/>
-      <c r="M159" s="153"/>
-      <c r="N159" s="152"/>
+      <c r="M159" s="153" t="str">
+        <f>IF($E159=3,$B159," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N159" s="152" t="str">
+        <f>IF($E159=3,$D159," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O159" s="154"/>
-      <c r="P159" s="153"/>
-      <c r="Q159" s="152"/>
+      <c r="P159" s="153" t="str">
+        <f>IF($E159=4,$B159," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q159" s="152" t="str">
+        <f>IF($E159=4,$D159," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R159" s="154"/>
-      <c r="S159" s="153"/>
-      <c r="T159" s="152"/>
-      <c r="U159" s="146"/>
+      <c r="S159" s="153" t="str">
+        <f>IF($E159=5,$B159," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T159" s="152" t="str">
+        <f>IF($E159=5,$D159," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B160" s="158" t="s">
-        <v>682</v>
-      </c>
-      <c r="C160" s="155"/>
-      <c r="D160" s="155">
+      <c r="B160" s="157" t="s">
+        <v>345</v>
+      </c>
+      <c r="D160" s="150">
         <v>4</v>
       </c>
       <c r="E160" s="150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F160" s="149" t="s">
         <v>366</v>
@@ -23127,20 +23106,20 @@
       <c r="I160" s="154"/>
       <c r="J160" s="153" t="str">
         <f>IF($E160=2,$B160," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K160" s="152" t="str">
+        <v>道具内容配置</v>
+      </c>
+      <c r="K160" s="152">
         <f>IF($E160=2,$D160," ")</f>
-        <v xml:space="preserve"> </v>
+        <v>4</v>
       </c>
       <c r="L160" s="154"/>
       <c r="M160" s="153" t="str">
         <f>IF($E160=3,$B160," ")</f>
-        <v>装备和其他掉落内容配置</v>
-      </c>
-      <c r="N160" s="152">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N160" s="152" t="str">
         <f>IF($E160=3,$D160," ")</f>
-        <v>4</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="O160" s="154"/>
       <c r="P160" s="153" t="str">
@@ -23163,227 +23142,190 @@
       <c r="U160" s="146"/>
     </row>
     <row r="161" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B161" s="157" t="s">
+      <c r="G161" s="153"/>
+      <c r="H161" s="152"/>
+      <c r="I161" s="154"/>
+      <c r="J161" s="153"/>
+      <c r="K161" s="152"/>
+      <c r="L161" s="154"/>
+      <c r="M161" s="153"/>
+      <c r="N161" s="152"/>
+      <c r="O161" s="154"/>
+      <c r="P161" s="153"/>
+      <c r="Q161" s="152"/>
+      <c r="R161" s="154"/>
+      <c r="S161" s="153"/>
+      <c r="T161" s="152"/>
+      <c r="U161" s="146"/>
+    </row>
+    <row r="162" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B162" s="158" t="s">
+        <v>682</v>
+      </c>
+      <c r="C162" s="155"/>
+      <c r="D162" s="155">
+        <v>4</v>
+      </c>
+      <c r="E162" s="150">
+        <v>3</v>
+      </c>
+      <c r="F162" s="149" t="s">
+        <v>366</v>
+      </c>
+      <c r="G162" s="153" t="str">
+        <f>IF($E162=1,$B162," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H162" s="152" t="str">
+        <f>IF($E162=1,$D162," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I162" s="154"/>
+      <c r="J162" s="153" t="str">
+        <f>IF($E162=2,$B162," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K162" s="152" t="str">
+        <f>IF($E162=2,$D162," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L162" s="154"/>
+      <c r="M162" s="153" t="str">
+        <f>IF($E162=3,$B162," ")</f>
+        <v>装备和其他掉落内容配置</v>
+      </c>
+      <c r="N162" s="152">
+        <f>IF($E162=3,$D162," ")</f>
+        <v>4</v>
+      </c>
+      <c r="O162" s="154"/>
+      <c r="P162" s="153" t="str">
+        <f>IF($E162=4,$B162," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q162" s="152" t="str">
+        <f>IF($E162=4,$D162," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R162" s="154"/>
+      <c r="S162" s="153" t="str">
+        <f>IF($E162=5,$B162," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T162" s="152" t="str">
+        <f>IF($E162=5,$D162," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U162" s="146"/>
+    </row>
+    <row r="163" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B163" s="157" t="s">
         <v>362</v>
-      </c>
-      <c r="D161" s="150">
-        <v>2</v>
-      </c>
-      <c r="E161" s="150">
-        <v>3</v>
-      </c>
-      <c r="G161" s="153" t="str">
-        <f>IF($E161=1,$B161," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H161" s="152" t="str">
-        <f>IF($E161=1,$D161," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I161" s="154"/>
-      <c r="J161" s="153" t="str">
-        <f>IF($E161=2,$B161," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K161" s="152" t="str">
-        <f>IF($E161=2,$D161," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L161" s="154"/>
-      <c r="M161" s="153" t="str">
-        <f>IF($E161=3,$B161," ")</f>
-        <v>玩家各个等级实力分配</v>
-      </c>
-      <c r="N161" s="152">
-        <f>IF($E161=3,$D161," ")</f>
-        <v>2</v>
-      </c>
-      <c r="O161" s="154"/>
-      <c r="P161" s="153" t="str">
-        <f>IF($E161=4,$B161," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q161" s="152" t="str">
-        <f>IF($E161=4,$D161," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R161" s="154"/>
-      <c r="S161" s="153" t="str">
-        <f>IF($E161=5,$B161," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T161" s="152" t="str">
-        <f>IF($E161=5,$D161," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U161" s="146"/>
-    </row>
-    <row r="162" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="G162" s="153"/>
-      <c r="H162" s="152"/>
-      <c r="I162" s="154"/>
-      <c r="J162" s="153"/>
-      <c r="K162" s="152"/>
-      <c r="L162" s="154"/>
-      <c r="M162" s="153"/>
-      <c r="N162" s="152"/>
-      <c r="O162" s="154"/>
-      <c r="P162" s="153"/>
-      <c r="Q162" s="152"/>
-      <c r="R162" s="154"/>
-      <c r="S162" s="153"/>
-      <c r="T162" s="152"/>
-      <c r="U162" s="146"/>
-    </row>
-    <row r="163" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B163" s="156" t="s">
-        <v>691</v>
       </c>
       <c r="D163" s="150">
         <v>2</v>
       </c>
       <c r="E163" s="150">
-        <v>4</v>
-      </c>
-      <c r="G163" s="153"/>
-      <c r="H163" s="152"/>
+        <v>3</v>
+      </c>
+      <c r="G163" s="153" t="str">
+        <f>IF($E163=1,$B163," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H163" s="152" t="str">
+        <f>IF($E163=1,$D163," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I163" s="154"/>
-      <c r="J163" s="153"/>
-      <c r="K163" s="152"/>
+      <c r="J163" s="153" t="str">
+        <f>IF($E163=2,$B163," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K163" s="152" t="str">
+        <f>IF($E163=2,$D163," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L163" s="154"/>
-      <c r="M163" s="153"/>
-      <c r="N163" s="152"/>
+      <c r="M163" s="153" t="str">
+        <f>IF($E163=3,$B163," ")</f>
+        <v>玩家各个等级实力分配</v>
+      </c>
+      <c r="N163" s="152">
+        <f>IF($E163=3,$D163," ")</f>
+        <v>2</v>
+      </c>
       <c r="O163" s="154"/>
-      <c r="P163" s="153"/>
-      <c r="Q163" s="152"/>
+      <c r="P163" s="153" t="str">
+        <f>IF($E163=4,$B163," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q163" s="152" t="str">
+        <f>IF($E163=4,$D163," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="R163" s="154"/>
-      <c r="S163" s="153"/>
-      <c r="T163" s="152"/>
+      <c r="S163" s="153" t="str">
+        <f>IF($E163=5,$B163," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T163" s="152" t="str">
+        <f>IF($E163=5,$D163," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="U163" s="146"/>
     </row>
-    <row r="164" spans="2:21" ht="34" x14ac:dyDescent="0.25">
-      <c r="B164" s="156" t="s">
-        <v>695</v>
-      </c>
-      <c r="D164" s="150">
-        <v>0.5</v>
-      </c>
-      <c r="E164" s="150">
-        <v>4</v>
-      </c>
-      <c r="G164" s="153" t="str">
-        <f>IF($E164=1,$B164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H164" s="152" t="str">
-        <f>IF($E164=1,$D164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+    <row r="164" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G164" s="153"/>
+      <c r="H164" s="152"/>
       <c r="I164" s="154"/>
-      <c r="J164" s="153" t="str">
-        <f>IF($E164=2,$B164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K164" s="152" t="str">
-        <f>IF($E164=2,$D164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J164" s="153"/>
+      <c r="K164" s="152"/>
       <c r="L164" s="154"/>
-      <c r="M164" s="153" t="str">
-        <f>IF($E164=3,$B164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N164" s="152" t="str">
-        <f>IF($E164=3,$D164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M164" s="153"/>
+      <c r="N164" s="152"/>
       <c r="O164" s="154"/>
-      <c r="P164" s="153" t="str">
-        <f>IF($E164=4,$B164," ")</f>
-        <v>扫荡配置（成长）</v>
-      </c>
-      <c r="Q164" s="152">
-        <f>IF($E164=4,$D164," ")</f>
-        <v>0.5</v>
-      </c>
+      <c r="P164" s="153"/>
+      <c r="Q164" s="152"/>
       <c r="R164" s="154"/>
-      <c r="S164" s="153" t="str">
-        <f>IF($E164=5,$B164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T164" s="152" t="str">
-        <f>IF($E164=5,$D164," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S164" s="153"/>
+      <c r="T164" s="152"/>
+      <c r="U164" s="146"/>
     </row>
     <row r="165" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B165" s="156" t="s">
-        <v>371</v>
+        <v>691</v>
       </c>
       <c r="D165" s="150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E165" s="150">
         <v>4</v>
       </c>
-      <c r="G165" s="153" t="str">
-        <f>IF($E165=1,$B165," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H165" s="152" t="str">
-        <f>IF($E165=1,$D165," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G165" s="153"/>
+      <c r="H165" s="152"/>
       <c r="I165" s="154"/>
-      <c r="J165" s="153" t="str">
-        <f>IF($E165=2,$B165," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K165" s="152" t="str">
-        <f>IF($E165=2,$D165," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J165" s="153"/>
+      <c r="K165" s="152"/>
       <c r="L165" s="154"/>
-      <c r="M165" s="153" t="str">
-        <f>IF($E165=3,$B165," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N165" s="152" t="str">
-        <f>IF($E165=3,$D165," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M165" s="153"/>
+      <c r="N165" s="152"/>
       <c r="O165" s="154"/>
-      <c r="P165" s="153" t="str">
-        <f>IF($E165=4,$B165," ")</f>
-        <v>模拟器使用学习</v>
-      </c>
-      <c r="Q165" s="152">
-        <f>IF($E165=4,$D165," ")</f>
-        <v>1</v>
-      </c>
+      <c r="P165" s="153"/>
+      <c r="Q165" s="152"/>
       <c r="R165" s="154"/>
-      <c r="S165" s="153" t="str">
-        <f>IF($E165=5,$B165," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T165" s="152" t="str">
-        <f>IF($E165=5,$D165," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="S165" s="153"/>
+      <c r="T165" s="152"/>
+      <c r="U165" s="146"/>
     </row>
     <row r="166" spans="2:21" ht="34" x14ac:dyDescent="0.25">
-      <c r="B166" s="187" t="s">
-        <v>694</v>
-      </c>
-      <c r="C166" s="155"/>
-      <c r="D166" s="155">
-        <v>2</v>
+      <c r="B166" s="156" t="s">
+        <v>695</v>
+      </c>
+      <c r="D166" s="150">
+        <v>0.5</v>
       </c>
       <c r="E166" s="150">
         <v>4</v>
-      </c>
-      <c r="F166" s="149" t="s">
-        <v>407</v>
       </c>
       <c r="G166" s="153" t="str">
         <f>IF($E166=1,$B166," ")</f>
@@ -23414,11 +23356,11 @@
       <c r="O166" s="154"/>
       <c r="P166" s="153" t="str">
         <f>IF($E166=4,$B166," ")</f>
-        <v>成长相关 - 任务投放+剧情（前两天）</v>
+        <v>扫荡配置（成长）</v>
       </c>
       <c r="Q166" s="152">
         <f>IF($E166=4,$D166," ")</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="R166" s="154"/>
       <c r="S166" s="153" t="str">
@@ -23431,188 +23373,190 @@
       </c>
     </row>
     <row r="167" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B167" s="146" t="s">
-        <v>683</v>
+      <c r="B167" s="156" t="s">
+        <v>371</v>
       </c>
       <c r="D167" s="150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E167" s="150">
         <v>4</v>
       </c>
-      <c r="G167" s="146" t="str">
+      <c r="G167" s="153" t="str">
         <f>IF($E167=1,$B167," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H167" s="148" t="str">
+      <c r="H167" s="152" t="str">
         <f>IF($E167=1,$D167," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J167" s="146" t="str">
+      <c r="I167" s="154"/>
+      <c r="J167" s="153" t="str">
         <f>IF($E167=2,$B167," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K167" s="146" t="str">
+      <c r="K167" s="152" t="str">
         <f>IF($E167=2,$D167," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M167" s="146" t="str">
+      <c r="L167" s="154"/>
+      <c r="M167" s="153" t="str">
         <f>IF($E167=3,$B167," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N167" s="146" t="str">
+      <c r="N167" s="152" t="str">
         <f>IF($E167=3,$D167," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P167" s="146" t="str">
+      <c r="O167" s="154"/>
+      <c r="P167" s="153" t="str">
         <f>IF($E167=4,$B167," ")</f>
-        <v>成长数值验证/调试</v>
-      </c>
-      <c r="Q167" s="146">
+        <v>模拟器使用学习</v>
+      </c>
+      <c r="Q167" s="152">
         <f>IF($E167=4,$D167," ")</f>
-        <v>3</v>
-      </c>
-      <c r="S167" s="146" t="str">
+        <v>1</v>
+      </c>
+      <c r="R167" s="154"/>
+      <c r="S167" s="153" t="str">
         <f>IF($E167=5,$B167," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T167" s="146" t="str">
+      <c r="T167" s="152" t="str">
         <f>IF($E167=5,$D167," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="168" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="G168" s="153"/>
-      <c r="H168" s="152"/>
+    <row r="168" spans="2:21" ht="34" x14ac:dyDescent="0.25">
+      <c r="B168" s="187" t="s">
+        <v>694</v>
+      </c>
+      <c r="C168" s="155"/>
+      <c r="D168" s="155">
+        <v>2</v>
+      </c>
+      <c r="E168" s="150">
+        <v>4</v>
+      </c>
+      <c r="F168" s="149" t="s">
+        <v>407</v>
+      </c>
+      <c r="G168" s="153" t="str">
+        <f>IF($E168=1,$B168," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H168" s="152" t="str">
+        <f>IF($E168=1,$D168," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="I168" s="154"/>
-      <c r="J168" s="153"/>
-      <c r="K168" s="152"/>
+      <c r="J168" s="153" t="str">
+        <f>IF($E168=2,$B168," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K168" s="152" t="str">
+        <f>IF($E168=2,$D168," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="L168" s="154"/>
-      <c r="M168" s="153"/>
-      <c r="N168" s="152"/>
+      <c r="M168" s="153" t="str">
+        <f>IF($E168=3,$B168," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N168" s="152" t="str">
+        <f>IF($E168=3,$D168," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
       <c r="O168" s="154"/>
-      <c r="P168" s="153"/>
-      <c r="Q168" s="152"/>
+      <c r="P168" s="153" t="str">
+        <f>IF($E168=4,$B168," ")</f>
+        <v>成长相关 - 任务投放+剧情（前两天）</v>
+      </c>
+      <c r="Q168" s="152">
+        <f>IF($E168=4,$D168," ")</f>
+        <v>2</v>
+      </c>
       <c r="R168" s="154"/>
-      <c r="S168" s="153"/>
-      <c r="T168" s="152"/>
-      <c r="U168" s="146"/>
+      <c r="S168" s="153" t="str">
+        <f>IF($E168=5,$B168," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T168" s="152" t="str">
+        <f>IF($E168=5,$D168," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="169" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B169" s="146" t="s">
-        <v>347</v>
-      </c>
-      <c r="G169" s="153" t="str">
+        <v>683</v>
+      </c>
+      <c r="D169" s="150">
+        <v>3</v>
+      </c>
+      <c r="E169" s="150">
+        <v>4</v>
+      </c>
+      <c r="G169" s="146" t="str">
         <f>IF($E169=1,$B169," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="H169" s="152" t="str">
+      <c r="H169" s="148" t="str">
         <f>IF($E169=1,$D169," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="I169" s="154"/>
-      <c r="J169" s="153" t="str">
+      <c r="J169" s="146" t="str">
         <f>IF($E169=2,$B169," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K169" s="152" t="str">
+      <c r="K169" s="146" t="str">
         <f>IF($E169=2,$D169," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L169" s="154"/>
-      <c r="M169" s="153" t="str">
+      <c r="M169" s="146" t="str">
         <f>IF($E169=3,$B169," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N169" s="152" t="str">
+      <c r="N169" s="146" t="str">
         <f>IF($E169=3,$D169," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O169" s="154"/>
-      <c r="P169" s="153" t="str">
+      <c r="P169" s="146" t="str">
         <f>IF($E169=4,$B169," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q169" s="152" t="str">
+        <v>成长数值验证/调试</v>
+      </c>
+      <c r="Q169" s="146">
         <f>IF($E169=4,$D169," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R169" s="154"/>
-      <c r="S169" s="153" t="str">
+        <v>3</v>
+      </c>
+      <c r="S169" s="146" t="str">
         <f>IF($E169=5,$B169," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T169" s="152" t="str">
+      <c r="T169" s="146" t="str">
         <f>IF($E169=5,$D169," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U169" s="146"/>
     </row>
     <row r="170" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B170" s="146" t="s">
-        <v>155</v>
-      </c>
-      <c r="D170" s="150">
-        <v>2</v>
-      </c>
-      <c r="E170" s="150">
-        <v>5</v>
-      </c>
-      <c r="G170" s="153" t="str">
-        <f>IF($E170=1,$B170," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H170" s="152" t="str">
-        <f>IF($E170=1,$D170," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="G170" s="153"/>
+      <c r="H170" s="152"/>
       <c r="I170" s="154"/>
-      <c r="J170" s="153" t="str">
-        <f>IF($E170=2,$B170," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K170" s="152" t="str">
-        <f>IF($E170=2,$D170," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="J170" s="153"/>
+      <c r="K170" s="152"/>
       <c r="L170" s="154"/>
-      <c r="M170" s="153" t="str">
-        <f>IF($E170=3,$B170," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N170" s="152" t="str">
-        <f>IF($E170=3,$D170," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="M170" s="153"/>
+      <c r="N170" s="152"/>
       <c r="O170" s="154"/>
-      <c r="P170" s="153" t="str">
-        <f>IF($E170=4,$B170," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q170" s="152" t="str">
-        <f>IF($E170=4,$D170," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="P170" s="153"/>
+      <c r="Q170" s="152"/>
       <c r="R170" s="154"/>
-      <c r="S170" s="153" t="str">
-        <f>IF($E170=5,$B170," ")</f>
-        <v>各个玩法投放回收集成</v>
-      </c>
-      <c r="T170" s="152">
-        <f>IF($E170=5,$D170," ")</f>
-        <v>2</v>
-      </c>
+      <c r="S170" s="153"/>
+      <c r="T170" s="152"/>
       <c r="U170" s="146"/>
     </row>
     <row r="171" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B171" s="146" t="s">
-        <v>208</v>
-      </c>
-      <c r="D171" s="150">
-        <v>2</v>
-      </c>
-      <c r="E171" s="150">
-        <v>5</v>
+        <v>347</v>
       </c>
       <c r="G171" s="153" t="str">
         <f>IF($E171=1,$B171," ")</f>
@@ -23652,15 +23596,24 @@
       <c r="R171" s="154"/>
       <c r="S171" s="153" t="str">
         <f>IF($E171=5,$B171," ")</f>
-        <v>回归游戏前期玩家等级成长</v>
-      </c>
-      <c r="T171" s="152">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T171" s="152" t="str">
         <f>IF($E171=5,$D171," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U171" s="146"/>
+    </row>
+    <row r="172" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B172" s="146" t="s">
+        <v>155</v>
+      </c>
+      <c r="D172" s="150">
         <v>2</v>
       </c>
-      <c r="U171" s="146"/>
-    </row>
-    <row r="172" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E172" s="150">
+        <v>5</v>
+      </c>
       <c r="G172" s="153" t="str">
         <f>IF($E172=1,$B172," ")</f>
         <v xml:space="preserve"> </v>
@@ -23699,14 +23652,24 @@
       <c r="R172" s="154"/>
       <c r="S172" s="153" t="str">
         <f>IF($E172=5,$B172," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T172" s="152" t="str">
+        <v>各个玩法投放回收集成</v>
+      </c>
+      <c r="T172" s="152">
         <f>IF($E172=5,$D172," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="U172" s="146"/>
     </row>
     <row r="173" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B173" s="146" t="s">
+        <v>208</v>
+      </c>
+      <c r="D173" s="150">
+        <v>2</v>
+      </c>
+      <c r="E173" s="150">
+        <v>5</v>
+      </c>
       <c r="G173" s="153" t="str">
         <f>IF($E173=1,$B173," ")</f>
         <v xml:space="preserve"> </v>
@@ -23745,265 +23708,335 @@
       <c r="R173" s="154"/>
       <c r="S173" s="153" t="str">
         <f>IF($E173=5,$B173," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T173" s="152" t="str">
+        <v>回归游戏前期玩家等级成长</v>
+      </c>
+      <c r="T173" s="152">
         <f>IF($E173=5,$D173," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="174" spans="2:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="U173" s="146"/>
+    </row>
+    <row r="174" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G174" s="153" t="str">
+        <f>IF($E174=1,$B174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H174" s="152" t="str">
+        <f>IF($E174=1,$D174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I174" s="154"/>
+      <c r="J174" s="153" t="str">
+        <f>IF($E174=2,$B174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K174" s="152" t="str">
+        <f>IF($E174=2,$D174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L174" s="154"/>
+      <c r="M174" s="153" t="str">
+        <f>IF($E174=3,$B174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N174" s="152" t="str">
+        <f>IF($E174=3,$D174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O174" s="154"/>
+      <c r="P174" s="153" t="str">
+        <f>IF($E174=4,$B174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q174" s="152" t="str">
+        <f>IF($E174=4,$D174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R174" s="154"/>
+      <c r="S174" s="153" t="str">
+        <f>IF($E174=5,$B174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T174" s="152" t="str">
+        <f>IF($E174=5,$D174," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="175" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G175" s="153" t="str">
+        <f>IF($E175=1,$B175," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H175" s="152" t="str">
+        <f>IF($E175=1,$D175," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I175" s="154"/>
+      <c r="J175" s="153" t="str">
+        <f>IF($E175=2,$B175," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K175" s="152" t="str">
+        <f>IF($E175=2,$D175," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L175" s="154"/>
+      <c r="M175" s="153" t="str">
+        <f>IF($E175=3,$B175," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N175" s="152" t="str">
+        <f>IF($E175=3,$D175," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O175" s="154"/>
+      <c r="P175" s="153" t="str">
+        <f>IF($E175=4,$B175," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q175" s="152" t="str">
+        <f>IF($E175=4,$D175," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R175" s="154"/>
+      <c r="S175" s="153" t="str">
+        <f>IF($E175=5,$B175," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T175" s="152" t="str">
+        <f>IF($E175=5,$D175," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="176" spans="2:21" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="24" t="s">
         <v>631</v>
       </c>
-      <c r="C174" s="24"/>
-      <c r="D174" s="72">
-        <f>SUM(D152:D173)</f>
+      <c r="C176" s="24"/>
+      <c r="D176" s="72">
+        <f>SUM(D154:D175)</f>
         <v>29.5</v>
       </c>
-      <c r="E174" s="72"/>
-      <c r="F174" s="75"/>
-      <c r="H174" s="72">
-        <f>SUM(H152:H173)</f>
+      <c r="E176" s="72"/>
+      <c r="F176" s="75"/>
+      <c r="H176" s="72">
+        <f>SUM(H154:H175)</f>
         <v>5</v>
       </c>
-      <c r="I174" s="20"/>
-      <c r="K174" s="72">
-        <f>SUM(K152:K173)</f>
+      <c r="I176" s="20"/>
+      <c r="K176" s="72">
+        <f>SUM(K154:K175)</f>
         <v>6</v>
       </c>
-      <c r="L174" s="20"/>
-      <c r="N174" s="72">
-        <f>SUM(N152:N173)</f>
+      <c r="L176" s="20"/>
+      <c r="N176" s="72">
+        <f>SUM(N154:N175)</f>
         <v>6</v>
       </c>
-      <c r="O174" s="20"/>
-      <c r="Q174" s="72">
-        <f>SUM(Q152:Q173)</f>
+      <c r="O176" s="20"/>
+      <c r="Q176" s="72">
+        <f>SUM(Q154:Q175)</f>
         <v>6.5</v>
       </c>
-      <c r="R174" s="20"/>
-      <c r="T174" s="72">
-        <f>SUM(T152:T173)</f>
+      <c r="R176" s="20"/>
+      <c r="T176" s="72">
+        <f>SUM(T154:T175)</f>
         <v>4</v>
       </c>
-      <c r="U174" s="20"/>
-    </row>
-    <row r="177" spans="2:19" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D177" s="73"/>
-      <c r="E177" s="73"/>
-      <c r="F177" s="76"/>
-      <c r="G177" s="1" t="s">
+      <c r="U176" s="20"/>
+    </row>
+    <row r="179" spans="2:19" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D179" s="73"/>
+      <c r="E179" s="73"/>
+      <c r="F179" s="76"/>
+      <c r="G179" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H177" s="74"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1" t="s">
+      <c r="H179" s="74"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="K177" s="1"/>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1" t="s">
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
-      <c r="P177" s="1" t="s">
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Q177" s="1"/>
-      <c r="R177" s="1"/>
-      <c r="S177" s="1" t="s">
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="S179" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="178" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B178" s="19" t="s">
+    <row r="180" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B180" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C178" s="19"/>
-      <c r="D178" s="72"/>
-      <c r="G178" s="19" t="s">
+      <c r="C180" s="19"/>
+      <c r="D180" s="72"/>
+      <c r="G180" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="H178" s="24"/>
-      <c r="I178" s="20"/>
-      <c r="J178" s="19" t="s">
+      <c r="H180" s="24"/>
+      <c r="I180" s="20"/>
+      <c r="J180" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="K178" s="19"/>
-      <c r="L178" s="20"/>
-      <c r="M178" s="19" t="s">
+      <c r="K180" s="19"/>
+      <c r="L180" s="20"/>
+      <c r="M180" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="N178" s="19"/>
-      <c r="O178" s="20"/>
-      <c r="P178" s="19" t="s">
+      <c r="N180" s="19"/>
+      <c r="O180" s="20"/>
+      <c r="P180" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="Q178" s="19"/>
-      <c r="R178" s="20"/>
-      <c r="S178" s="19" t="s">
+      <c r="Q180" s="19"/>
+      <c r="R180" s="20"/>
+      <c r="S180" s="19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="180" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="G180" s="146" t="s">
+    <row r="182" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G182" s="146" t="s">
         <v>418</v>
       </c>
-      <c r="I180" s="146"/>
-    </row>
-    <row r="181" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="J181" s="146" t="s">
+      <c r="I182" s="146"/>
+    </row>
+    <row r="183" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J183" s="146" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="182" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="I182" s="146"/>
-      <c r="J182" s="146" t="s">
+    <row r="184" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="I184" s="146"/>
+      <c r="J184" s="146" t="s">
         <v>419</v>
       </c>
-      <c r="M182" s="146" t="s">
+      <c r="M184" s="146" t="s">
         <v>420</v>
       </c>
-      <c r="P182" s="146" t="s">
+      <c r="P184" s="146" t="s">
         <v>421</v>
       </c>
-      <c r="S182" s="146" t="s">
+      <c r="S184" s="146" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="185" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="G185" s="146" t="s">
+    <row r="187" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G187" s="146" t="s">
         <v>410</v>
       </c>
-      <c r="J185" s="146" t="s">
+      <c r="J187" s="146" t="s">
         <v>410</v>
       </c>
-      <c r="M185" s="146" t="s">
+      <c r="M187" s="146" t="s">
         <v>410</v>
       </c>
-      <c r="P185" s="146" t="s">
+      <c r="P187" s="146" t="s">
         <v>410</v>
       </c>
-      <c r="S185" s="146" t="s">
+      <c r="S187" s="146" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="188" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="G188" s="146" t="s">
+    <row r="190" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G190" s="146" t="s">
         <v>411</v>
       </c>
-      <c r="M188" s="146" t="s">
+      <c r="M190" s="146" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="192" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="G192" s="19" t="s">
+    <row r="194" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="G194" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="H192" s="24"/>
-      <c r="I192" s="20"/>
-      <c r="J192" s="19" t="s">
+      <c r="H194" s="24"/>
+      <c r="I194" s="20"/>
+      <c r="J194" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="K192" s="19"/>
-      <c r="L192" s="20"/>
-      <c r="M192" s="19" t="s">
+      <c r="K194" s="19"/>
+      <c r="L194" s="20"/>
+      <c r="M194" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="N192" s="19"/>
-      <c r="O192" s="20"/>
-      <c r="P192" s="19" t="s">
+      <c r="N194" s="19"/>
+      <c r="O194" s="20"/>
+      <c r="P194" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="Q192" s="19"/>
-      <c r="R192" s="20"/>
-      <c r="S192" s="19" t="s">
+      <c r="Q194" s="19"/>
+      <c r="R194" s="20"/>
+      <c r="S194" s="19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="194" spans="4:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="G194" s="146" t="s">
+    <row r="196" spans="4:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="G196" s="146" t="s">
         <v>412</v>
       </c>
-      <c r="P194" s="2"/>
-    </row>
-    <row r="195" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="G195" s="146" t="s">
-        <v>363</v>
-      </c>
-      <c r="M195" s="151"/>
-      <c r="S195" s="146" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="196" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="G196" s="146" t="s">
-        <v>417</v>
-      </c>
+      <c r="P196" s="2"/>
     </row>
     <row r="197" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G197" s="146" t="s">
+        <v>363</v>
+      </c>
+      <c r="M197" s="151"/>
+      <c r="S197" s="146" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="198" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="G198" s="146" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="199" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="G199" s="146" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="201" spans="4:19" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D201" s="73"/>
-      <c r="E201" s="73"/>
-      <c r="F201" s="76"/>
-      <c r="G201" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="H201" s="74"/>
-      <c r="I201" s="1"/>
-      <c r="J201" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="K201" s="1"/>
-      <c r="L201" s="1"/>
-      <c r="M201" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="N201" s="1"/>
-      <c r="O201" s="1"/>
-      <c r="P201" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q201" s="1"/>
-      <c r="R201" s="1"/>
-      <c r="S201" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="202" spans="4:19" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="D202" s="73"/>
-      <c r="E202" s="73"/>
-      <c r="F202" s="76"/>
-      <c r="G202" s="146"/>
-      <c r="H202" s="70"/>
-      <c r="J202" s="146"/>
-      <c r="M202" s="146"/>
     </row>
     <row r="203" spans="4:19" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D203" s="73"/>
       <c r="E203" s="73"/>
       <c r="F203" s="76"/>
-      <c r="G203" s="146" t="s">
-        <v>411</v>
-      </c>
-      <c r="H203" s="70"/>
-      <c r="J203" s="146" t="s">
-        <v>413</v>
-      </c>
-      <c r="P203" t="s">
-        <v>414</v>
+      <c r="G203" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H203" s="74"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="P203" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="S203" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="204" spans="4:19" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D204" s="73"/>
       <c r="E204" s="73"/>
       <c r="F204" s="76"/>
+      <c r="G204" s="146"/>
       <c r="H204" s="70"/>
       <c r="J204" s="146"/>
       <c r="M204" s="146"/>
@@ -24012,180 +24045,203 @@
       <c r="D205" s="73"/>
       <c r="E205" s="73"/>
       <c r="F205" s="76"/>
+      <c r="G205" s="146" t="s">
+        <v>411</v>
+      </c>
       <c r="H205" s="70"/>
-      <c r="M205" s="146"/>
+      <c r="J205" s="146" t="s">
+        <v>413</v>
+      </c>
+      <c r="P205" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="206" spans="4:19" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D206" s="73"/>
       <c r="E206" s="73"/>
       <c r="F206" s="76"/>
-      <c r="G206" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="H206" s="74"/>
-      <c r="I206" s="1"/>
-      <c r="J206" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="K206" s="1"/>
-      <c r="L206" s="1"/>
-      <c r="M206" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="N206" s="1"/>
-      <c r="O206" s="1"/>
-      <c r="P206" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q206" s="1"/>
-      <c r="R206" s="1"/>
-      <c r="S206" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="H206" s="70"/>
+      <c r="J206" s="146"/>
+      <c r="M206" s="146"/>
     </row>
     <row r="207" spans="4:19" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D207" s="73"/>
       <c r="E207" s="73"/>
       <c r="F207" s="76"/>
       <c r="H207" s="70"/>
+      <c r="M207" s="146"/>
     </row>
     <row r="208" spans="4:19" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D208" s="73"/>
       <c r="E208" s="73"/>
       <c r="F208" s="76"/>
-      <c r="G208" s="146"/>
-      <c r="H208" s="70"/>
-      <c r="J208" s="146"/>
-      <c r="M208" s="146"/>
-    </row>
-    <row r="209" spans="4:10" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G208" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H208" s="74"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="1"/>
+      <c r="S208" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="209" spans="4:13" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D209" s="73"/>
       <c r="E209" s="73"/>
       <c r="F209" s="76"/>
-      <c r="G209" s="146"/>
       <c r="H209" s="70"/>
-      <c r="J209" s="146"/>
-    </row>
-    <row r="210" spans="4:10" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="4:13" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D210" s="73"/>
       <c r="E210" s="73"/>
       <c r="F210" s="76"/>
+      <c r="G210" s="146"/>
       <c r="H210" s="70"/>
       <c r="J210" s="146"/>
+      <c r="M210" s="146"/>
+    </row>
+    <row r="211" spans="4:13" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D211" s="73"/>
+      <c r="E211" s="73"/>
+      <c r="F211" s="76"/>
+      <c r="G211" s="146"/>
+      <c r="H211" s="70"/>
+      <c r="J211" s="146"/>
+    </row>
+    <row r="212" spans="4:13" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D212" s="73"/>
+      <c r="E212" s="73"/>
+      <c r="F212" s="76"/>
+      <c r="H212" s="70"/>
+      <c r="J212" s="146"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="J29 M29 B29:D32 B36:D37 J103:J107 M103:M107 G103:G108 P103:P107 S103:S107 S138 S140:S146 P138 P140:P146 M138 M140:M146 J138 J140:J146 F138:G138 F140:G146 B71:D72 S61:S64 S66:S69 P61:P64 P66:P69 G61:G64 G66:G69 M61:M64 J61:J64 B100:D101 G168:G173 J168:J173 M168:M173 P168:P173 S168:S173 G151:G166 J151:J166 M151:M166 P151:P166 S151:S166 B127:D127 B129:D129 B131:D132 S110:S127 P110:P127 M110:M127 J110:J127 F110:G127 J66:J89 M66:M89 G73:G89 P73:P89 S73:S89 S92:S101 P92:P101 G92:G101 M92:M101 J92:J101 B56:D57 G31:G40 J31:J40 B39:D40 S31:S40 P31:P40 M31:M40 B42:D54 M42:M59 P42:P59 S42:S59 J42:J59 G42:G59 P5:P25 G5:G25 M5:M25 J5:J25 S5:S25 S129:S134 P129:P134 M129:M134 J129:J134 F129:G134">
+  <conditionalFormatting sqref="J30 M30 B30:D33 B37:D38 J105:J109 M105:M109 G105:G110 P105:P109 S105:S109 S140 S142:S148 P140 P142:P148 M140 M142:M148 J140 J142:J148 F140:G140 F142:G148 B72:D73 S62:S65 S67:S70 P62:P65 P67:P70 G62:G65 G67:G70 M62:M65 J62:J65 B102:D103 G170:G175 J170:J175 M170:M175 P170:P175 S170:S175 G153:G168 J153:J168 M153:M168 P153:P168 S153:S168 B129:D129 B131:D131 B133:D134 S112:S129 P112:P129 M112:M129 J112:J129 F112:G129 J67:J91 M67:M91 G74:G91 P74:P91 S74:S91 S94:S103 P94:P103 G94:G103 M94:M103 J94:J103 B57:D58 G32:G41 J32:J41 B40:D41 S32:S41 P32:P41 M32:M41 B43:D55 M43:M60 P43:P60 S43:S60 J43:J60 G43:G60 P5:P26 G5:G26 M5:M26 J5:J26 S5:S26 S131:S136 P131:P136 M131:M136 J131:J136 F131:G136">
     <cfRule type="cellIs" dxfId="90" priority="41" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G150 B160:D160 B157:D157 B166:D166 B150:D151 B113:D115 B130:D130 B140:D140 B138:D138 J109">
+  <conditionalFormatting sqref="G152 B162:D162 B159:D159 B168:D168 B152:D153 B115:D117 B132:D132 B142:D142 B140:D140 J111">
     <cfRule type="cellIs" dxfId="89" priority="40" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B126:D126">
+  <conditionalFormatting sqref="B128:D128">
     <cfRule type="cellIs" dxfId="88" priority="39" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F147:T147">
+  <conditionalFormatting sqref="F149:T149">
     <cfRule type="cellIs" dxfId="87" priority="38" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T30 Q30 N30 K30 H30">
+  <conditionalFormatting sqref="T31 Q31 N31 K31 H31">
     <cfRule type="cellIs" dxfId="86" priority="37" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T102">
+  <conditionalFormatting sqref="T104">
     <cfRule type="cellIs" dxfId="85" priority="34" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q102">
+  <conditionalFormatting sqref="Q104">
     <cfRule type="cellIs" dxfId="84" priority="35" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N102">
+  <conditionalFormatting sqref="N104">
     <cfRule type="cellIs" dxfId="83" priority="33" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K102">
+  <conditionalFormatting sqref="K104">
     <cfRule type="cellIs" dxfId="82" priority="32" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H102">
+  <conditionalFormatting sqref="H104">
     <cfRule type="cellIs" dxfId="81" priority="31" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B102:D102">
+  <conditionalFormatting sqref="B104:D104">
     <cfRule type="cellIs" dxfId="80" priority="36" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B136:D136">
+  <conditionalFormatting sqref="B138:D138">
     <cfRule type="cellIs" dxfId="79" priority="30" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H136">
+  <conditionalFormatting sqref="H138">
     <cfRule type="cellIs" dxfId="78" priority="29" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N136">
+  <conditionalFormatting sqref="N138">
     <cfRule type="cellIs" dxfId="77" priority="27" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T136">
+  <conditionalFormatting sqref="T138">
     <cfRule type="cellIs" dxfId="76" priority="25" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K136">
+  <conditionalFormatting sqref="K138">
     <cfRule type="cellIs" dxfId="75" priority="28" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q136">
+  <conditionalFormatting sqref="Q138">
     <cfRule type="cellIs" dxfId="74" priority="26" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T60">
+  <conditionalFormatting sqref="T61">
     <cfRule type="cellIs" dxfId="73" priority="22" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q60">
+  <conditionalFormatting sqref="Q61">
     <cfRule type="cellIs" dxfId="72" priority="23" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N60">
+  <conditionalFormatting sqref="N61">
     <cfRule type="cellIs" dxfId="71" priority="21" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
+  <conditionalFormatting sqref="K61">
     <cfRule type="cellIs" dxfId="70" priority="20" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
+  <conditionalFormatting sqref="H61">
     <cfRule type="cellIs" dxfId="69" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:D60">
+  <conditionalFormatting sqref="B61:D61">
     <cfRule type="cellIs" dxfId="68" priority="24" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -24195,72 +24251,72 @@
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B174:D174">
+  <conditionalFormatting sqref="B176:D176">
     <cfRule type="cellIs" dxfId="66" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H174">
+  <conditionalFormatting sqref="H176">
     <cfRule type="cellIs" dxfId="65" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N174">
+  <conditionalFormatting sqref="N176">
     <cfRule type="cellIs" dxfId="64" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T174">
+  <conditionalFormatting sqref="T176">
     <cfRule type="cellIs" dxfId="63" priority="12" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K174">
+  <conditionalFormatting sqref="K176">
     <cfRule type="cellIs" dxfId="62" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q174">
+  <conditionalFormatting sqref="Q176">
     <cfRule type="cellIs" dxfId="61" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T28">
+  <conditionalFormatting sqref="T29">
     <cfRule type="cellIs" dxfId="60" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q28">
+  <conditionalFormatting sqref="Q29">
     <cfRule type="cellIs" dxfId="59" priority="10" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N28">
+  <conditionalFormatting sqref="N29">
     <cfRule type="cellIs" dxfId="58" priority="8" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+  <conditionalFormatting sqref="K29">
     <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H29">
     <cfRule type="cellIs" dxfId="56" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:D28">
+  <conditionalFormatting sqref="B29:D29">
     <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S90:S91 P90:P91 G90:G91 M90:M91 J90:J91">
+  <conditionalFormatting sqref="S92:S93 P92:P93 G92:G93 M92:M93 J92:J93">
     <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:D41 G41 J41 S41 P41 M41">
+  <conditionalFormatting sqref="B42:D42 G42 J42 S42 P42 M42">
     <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
